--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書\記事設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFA357C-6635-4AA5-828F-FAF652905FAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9548156-3217-4F0C-BED4-CE32214A69EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="3408" windowWidth="19764" windowHeight="19068" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23844" yWindow="0" windowWidth="21288" windowHeight="19068" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="107">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -237,12 +237,542 @@
     <t>meta description</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>目次</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>h3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標文字数</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実質文字数</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開日</t>
+    <rPh sb="0" eb="3">
+      <t>コウカイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競合文字数</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1400～270</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.leon-tec.co.jp/blog/yoshida/8214/</t>
+  </si>
+  <si>
+    <t>参考サイト</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記の様な掲示板を作成します</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認画面へ」を押したら、上に書き込まれて行きます。</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストと入力し「確認画面へ」を押下</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記の様に書き込まれます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に問題はないのと思うかもしれませんが、この掲示板は、エスケープ処理がされていないので問題ありです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんなことが問題か見ていきます。</t>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先ほどは「テスト」でしたが、下記の様にJavaScriptを書いて「確認画面へ」を押下してみます</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認画面へ」を押下</t>
+  </si>
+  <si>
+    <t>このようにJavaScriptが発生してしまいます。</t>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> これが「XSS や悪意のあるスクリプトによる攻撃」と呼ばれるものです。</t>
+    <rPh sb="27" eb="28">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java等は、型等の制限が厳しいためXSS等をあまり考えなくてもいいのですが、</t>
+    <rPh sb="4" eb="5">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キビ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPは変数になんでもブチこめれる為、エスケープ処理をきちんとやらないと非常に危険です。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回はアラートだけなのでそんなに問題はありませんが、SQLを書かれたら会員ユーザーの個人情報等が抜き取られてしまうため非常に危険です。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考画像</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※他サイトからのコピペの為、そのまま使わないように</t>
+    <rPh sb="1" eb="2">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】htmlspecialcharsの使い方を分かり易く解説！</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】htmlspecialcharsの使い方を分かり易く解説！｜フライテック</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meta title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpのhtmlspecialchars関数 は、 HTML タグ(例：「&amp;」、「"」、「'」、「&lt;」、「&gt;」)などに使われる特殊文字をエンティティに変換します。XSS等による攻撃を防ぐためにhtmlspecialchars関数はよく使われます。ここでは、htmlspecialchars関数の基本的な使い方と、htmlspecialchars関数を使わないとどうなるかをわかりやすく解説します！</t>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="147" eb="150">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープ処理とは</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープをする理由</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XSS攻撃の例(エスケープしない場合)</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpのhtmlspecialchars関数 は、 HTML タグ(例：「&amp;」、「"」、「'」、「&lt;」、「&gt;」)などに使われる特殊文字をエンティティに変換します。XSS等による攻撃を防ぐためにhtmlspecialchars関数はよく使われます。ここでは、htmlspecialchars関数の基本的な使い方と、エスケープ処理をしないとどうなるかをわかりやすく解説します！</t>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="147" eb="150">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「エスケープ処理がわかっている方は読み飛ばしてください」と記載</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※参考画像参照</t>
+    <rPh sb="1" eb="3">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlspecialcharsが変換する「HTMLの特殊文字」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLの特殊文字とは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間：2020/06/22</t>
+  </si>
+  <si>
+    <t>案件内容：テスト</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;　&lt;br&gt;　&lt;br&gt;　</t>
+  </si>
+  <si>
+    <t>htmlspecialchars() 関数は、 HTML タグなどに使われる特殊文字をエンティティに変換します。 XSS や悪意のあるスクリプトによる攻撃を防ぐための PHP の関数
+htmlspecialchars — 特殊文字を HTML エンティティに変換する
+エスケープ処理とは、マークアップ言語やプログラミング言語、スクリプト言語等で文字列を扱う際に、その言語にとって特別な意味を持つ文字や記号を、別の文字列に置き換えることです。これをしないと、クロスサイトスクリプティング（XSS）が行えちゃいますから、システムに色々問題が発生してしまいます。</t>
+    <rPh sb="19" eb="21">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlspecialchars() 関数でエスケープ処理した場合</t>
+    <rPh sb="27" eb="29">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスケープした場合の例</t>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlspecialcharsの使用方法</t>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>htmlspecialcharsを使って変換する例</t>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +814,15 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -312,8 +851,36 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +905,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -457,12 +1030,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -488,20 +1083,73 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -524,6 +1172,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>31198</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>122177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57483915-B9F0-4581-8ABD-E3C24F56E014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="472440" y="14874240"/>
+          <a:ext cx="8283658" cy="2964437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8354</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>30725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1CC66A-2272-43F8-B251-00B455990744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="510540" y="11955780"/>
+          <a:ext cx="8474174" cy="2827265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>61677</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>160305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF8165E-82B4-4922-9FCB-8148D4F9ACDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="518160" y="18478500"/>
+          <a:ext cx="8268417" cy="3284505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38816</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>23139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1EAE32-19E3-4F2B-8A49-9E53FB200B58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="502920" y="24612600"/>
+          <a:ext cx="8260796" cy="3223539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>84541</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>190785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284F0AD8-F32D-4A13-8444-CE3691B7E8CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487680" y="28597860"/>
+          <a:ext cx="8321761" cy="3292125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>229093</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>160371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C8BCAD-13AE-4D90-B2AC-1C3F90F08471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="502920" y="38031420"/>
+          <a:ext cx="5685013" cy="4046571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,11 +2145,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE9285-24F2-4C79-9665-D4ED840B5D66}">
-  <dimension ref="B2:AK39"/>
+  <dimension ref="B2:AN151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -1240,10 +2155,14 @@
     <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="3.296875" style="3"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="26" width="3.296875" style="3"/>
+    <col min="27" max="27" width="3.296875" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="3.296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37">
+    <row r="2" spans="2:40">
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1278,12 +2197,15 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="20" t="s">
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AK2" s="21"/>
-    </row>
-    <row r="3" spans="2:37" ht="26.4">
+      <c r="AN2" s="32"/>
+    </row>
+    <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
@@ -1325,9 +2247,12 @@
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
       <c r="AJ3" s="10"/>
-      <c r="AK3" s="11"/>
-    </row>
-    <row r="4" spans="2:37">
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="2:40">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1363,9 +2288,12 @@
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
-      <c r="AK4" s="11"/>
-    </row>
-    <row r="5" spans="2:37">
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+    </row>
+    <row r="5" spans="2:40">
       <c r="B5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -1400,9 +2328,12 @@
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
-      <c r="AK5" s="11"/>
-    </row>
-    <row r="6" spans="2:37">
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
         <v>51</v>
@@ -1418,17 +2349,21 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="I6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="20">
+        <v>3000</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -1446,9 +2381,12 @@
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
-      <c r="AK6" s="11"/>
-    </row>
-    <row r="7" spans="2:37">
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
         <v>0</v>
@@ -1464,17 +2402,21 @@
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="I7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -1492,9 +2434,12 @@
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
-      <c r="AK7" s="11"/>
-    </row>
-    <row r="8" spans="2:37">
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
         <v>42</v>
@@ -1508,17 +2453,19 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="I8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -1536,9 +2483,12 @@
       <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
       <c r="AJ8" s="10"/>
-      <c r="AK8" s="11"/>
-    </row>
-    <row r="9" spans="2:37">
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
         <v>43</v>
@@ -1552,17 +2502,19 @@
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="I9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
@@ -1580,9 +2532,12 @@
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
-      <c r="AK9" s="11"/>
-    </row>
-    <row r="10" spans="2:37">
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
         <v>44</v>
@@ -1596,26 +2551,24 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="I10" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="21"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
@@ -1624,9 +2577,12 @@
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AJ10" s="10"/>
-      <c r="AK10" s="11"/>
-    </row>
-    <row r="11" spans="2:37">
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
         <v>45</v>
@@ -1640,26 +2596,22 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
@@ -1668,9 +2620,12 @@
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
       <c r="AJ11" s="10"/>
-      <c r="AK11" s="11"/>
-    </row>
-    <row r="12" spans="2:37">
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="2:40">
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
         <v>46</v>
@@ -1686,26 +2641,22 @@
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
@@ -1714,9 +2665,12 @@
       <c r="AH12" s="10"/>
       <c r="AI12" s="10"/>
       <c r="AJ12" s="10"/>
-      <c r="AK12" s="11"/>
-    </row>
-    <row r="13" spans="2:37">
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="2:40">
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1752,11 +2706,16 @@
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
       <c r="AJ13" s="10"/>
-      <c r="AK13" s="11"/>
-    </row>
-    <row r="14" spans="2:37">
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="2:40">
       <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="42" t="s">
+        <v>83</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1790,29 +2749,34 @@
       <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
       <c r="AJ14" s="10"/>
-      <c r="AK14" s="11"/>
-    </row>
-    <row r="15" spans="2:37">
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="2:40" ht="126.6" customHeight="1">
       <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="C15" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -1830,29 +2794,34 @@
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
       <c r="AJ15" s="10"/>
-      <c r="AK15" s="11"/>
-    </row>
-    <row r="16" spans="2:37">
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="2:40">
       <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="C16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="38"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -1870,10 +2839,14 @@
       <c r="AH16" s="10"/>
       <c r="AI16" s="10"/>
       <c r="AJ16" s="10"/>
-      <c r="AK16" s="11"/>
-    </row>
-    <row r="17" spans="2:37">
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="2:40">
       <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1907,9 +2880,12 @@
       <c r="AH17" s="10"/>
       <c r="AI17" s="10"/>
       <c r="AJ17" s="10"/>
-      <c r="AK17" s="11"/>
-    </row>
-    <row r="18" spans="2:37">
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="2:40">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1945,12 +2921,19 @@
       <c r="AH18" s="10"/>
       <c r="AI18" s="10"/>
       <c r="AJ18" s="10"/>
-      <c r="AK18" s="11"/>
-    </row>
-    <row r="19" spans="2:37">
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="2:40">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1983,11 +2966,14 @@
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
       <c r="AJ19" s="10"/>
-      <c r="AK19" s="11"/>
-    </row>
-    <row r="20" spans="2:37">
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="2:40">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -2021,12 +3007,19 @@
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
-      <c r="AK20" s="11"/>
-    </row>
-    <row r="21" spans="2:37">
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="2:40">
       <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -2059,11 +3052,14 @@
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
-      <c r="AK21" s="11"/>
-    </row>
-    <row r="22" spans="2:37">
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="2:40">
       <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -2097,27 +3093,34 @@
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
       <c r="AJ22" s="10"/>
-      <c r="AK22" s="11"/>
-    </row>
-    <row r="23" spans="2:37">
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="2:40" ht="98.4" customHeight="1">
       <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="C23" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -2135,11 +3138,14 @@
       <c r="AH23" s="10"/>
       <c r="AI23" s="10"/>
       <c r="AJ23" s="10"/>
-      <c r="AK23" s="11"/>
-    </row>
-    <row r="24" spans="2:37">
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="2:40">
       <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -2173,12 +3179,15 @@
       <c r="AH24" s="10"/>
       <c r="AI24" s="10"/>
       <c r="AJ24" s="10"/>
-      <c r="AK24" s="11"/>
-    </row>
-    <row r="25" spans="2:37">
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="2:40">
       <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -2211,28 +3220,37 @@
       <c r="AH25" s="10"/>
       <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
-      <c r="AK25" s="11"/>
-    </row>
-    <row r="26" spans="2:37">
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
       <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
+      <c r="C26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -2249,28 +3267,31 @@
       <c r="AH26" s="10"/>
       <c r="AI26" s="10"/>
       <c r="AJ26" s="10"/>
-      <c r="AK26" s="11"/>
-    </row>
-    <row r="27" spans="2:37">
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="2:40">
       <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
@@ -2287,13 +3308,20 @@
       <c r="AH27" s="10"/>
       <c r="AI27" s="10"/>
       <c r="AJ27" s="10"/>
-      <c r="AK27" s="11"/>
-    </row>
-    <row r="28" spans="2:37">
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="2:40">
       <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2325,15 +3353,22 @@
       <c r="AH28" s="10"/>
       <c r="AI28" s="10"/>
       <c r="AJ28" s="10"/>
-      <c r="AK28" s="11"/>
-    </row>
-    <row r="29" spans="2:37">
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="2:40">
       <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>93</v>
+      </c>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -2363,12 +3398,15 @@
       <c r="AH29" s="10"/>
       <c r="AI29" s="10"/>
       <c r="AJ29" s="10"/>
-      <c r="AK29" s="11"/>
-    </row>
-    <row r="30" spans="2:37">
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="2:40">
       <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -2401,13 +3439,20 @@
       <c r="AH30" s="10"/>
       <c r="AI30" s="10"/>
       <c r="AJ30" s="10"/>
-      <c r="AK30" s="11"/>
-    </row>
-    <row r="31" spans="2:37">
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="2:40">
       <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -2439,12 +3484,15 @@
       <c r="AH31" s="10"/>
       <c r="AI31" s="10"/>
       <c r="AJ31" s="10"/>
-      <c r="AK31" s="11"/>
-    </row>
-    <row r="32" spans="2:37">
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="2:40">
       <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -2477,13 +3525,20 @@
       <c r="AH32" s="10"/>
       <c r="AI32" s="10"/>
       <c r="AJ32" s="10"/>
-      <c r="AK32" s="11"/>
-    </row>
-    <row r="33" spans="2:37">
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="2:40">
       <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -2515,13 +3570,18 @@
       <c r="AH33" s="10"/>
       <c r="AI33" s="10"/>
       <c r="AJ33" s="10"/>
-      <c r="AK33" s="11"/>
-    </row>
-    <row r="34" spans="2:37">
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="2:40">
       <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="41" t="s">
+        <v>94</v>
+      </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -2553,13 +3613,16 @@
       <c r="AH34" s="10"/>
       <c r="AI34" s="10"/>
       <c r="AJ34" s="10"/>
-      <c r="AK34" s="11"/>
-    </row>
-    <row r="35" spans="2:37">
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="2:40">
       <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -2591,13 +3654,20 @@
       <c r="AH35" s="10"/>
       <c r="AI35" s="10"/>
       <c r="AJ35" s="10"/>
-      <c r="AK35" s="11"/>
-    </row>
-    <row r="36" spans="2:37">
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="2:40">
       <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -2629,12 +3699,15 @@
       <c r="AH36" s="10"/>
       <c r="AI36" s="10"/>
       <c r="AJ36" s="10"/>
-      <c r="AK36" s="11"/>
-    </row>
-    <row r="37" spans="2:37">
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="2:40">
       <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -2667,13 +3740,20 @@
       <c r="AH37" s="10"/>
       <c r="AI37" s="10"/>
       <c r="AJ37" s="10"/>
-      <c r="AK37" s="11"/>
-    </row>
-    <row r="38" spans="2:37">
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="2:40">
       <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -2705,55 +3785,589 @@
       <c r="AH38" s="10"/>
       <c r="AI38" s="10"/>
       <c r="AJ38" s="10"/>
-      <c r="AK38" s="11"/>
-    </row>
-    <row r="39" spans="2:37">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="14"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="2:40">
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="2:40">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="2:40">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="2:40">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="2:40">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="2:40">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="2:40">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="2:40">
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="2:40">
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="11"/>
+    </row>
+    <row r="48" spans="2:40">
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="11"/>
+    </row>
+    <row r="49" spans="2:40">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="13"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="14"/>
+    </row>
+    <row r="51" spans="2:40">
+      <c r="B51" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="40"/>
+    </row>
+    <row r="52" spans="2:40">
+      <c r="C52" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="2:40" ht="18.600000000000001">
+      <c r="C53" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" ht="18.600000000000001">
+      <c r="C69" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" ht="18.600000000000001">
+      <c r="C103" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" ht="18.600000000000001">
+      <c r="C104" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" ht="18.600000000000001">
+      <c r="C108" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AJ2:AK2"/>
+  <mergeCells count="5">
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{E5878BDC-F6C4-4484-8927-D12B0D164421}"/>
     <hyperlink ref="E12" r:id="rId2" xr:uid="{AE972A04-4E59-4BD4-8A69-7BBC6A5B0FDA}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{46E83AD1-5F6A-4D40-BF53-CE33C2B3458C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9548156-3217-4F0C-BED4-CE32214A69EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706D355A-F526-4901-B6CC-4D26247E974D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23844" yWindow="0" windowWidth="21288" windowHeight="19068" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,18 +238,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目次</t>
-    <rPh sb="0" eb="2">
-      <t>モクジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>h2</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>export</t>
   </si>
   <si>
     <t>h3</t>
@@ -764,6 +754,20 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次</t>
+  </si>
+  <si>
+    <t>export
+(書き出し)</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1057,7 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1148,8 +1152,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2350,7 +2357,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -2403,13 +2410,13 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -2454,7 +2461,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -2503,7 +2510,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -2552,7 +2559,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -2714,7 +2721,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -2757,10 +2764,10 @@
     <row r="15" spans="2:40" ht="126.6" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -2802,10 +2809,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -2932,7 +2939,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -3015,10 +3022,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -3104,7 +3111,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
@@ -3227,14 +3234,12 @@
     </row>
     <row r="26" spans="2:40" ht="112.2" customHeight="1">
       <c r="B26" s="9"/>
-      <c r="C26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>58</v>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49" t="s">
+        <v>106</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
@@ -3315,12 +3320,14 @@
     </row>
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="27" t="s">
+        <v>105</v>
+      </c>
       <c r="D28" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -3362,10 +3369,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="41" t="s">
         <v>91</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>93</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="47"/>
@@ -3448,10 +3455,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -3534,10 +3541,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -3580,7 +3587,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
       <c r="E34" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -3663,10 +3670,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -3749,10 +3756,10 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -3835,10 +3842,10 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -3921,10 +3928,10 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -4007,10 +4014,10 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -4093,10 +4100,10 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -4179,10 +4186,10 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -4263,93 +4270,93 @@
     </row>
     <row r="51" spans="2:40">
       <c r="B51" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C51" s="40"/>
     </row>
     <row r="52" spans="2:40">
       <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="2:40" ht="18.600000000000001">
       <c r="C53" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="3:3" ht="18.600000000000001">
       <c r="C69" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="3:3" ht="18.600000000000001">
       <c r="C103" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="3:3" ht="18.600000000000001">
       <c r="C104" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="3:3" ht="18.600000000000001">
       <c r="C108" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="3:3">
       <c r="C112" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="3:3">
       <c r="C127" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706D355A-F526-4901-B6CC-4D26247E974D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B07758-4D73-45D2-A5A5-C8D1DAD9DDB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23844" yWindow="0" windowWidth="21288" windowHeight="19068" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13524" yWindow="3180" windowWidth="21288" windowHeight="19068" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="htmlspecialchar" sheetId="2" r:id="rId2"/>
+    <sheet name="xxxtemplate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="106">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -374,6 +375,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>&lt;script&gt;alert("フライテックでフリーランスになるぞ！！")&lt;/script&gt;</t>
+  </si>
+  <si>
     <t>先ほどは「テスト」でしたが、下記の様にJavaScriptを書いて「確認画面へ」を押下してみます</t>
     <rPh sb="0" eb="1">
       <t>サキ</t>
@@ -687,12 +691,6 @@
   <si>
     <t>HTMLの特殊文字とは</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間：2020/06/22</t>
-  </si>
-  <si>
-    <t>案件内容：テスト</t>
   </si>
   <si>
     <t>&lt;br&gt;　&lt;br&gt;　&lt;br&gt;　</t>
@@ -884,7 +882,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,6 +910,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1158,6 +1162,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1187,13 +1192,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>31198</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>122177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1231,13 +1236,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>8354</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>30725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1275,13 +1280,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>61677</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>160305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1317,16 +1322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>38816</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>23139</xdr:rowOff>
+      <xdr:colOff>15956</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>45999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1349,7 +1354,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="502920" y="24612600"/>
+          <a:off x="480060" y="29138880"/>
           <a:ext cx="8260796" cy="3223539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1363,13 +1368,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>84541</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>190785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1407,13 +1412,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>229093</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>160371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1715,9 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2152,7 +2155,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE9285-24F2-4C79-9665-D4ED840B5D66}">
-  <dimension ref="B2:AN151"/>
+  <dimension ref="B2:AN152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2721,7 +2724,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -2767,7 +2770,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -2939,7 +2942,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -3022,10 +3025,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -3111,7 +3114,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
@@ -3236,10 +3239,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="48"/>
       <c r="D26" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
@@ -3321,13 +3324,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -3369,10 +3372,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="47"/>
@@ -3458,7 +3461,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -3544,7 +3547,7 @@
         <v>57</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -3587,7 +3590,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
       <c r="E34" s="41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -3673,8 +3676,2221 @@
         <v>57</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="2:40">
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="2:40">
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="2:40">
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="2:40">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="2:40">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="2:40">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="2:40">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>100</v>
       </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="2:40">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="2:40">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="2:40">
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="2:40">
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="11"/>
+    </row>
+    <row r="48" spans="2:40">
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="11"/>
+    </row>
+    <row r="49" spans="2:40">
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="11"/>
+    </row>
+    <row r="50" spans="2:40">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="13"/>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="14"/>
+    </row>
+    <row r="52" spans="2:40">
+      <c r="B52" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="40"/>
+    </row>
+    <row r="53" spans="2:40">
+      <c r="C53" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:40" ht="18.600000000000001">
+      <c r="C54" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" ht="18.600000000000001">
+      <c r="C70" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" ht="18.600000000000001">
+      <c r="C104" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" ht="18.600000000000001">
+      <c r="C105" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" ht="18.600000000000001">
+      <c r="C109" s="39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11">
+      <c r="C110" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" s="50"/>
+      <c r="E110" s="50"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="50"/>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{E5878BDC-F6C4-4484-8927-D12B0D164421}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{AE972A04-4E59-4BD4-8A69-7BBC6A5B0FDA}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{46E83AD1-5F6A-4D40-BF53-CE33C2B3458C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
+  <dimension ref="B2:AN49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:40">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" s="32"/>
+    </row>
+    <row r="3" spans="2:40" ht="26.4">
+      <c r="B3" s="9"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="B5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="B6" s="9"/>
+      <c r="C6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="9"/>
+      <c r="C14" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="2:40" ht="126.6" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="9"/>
+      <c r="C16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="2:40">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="2:40">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="9"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="2:40">
+      <c r="B21" s="9"/>
+      <c r="C21" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="2:40">
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="2:40" ht="98.4" customHeight="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="9"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="9"/>
+      <c r="C28" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="2:40">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="2:40">
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="2:40">
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="2:40">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -3758,9 +5974,7 @@
       <c r="D38" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -3844,9 +6058,7 @@
       <c r="D40" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -3930,9 +6142,7 @@
       <c r="D42" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -4016,9 +6226,7 @@
       <c r="D44" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -4102,9 +6310,7 @@
       <c r="D46" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -4188,9 +6394,7 @@
       <c r="D48" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -4268,97 +6472,6 @@
       <c r="AM49" s="13"/>
       <c r="AN49" s="14"/>
     </row>
-    <row r="51" spans="2:40">
-      <c r="B51" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="40"/>
-    </row>
-    <row r="52" spans="2:40">
-      <c r="C52" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="2:40" ht="18.600000000000001">
-      <c r="C53" s="39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" ht="18.600000000000001">
-      <c r="C69" s="39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" ht="18.600000000000001">
-      <c r="C103" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" ht="18.600000000000001">
-      <c r="C104" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" ht="18.600000000000001">
-      <c r="C108" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3">
-      <c r="C109" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3">
-      <c r="C110" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3">
-      <c r="C112" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3">
-      <c r="C127" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3">
-      <c r="C144" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3">
-      <c r="C145" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3">
-      <c r="C146" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3">
-      <c r="C147" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3">
-      <c r="C148" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3">
-      <c r="C151" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AM2:AN2"/>
@@ -4368,13 +6481,6 @@
     <mergeCell ref="E26:T26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{E5878BDC-F6C4-4484-8927-D12B0D164421}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{AE972A04-4E59-4BD4-8A69-7BBC6A5B0FDA}"/>
-    <hyperlink ref="D16" r:id="rId3" xr:uid="{46E83AD1-5F6A-4D40-BF53-CE33C2B3458C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B07758-4D73-45D2-A5A5-C8D1DAD9DDB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA525D1-7BAC-4127-A5F7-A581E82A34E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13524" yWindow="3180" windowWidth="21288" windowHeight="19068" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21960" yWindow="2868" windowWidth="21288" windowHeight="19068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="htmlspecialchar" sheetId="2" r:id="rId2"/>
-    <sheet name="xxxtemplate" sheetId="3" r:id="rId3"/>
+    <sheet name="array_key_exists" sheetId="4" r:id="rId3"/>
+    <sheet name="xxxtemplate" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="121">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -36,9 +37,6 @@
   </si>
   <si>
     <t>低</t>
-  </si>
-  <si>
-    <t>array_key_exist</t>
   </si>
   <si>
     <t>admin laravel</t>
@@ -766,6 +764,159 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array_key_exists</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array_key_exists</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array_key_exist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.sejuku.net/blog/22538</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したキーまたは、添字が配列に存在するか調べるには、array_key_exists関数を使用します。array_key_exists — 指定したキーまたは添字が配列にあるかどうかを調べるarray_key_exists — 指定したキーまたは添字が配列にあるかどうかを調べる。array_key_exists — 指定したキーまたは添字が配列にあるかどうかを調べる。PHPで配列のキーが存在するか調べる。PHPのarray_key_exists()関数は、配列の中に引数で渡したキーが存在するか確認できる関数です。array_key_exists()の基本構文は以下のように記述しましょう。array_key_exists(キー , 配列)第一引数には検索したいキー名を指定します。第二引数に検索対象の配列を指定します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】array_key_existsを使って配列のキーがあるか確認！</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】array_key_existsを使って配列のキーがあるか確認！｜フライテック</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array_key_exists（）関数は、指定したキーを配列の中にあるかチェックし、キーが存在する場合はtrueを、キーが存在しない場合はfalseを返します。</t>
+  </si>
+  <si>
+    <t>array_key_exists()関数を使って、配列にキーが存在するかチェックする方法を分かり易く解説しています。初心者でも分かり易いサンプルコードも用意！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array_key_exists()関数を使って、配列にキーが存在するかチェックする方法を分かり易く解説しています。初心者でも分かり易いサンプルコードも用意！array_key_exists（）関数は、指定したキーを配列の中にあるかチェックし、キーが存在する場合はtrueを、キーが存在しない場合はfalseを返します。</t>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array_key_exists()関数とは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構文…</t>
+    <rPh sb="0" eb="2">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array_key_exists()関数の使用方法</t>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array_key_exists()関数を使って指定したキーが存在するか確認</t>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※文字数が足りないため、サンプルコードで文字数を稼ぐ！サンプルコードを3つくらい用意</t>
+    <rPh sb="1" eb="4">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カセ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array_key_exists()関数を使って指定したインデックスが存在するか確認</t>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1720,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1731,7 +1882,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1742,7 +1893,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1753,7 +1904,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1764,10 +1915,10 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -1775,7 +1926,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -1786,7 +1937,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -1797,7 +1948,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -1808,7 +1959,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -1819,7 +1970,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1830,7 +1981,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -1841,7 +1992,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -1852,7 +2003,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -1863,7 +2014,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -1874,7 +2025,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -1885,7 +2036,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
@@ -1896,7 +2047,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
@@ -1907,7 +2058,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
@@ -1918,7 +2069,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -1929,7 +2080,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
@@ -1940,7 +2091,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
@@ -1951,7 +2102,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
@@ -1962,7 +2113,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1</v>
@@ -1973,7 +2124,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>1</v>
@@ -1984,7 +2135,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
@@ -1995,7 +2146,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1</v>
@@ -2006,7 +2157,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1</v>
@@ -2017,7 +2168,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1</v>
@@ -2028,7 +2179,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
@@ -2039,7 +2190,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -2050,7 +2201,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1</v>
@@ -2061,7 +2212,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
@@ -2072,7 +2223,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>1</v>
@@ -2083,7 +2234,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>1</v>
@@ -2094,7 +2245,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1</v>
@@ -2105,7 +2256,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1</v>
@@ -2116,7 +2267,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1</v>
@@ -2127,7 +2278,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1</v>
@@ -2138,7 +2289,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1</v>
@@ -2157,7 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE9285-24F2-4C79-9665-D4ED840B5D66}">
   <dimension ref="B2:AN152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -2211,7 +2362,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN2" s="32"/>
     </row>
@@ -2346,21 +2497,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -2405,21 +2556,21 @@
         <v>2900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -2452,19 +2603,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5">
         <v>2900</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -2501,19 +2652,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -2550,19 +2701,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -2595,14 +2746,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5">
         <v>260</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2638,16 +2789,16 @@
     <row r="12" spans="2:40">
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="6">
         <v>90</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -2724,7 +2875,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -2767,10 +2918,10 @@
     <row r="15" spans="2:40" ht="126.6" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -2812,10 +2963,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -2939,10 +3090,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -3025,10 +3176,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -3111,10 +3262,10 @@
     <row r="23" spans="2:40" ht="98.4" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
@@ -3239,10 +3390,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="48"/>
       <c r="D26" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
@@ -3324,13 +3475,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -3372,10 +3523,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="47"/>
@@ -3458,10 +3609,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -3544,10 +3695,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -3590,7 +3741,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
       <c r="E34" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -3673,10 +3824,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -3719,7 +3870,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -3802,10 +3953,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -3888,10 +4039,10 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -3974,10 +4125,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -4060,10 +4211,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -4146,10 +4297,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -4232,10 +4383,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -4316,48 +4467,48 @@
     </row>
     <row r="52" spans="2:40">
       <c r="B52" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="40"/>
     </row>
     <row r="53" spans="2:40">
       <c r="C53" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="2:40" ht="18.600000000000001">
       <c r="C54" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="3:3" ht="18.600000000000001">
       <c r="C70" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="3:11" ht="18.600000000000001">
       <c r="C104" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="3:11" ht="18.600000000000001">
       <c r="C105" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="3:11" ht="18.600000000000001">
       <c r="C109" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="3:11">
       <c r="C110" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110" s="50"/>
@@ -4370,42 +4521,42 @@
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4429,6 +4580,2142 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D944D06-7B60-44D6-B319-58F2EB3DED52}">
+  <dimension ref="B2:AN50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:40">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="32"/>
+    </row>
+    <row r="3" spans="2:40">
+      <c r="B3" s="9"/>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="B5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="B6" s="9"/>
+      <c r="C6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1600</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20">
+        <v>4537</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="9"/>
+      <c r="C14" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="2:40" ht="165" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="9"/>
+      <c r="C16" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="2:40">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="2:40">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="9"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="2:40">
+      <c r="B21" s="9"/>
+      <c r="C21" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="2:40">
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="2:40" ht="98.4" customHeight="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="9"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="9"/>
+      <c r="C28" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="2:40">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="2:40">
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="2:40">
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="2:40">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="2:40">
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="2:40">
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="2:40">
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="2:40">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="2:40">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="2:40">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="2:40">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="2:40">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="2:40">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="2:40">
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="2:40">
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="11"/>
+    </row>
+    <row r="48" spans="2:40">
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="11"/>
+    </row>
+    <row r="49" spans="2:40">
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="11"/>
+    </row>
+    <row r="50" spans="2:40">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="13"/>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{BDF656BA-D85A-4255-A3F4-77FA8CF27F66}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{FF04F2E5-DB56-4013-9543-4A5D9EFED477}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
   <dimension ref="B2:AN49"/>
   <sheetViews>
@@ -4486,7 +6773,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN2" s="32"/>
     </row>
@@ -4615,21 +6902,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -4669,12 +6956,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -4714,12 +7001,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -4759,12 +7046,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -4804,12 +7091,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -4845,7 +7132,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4884,7 +7171,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -4961,7 +7248,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5004,7 +7291,7 @@
     <row r="15" spans="2:40" ht="126.6" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
@@ -5047,7 +7334,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="37"/>
@@ -5172,7 +7459,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -5256,7 +7543,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -5340,7 +7627,7 @@
     <row r="23" spans="2:40" ht="98.4" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="44"/>
@@ -5466,7 +7753,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="48"/>
       <c r="D26" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="44"/>
@@ -5549,10 +7836,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -5595,7 +7882,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="10"/>
@@ -5679,7 +7966,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -5763,7 +8050,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -5888,7 +8175,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -5972,7 +8259,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6056,7 +8343,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6140,7 +8427,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6224,7 +8511,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6308,7 +8595,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -6392,7 +8679,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA525D1-7BAC-4127-A5F7-A581E82A34E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32223D26-83E6-43FF-9593-B22047C1EEEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21960" yWindow="2868" windowWidth="21288" windowHeight="19068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23844" yWindow="0" windowWidth="19764" windowHeight="19068" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="htmlspecialchar" sheetId="2" r:id="rId2"/>
     <sheet name="array_key_exists" sheetId="4" r:id="rId3"/>
-    <sheet name="xxxtemplate" sheetId="3" r:id="rId4"/>
+    <sheet name="file_put_contents" sheetId="5" r:id="rId4"/>
+    <sheet name="xxxtemplate" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="147">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -37,12 +38,6 @@
   </si>
   <si>
     <t>低</t>
-  </si>
-  <si>
-    <t>admin laravel</t>
-  </si>
-  <si>
-    <t>file_put_content</t>
   </si>
   <si>
     <r>
@@ -918,6 +913,223 @@
     <rPh sb="40" eb="42">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_put_contents</t>
+  </si>
+  <si>
+    <t>file_put_contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_put_contents php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_put_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語PHPで、文字列をファイルに書き込む関数 file_put_contents()
+文字列をファイルに書き込む
+filename が存在しない場合はファイルを作成します。 存在する場合はそのファイルを上書きします。PHPでファイルに文字列を書き込むには「file_put_contents()」の関数で書き込みできます。
+ファイルに書き込むには、ファイルを開く関数「fopen()」、ファイルに書き込み関数「fwrite()」、ファイルを閉じる関数「 fclose()」 を使わずにこの関数だけで処理ができるので簡単です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】file_put_contents関数を使って文字列をファイルに書き込む方法を解説！</t>
+    <rPh sb="22" eb="24">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】file_put_contents関数を使って文字列をファイルに書き込む方法を解説！｜フライテック</t>
+    <rPh sb="22" eb="24">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPで、文字列をファイルに書き込む関数 file_put_contents()について、わかりやすく解説してます。file_put_contents()は、fopenやfclose等ファイルを開いたり閉じたりする関数を使わずに処理できるので楽にコードが書けます。</t>
+    <rPh sb="51" eb="53">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ラク</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPで、文字列をファイルに書き込む関数 file_put_contents()について、フライテック所属のフリーランスエンジニアがわかりやすく解説します。</t>
+    <rPh sb="51" eb="53">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> file_put_contents()関数とは</t>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPのfile_put_contents（）関数は、ファイルに文字列を書き込むために使用される関数です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_put_contents（）関数は、書き込みたいファイルをチェックし、ファイルが存在しない場合は新しいファイルを作成します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在する場合は上書きされます。</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> file_put_contents()の使い方</t>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構文とパラメータ</t>
+    <rPh sb="0" eb="2">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構文：
+file_put_contents（$ file、$ data、$ mode、$ context）
+パラメータ： PHPのfile_put_contents（）関数は、2つの必須パラメータと2つのオプションパラメータを受け入れます
+$ file：書き込みたいファイルを指定します。
+$ data：ファイルに書き込む必要のあるデータを指定します。文字列、配列、またはデータストリームを指定できます。
+$ context：これは、カスタムコンテキストまたはストリームの動作を指定するために使用されるオプションのパラメーターです。
+$ mode：FILE_USE_INCLUDE_PATH、FILE_APPEND、LOCK_EXなど、ファイルにデータを書き込む方法を指定するために使用されるオプションのパラメーターです。
+戻り値：成功するとファイルに書き込まれたバイト数を返し、失敗するとFALSEを返します。
+エラーと例外：
+file_put_contents（）関数はブールFALSEを返しますが、FALSEと評価される非ブール値を返す場合もあります。
+指定されたディレクトリが無効な場合、この関数はコンテンツの書き込みに失敗します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> file_put_contents()のサンプルコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいファイルへの書き込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のファイルに追加する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のファイルの上書き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーと例外：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※LOCK_EXについても記載して</t>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※FSLSEを返した場合どうなるかを記載と、FALSEの場合のサンプルコードを記載。わからなければOK</t>
+    <rPh sb="7" eb="8">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://webkaru.net/php/function-file-put-contents/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://uxmilk.jp/13027</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://phpspot.net/php/man/php/function.file-put-contents.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://electrictoolbox.com/php-write-append-files-file-put-contents/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2500～3000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1216,7 +1428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1266,6 +1478,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1290,30 +1523,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1871,7 +2093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1882,7 +2106,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1893,7 +2117,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1903,22 +2127,16 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -1926,7 +2144,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -1937,7 +2155,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -1948,7 +2166,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -1959,7 +2177,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -1970,7 +2188,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1981,7 +2199,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -1992,7 +2210,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -2003,7 +2221,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -2014,7 +2232,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -2025,7 +2243,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -2036,7 +2254,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
@@ -2047,7 +2265,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
@@ -2058,7 +2276,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
@@ -2069,7 +2287,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -2080,7 +2298,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
@@ -2091,7 +2309,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
@@ -2102,7 +2320,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
@@ -2113,7 +2331,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1</v>
@@ -2124,7 +2342,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>1</v>
@@ -2135,7 +2353,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
@@ -2146,7 +2364,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1</v>
@@ -2157,7 +2375,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1</v>
@@ -2168,7 +2386,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1</v>
@@ -2179,7 +2397,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
@@ -2190,7 +2408,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -2201,7 +2419,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1</v>
@@ -2212,7 +2430,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
@@ -2223,7 +2441,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>1</v>
@@ -2234,7 +2452,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>1</v>
@@ -2245,7 +2463,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1</v>
@@ -2256,7 +2474,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1</v>
@@ -2267,7 +2485,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1</v>
@@ -2278,7 +2496,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1</v>
@@ -2289,7 +2507,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1</v>
@@ -2308,7 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE9285-24F2-4C79-9665-D4ED840B5D66}">
   <dimension ref="B2:AN152"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -2361,10 +2579,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN2" s="32"/>
+      <c r="AM2" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -2497,21 +2715,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -2556,21 +2774,21 @@
         <v>2900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -2603,19 +2821,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5">
         <v>2900</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -2652,19 +2870,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -2701,19 +2919,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -2746,14 +2964,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5">
         <v>260</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2789,16 +3007,16 @@
     <row r="12" spans="2:40">
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6">
         <v>90</v>
       </c>
       <c r="E12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -2874,8 +3092,8 @@
     </row>
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
-      <c r="C14" s="42" t="s">
-        <v>81</v>
+      <c r="C14" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -2918,26 +3136,26 @@
     <row r="15" spans="2:40" ht="126.6" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -2963,26 +3181,26 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="38"/>
+        <v>63</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="49"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -3090,10 +3308,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -3176,10 +3394,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -3261,27 +3479,27 @@
     </row>
     <row r="23" spans="2:40" ht="98.4" customHeight="1">
       <c r="B23" s="9"/>
-      <c r="C23" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
+      <c r="C23" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -3388,28 +3606,28 @@
     </row>
     <row r="26" spans="2:40" ht="112.2" customHeight="1">
       <c r="B26" s="9"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -3435,22 +3653,22 @@
       <c r="B27" s="9"/>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
@@ -3475,13 +3693,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -3523,13 +3741,13 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="F29" s="10"/>
-      <c r="G29" s="47"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -3609,10 +3827,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -3695,10 +3913,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -3740,8 +3958,8 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="41" t="s">
-        <v>92</v>
+      <c r="E34" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -3783,7 +4001,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -3824,10 +4042,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -3869,8 +4087,8 @@
       <c r="B37" s="9"/>
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="41" t="s">
-        <v>92</v>
+      <c r="E37" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -3912,7 +4130,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="41"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -3953,10 +4171,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -4039,10 +4257,10 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -4125,10 +4343,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -4211,10 +4429,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -4297,10 +4515,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -4383,10 +4601,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -4466,97 +4684,97 @@
       <c r="AN50" s="14"/>
     </row>
     <row r="52" spans="2:40">
-      <c r="B52" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="40"/>
+      <c r="B52" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="32"/>
     </row>
     <row r="53" spans="2:40">
       <c r="C53" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:40" ht="18.600000000000001">
+      <c r="C54" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" ht="18.600000000000001">
+      <c r="C70" s="31" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="2:40" ht="18.600000000000001">
-      <c r="C54" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" ht="18.600000000000001">
-      <c r="C70" s="39" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" ht="18.600000000000001">
+      <c r="C104" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" ht="18.600000000000001">
+      <c r="C105" s="31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="3:11" ht="18.600000000000001">
-      <c r="C104" s="39" t="s">
+    <row r="109" spans="3:11" ht="18.600000000000001">
+      <c r="C109" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11">
+      <c r="C110" s="40" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="105" spans="3:11" ht="18.600000000000001">
-      <c r="C105" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="3:11" ht="18.600000000000001">
-      <c r="C109" s="39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="3:11">
-      <c r="C110" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D110" s="50"/>
-      <c r="E110" s="50"/>
-      <c r="F110" s="50"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="50"/>
-      <c r="K110" s="50"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="40"/>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4634,15 +4852,15 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN2" s="32"/>
+      <c r="AM2" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2">
         <v>1600</v>
@@ -4770,21 +4988,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -4823,19 +5041,19 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="5">
         <v>1600</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -4874,21 +5092,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="5">
         <v>1600</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -4928,12 +5146,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -4973,12 +5191,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -5014,7 +5232,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5053,7 +5271,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5129,8 +5347,8 @@
     </row>
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
-      <c r="C14" s="42" t="s">
-        <v>81</v>
+      <c r="C14" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5173,26 +5391,26 @@
     <row r="15" spans="2:40" ht="165" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -5218,26 +5436,26 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="38"/>
+        <v>63</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="49"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -5345,10 +5563,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -5431,10 +5649,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -5516,27 +5734,27 @@
     </row>
     <row r="23" spans="2:40" ht="98.4" customHeight="1">
       <c r="B23" s="9"/>
-      <c r="C23" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
+      <c r="C23" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -5643,28 +5861,28 @@
     </row>
     <row r="26" spans="2:40" ht="112.2" customHeight="1">
       <c r="B26" s="9"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -5690,22 +5908,22 @@
       <c r="B27" s="9"/>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
@@ -5730,13 +5948,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -5778,13 +5996,13 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="F29" s="10"/>
-      <c r="G29" s="47"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -5823,11 +6041,11 @@
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="41" t="s">
-        <v>116</v>
+      <c r="E30" s="33" t="s">
+        <v>114</v>
       </c>
       <c r="F30" s="10"/>
-      <c r="G30" s="47"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -5907,10 +6125,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -5993,10 +6211,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -6038,8 +6256,8 @@
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="41" t="s">
-        <v>119</v>
+      <c r="E35" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -6081,7 +6299,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -6122,10 +6340,10 @@
       <c r="B37" s="9"/>
       <c r="C37" s="11"/>
       <c r="D37" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -6167,8 +6385,8 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="41" t="s">
-        <v>119</v>
+      <c r="E38" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -6716,6 +6934,2339 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DC9289-CBFC-4C72-B35F-0B8411E5FAB6}">
+  <dimension ref="B2:AN54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:40">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="2:40" ht="26.4">
+      <c r="B3" s="9"/>
+      <c r="C3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="B5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="B6" s="9"/>
+      <c r="C6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="9"/>
+      <c r="C7" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20">
+        <v>1340</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="5">
+        <v>720</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="9"/>
+      <c r="C14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="2:40" ht="153.6" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="9"/>
+      <c r="C16" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="2:40">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="2:40">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="9"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="2:40">
+      <c r="B21" s="9"/>
+      <c r="C21" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="2:40">
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="2:40" ht="98.4" customHeight="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="9"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="9"/>
+      <c r="C28" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="2:40">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="2:40">
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="2:40">
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="2:40">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="2:40">
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="2:40" ht="74.400000000000006" customHeight="1">
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="2:40" ht="74.400000000000006" customHeight="1">
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="2:40" ht="74.400000000000006" customHeight="1">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="53"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="2:40" ht="74.400000000000006" customHeight="1">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="2:40">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="2:40">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="2:40">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="2:40">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="2:40">
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="2:40">
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="11"/>
+    </row>
+    <row r="48" spans="2:40">
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="11"/>
+    </row>
+    <row r="49" spans="2:40">
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="11"/>
+    </row>
+    <row r="50" spans="2:40">
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="11"/>
+    </row>
+    <row r="51" spans="2:40">
+      <c r="B51" s="9"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="11"/>
+    </row>
+    <row r="52" spans="2:40">
+      <c r="B52" s="9"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="11"/>
+    </row>
+    <row r="53" spans="2:40">
+      <c r="B53" s="9"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="11"/>
+    </row>
+    <row r="54" spans="2:40">
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="13"/>
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E38:AF41"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{5D87FC01-D039-4D23-9ED5-5662C492D0C0}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{05C421D9-0100-481E-AEDB-BED5C33BB80C}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{1F963BDD-6002-4E59-9779-49495E8DAA30}"/>
+    <hyperlink ref="D16" r:id="rId4" xr:uid="{CD659845-4733-4D1E-8E79-FE1EC9A92167}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
   <dimension ref="B2:AN49"/>
   <sheetViews>
@@ -6772,10 +9323,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN2" s="32"/>
+      <c r="AM2" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -6902,21 +9453,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -6956,12 +9507,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -7001,12 +9552,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -7046,12 +9597,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -7091,12 +9642,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -7132,7 +9683,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -7171,7 +9722,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -7247,8 +9798,8 @@
     </row>
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
-      <c r="C14" s="42" t="s">
-        <v>81</v>
+      <c r="C14" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -7291,24 +9842,24 @@
     <row r="15" spans="2:40" ht="126.6" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -7334,24 +9885,24 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="38"/>
+        <v>63</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="49"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -7459,7 +10010,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -7543,7 +10094,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -7626,25 +10177,25 @@
     </row>
     <row r="23" spans="2:40" ht="98.4" customHeight="1">
       <c r="B23" s="9"/>
-      <c r="C23" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
+      <c r="C23" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -7751,26 +10302,26 @@
     </row>
     <row r="26" spans="2:40" ht="112.2" customHeight="1">
       <c r="B26" s="9"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -7796,22 +10347,22 @@
       <c r="B27" s="9"/>
       <c r="C27" s="27"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
@@ -7836,10 +10387,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -7882,11 +10433,11 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="41"/>
+        <v>87</v>
+      </c>
+      <c r="E29" s="33"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="47"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -7966,7 +10517,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -8050,7 +10601,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -8093,7 +10644,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -8134,7 +10685,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -8175,7 +10726,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -8259,7 +10810,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -8343,7 +10894,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8427,7 +10978,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8511,7 +11062,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8595,7 +11146,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -8679,7 +11230,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -8769,5 +11320,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32223D26-83E6-43FF-9593-B22047C1EEEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31709610-3EFE-49D4-A2C9-68C5457E73FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23844" yWindow="0" windowWidth="19764" windowHeight="19068" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23844" yWindow="0" windowWidth="19764" windowHeight="19068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -1075,10 +1075,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既存のファイルに追加する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>既存のファイルの上書き</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1130,6 +1126,13 @@
   </si>
   <si>
     <t>2500～3000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のファイルに追記</t>
+    <rPh sb="8" eb="10">
+      <t>ツイキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1428,7 +1431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1499,6 +1502,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,13 +1533,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2091,11 +2095,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D39"/>
+  <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2127,16 +2129,22 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -2144,7 +2152,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -2155,7 +2163,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -2166,7 +2174,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -2177,7 +2185,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -2188,7 +2196,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -2199,7 +2207,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -2210,7 +2218,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -2221,7 +2229,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -2232,7 +2240,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -2243,7 +2251,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -2254,7 +2262,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
@@ -2265,7 +2273,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
@@ -2276,7 +2284,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
@@ -2287,7 +2295,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -2298,7 +2306,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
@@ -2309,7 +2317,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
@@ -2320,7 +2328,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
@@ -2331,7 +2339,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1</v>
@@ -2342,7 +2350,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>1</v>
@@ -2353,7 +2361,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
@@ -2364,7 +2372,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1</v>
@@ -2375,7 +2383,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1</v>
@@ -2386,7 +2394,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1</v>
@@ -2397,7 +2405,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
@@ -2408,7 +2416,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -2419,7 +2427,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1</v>
@@ -2430,7 +2438,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
@@ -2441,7 +2449,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>1</v>
@@ -2452,7 +2460,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>1</v>
@@ -2463,7 +2471,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1</v>
@@ -2474,7 +2482,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1</v>
@@ -2485,7 +2493,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1</v>
@@ -2496,23 +2504,12 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2526,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE9285-24F2-4C79-9665-D4ED840B5D66}">
   <dimension ref="B2:AN152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -2579,10 +2576,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -3138,24 +3135,24 @@
       <c r="C15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -3183,24 +3180,24 @@
       <c r="C16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="50"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -3482,24 +3479,24 @@
       <c r="C23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -3610,24 +3607,24 @@
       <c r="D26" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -4801,7 +4798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D944D06-7B60-44D6-B319-58F2EB3DED52}">
   <dimension ref="B2:AN50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:T26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -4852,10 +4851,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
@@ -5393,24 +5392,24 @@
       <c r="C15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -5438,24 +5437,24 @@
       <c r="C16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="50"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -5737,24 +5736,24 @@
       <c r="C23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -5865,24 +5864,24 @@
       <c r="D26" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -6937,7 +6936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DC9289-CBFC-4C72-B35F-0B8411E5FAB6}">
   <dimension ref="B2:AN54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -6988,10 +6989,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -7144,7 +7145,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
       <c r="M6" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -7183,7 +7184,7 @@
         <v>1900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>49</v>
@@ -7236,7 +7237,7 @@
         <v>720</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>49</v>
@@ -7286,8 +7287,8 @@
       <c r="D9" s="5">
         <v>1600</v>
       </c>
-      <c r="E9" s="54" t="s">
-        <v>144</v>
+      <c r="E9" s="42" t="s">
+        <v>143</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>49</v>
@@ -7537,24 +7538,24 @@
       <c r="C15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -7582,24 +7583,24 @@
       <c r="C16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
+      <c r="D16" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="50"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -7881,24 +7882,24 @@
       <c r="C23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -8009,24 +8010,24 @@
       <c r="D26" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -8527,7 +8528,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="51" t="s">
         <v>134</v>
       </c>
       <c r="F38" s="53"/>
@@ -8570,7 +8571,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="52"/>
+      <c r="E39" s="54"/>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
       <c r="H39" s="53"/>
@@ -8611,7 +8612,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="52"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
       <c r="H40" s="53"/>
@@ -8652,7 +8653,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="52"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
@@ -8991,7 +8992,7 @@
         <v>54</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -9077,7 +9078,7 @@
         <v>54</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -9120,7 +9121,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="28"/>
       <c r="E52" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -9165,7 +9166,7 @@
         <v>54</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -9207,8 +9208,8 @@
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="34" t="s">
-        <v>141</v>
+      <c r="E54" s="55" t="s">
+        <v>140</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -9323,10 +9324,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -9844,22 +9845,22 @@
       <c r="C15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -9887,22 +9888,22 @@
       <c r="C16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="50"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -10180,22 +10181,22 @@
       <c r="C23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -10306,22 +10307,22 @@
       <c r="D26" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31709610-3EFE-49D4-A2C9-68C5457E73FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6961F66E-B08D-479E-86D9-9ACBDFB4D76F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23844" yWindow="0" windowWidth="19764" windowHeight="19068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23844" yWindow="0" windowWidth="19764" windowHeight="19068" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="htmlspecialchar" sheetId="2" r:id="rId2"/>
     <sheet name="array_key_exists" sheetId="4" r:id="rId3"/>
     <sheet name="file_put_contents" sheetId="5" r:id="rId4"/>
-    <sheet name="xxxtemplate" sheetId="3" r:id="rId5"/>
+    <sheet name="dockerhub" sheetId="6" r:id="rId5"/>
+    <sheet name="xxxtemplate" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="154">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -1133,6 +1134,35 @@
     <rPh sb="8" eb="10">
       <t>ツイキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php 変数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_get_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_get_contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.sejuku.net/blog/24113</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/ja/function.file-get-contents.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_get_contents php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">file_get_contents — ファイルの内容を全て文字列に読み込む
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1248,7 +1278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1282,6 +1312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1502,6 +1538,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1540,6 +1579,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2095,9 +2141,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D38"/>
+  <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2140,13 +2188,13 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="59" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2510,6 +2558,17 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2523,7 +2582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE9285-24F2-4C79-9665-D4ED840B5D66}">
   <dimension ref="B2:AN152"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -2576,10 +2637,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -3135,24 +3196,24 @@
       <c r="C15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="48"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -3180,24 +3241,24 @@
       <c r="C16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -3479,24 +3540,24 @@
       <c r="C23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -3607,24 +3668,24 @@
       <c r="D26" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -4851,10 +4912,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
@@ -5392,24 +5453,24 @@
       <c r="C15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="48"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -5437,24 +5498,24 @@
       <c r="C16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -5736,24 +5797,24 @@
       <c r="C23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -5864,24 +5925,24 @@
       <c r="D26" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -6937,7 +6998,7 @@
   <dimension ref="B2:AN54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D23" sqref="D23:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
@@ -6989,10 +7050,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -7287,7 +7348,7 @@
       <c r="D9" s="5">
         <v>1600</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="43" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -7538,24 +7599,24 @@
       <c r="C15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="48"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -7583,24 +7644,24 @@
       <c r="C16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -7882,24 +7943,24 @@
       <c r="C23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -8010,24 +8071,24 @@
       <c r="D26" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -8528,36 +8589,36 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
       <c r="AG38" s="10"/>
       <c r="AH38" s="10"/>
       <c r="AI38" s="10"/>
@@ -8571,34 +8632,34 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="53"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
       <c r="AG39" s="10"/>
       <c r="AH39" s="10"/>
       <c r="AI39" s="10"/>
@@ -8612,34 +8673,34 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="53"/>
-      <c r="AF40" s="53"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="54"/>
       <c r="AG40" s="10"/>
       <c r="AH40" s="10"/>
       <c r="AI40" s="10"/>
@@ -8653,34 +8714,34 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
-      <c r="AE41" s="53"/>
-      <c r="AF41" s="53"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
       <c r="AG41" s="10"/>
       <c r="AH41" s="10"/>
       <c r="AI41" s="10"/>
@@ -9208,7 +9269,7 @@
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="55" t="s">
+      <c r="E54" s="56" t="s">
         <v>140</v>
       </c>
       <c r="F54" s="13"/>
@@ -9268,6 +9329,2091 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4763CD16-7F35-4419-950D-7C06E80819B4}">
+  <dimension ref="B2:AN49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:40">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN2" s="45"/>
+    </row>
+    <row r="3" spans="2:40">
+      <c r="B3" s="9"/>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="B5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="B6" s="9"/>
+      <c r="C6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="9"/>
+      <c r="C7" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2900</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="9"/>
+      <c r="C8" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="9"/>
+      <c r="C14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="2:40" ht="126.6" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="9"/>
+      <c r="C16" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="2:40">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="2:40">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="9"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="2:40">
+      <c r="B21" s="9"/>
+      <c r="C21" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="2:40">
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="2:40" ht="98.4" customHeight="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="9"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="9"/>
+      <c r="C28" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="2:40">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="2:40">
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="2:40">
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="2:40">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="2:40">
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="2:40">
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="2:40">
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="2:40">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="2:40">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="2:40">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="2:40">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="2:40">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="2:40">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="2:40">
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="2:40">
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="11"/>
+    </row>
+    <row r="48" spans="2:40">
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="11"/>
+    </row>
+    <row r="49" spans="2:40">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="13"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{5B824E9E-A5B7-4D92-BE6E-F5115A27EBD8}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{5F009747-B28C-41C7-858D-DD2687BDAFDB}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{B75CEFB6-216E-433C-A868-1FD4B00D69FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
   <dimension ref="B2:AN49"/>
   <sheetViews>
@@ -9324,10 +11470,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -9845,22 +11991,22 @@
       <c r="C15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="48"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -9888,22 +12034,22 @@
       <c r="C16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="50"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -10181,22 +12327,22 @@
       <c r="C23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -10307,22 +12453,22 @@
       <c r="D26" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/作業用/記事設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1634F6-DB3A-E540-A37B-C8A1E5397F96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2803152-6902-4E80-A8CD-D77959A71226}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20856" yWindow="3012" windowWidth="19764" windowHeight="19068" tabRatio="723" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="htmlspecialchar" sheetId="2" r:id="rId2"/>
     <sheet name="array_key_exists" sheetId="4" r:id="rId3"/>
     <sheet name="file_put_contents" sheetId="5" r:id="rId4"/>
-    <sheet name="dockerhub" sheetId="6" r:id="rId5"/>
-    <sheet name="xxxtemplate" sheetId="3" r:id="rId6"/>
+    <sheet name="file_get_contents" sheetId="6" r:id="rId5"/>
+    <sheet name="xxxtemplate (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="xxxtemplate" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="171">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -85,9 +86,6 @@
     <t>php できること</t>
   </si>
   <si>
-    <t>php if 文</t>
-  </si>
-  <si>
     <t>mb_send_mail</t>
   </si>
   <si>
@@ -1128,18 +1126,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>file_get_content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>file_get_contents</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.sejuku.net/blog/24113</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.php.net/manual/ja/function.file-get-contents.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1148,12 +1138,270 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>戻り値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】ile_get_contentsを使ってファイル、WEBページの情報を取得</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_get_contentsとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構文</t>
+    <rPh sb="0" eb="2">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_get_contentsを使ってファイルの情報取得</t>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_get_contentsを使ってWEBページの情報取得</t>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータと返り値</t>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_get_contents ( string $ファイル名/URLパス [, bool $インクルードパス = FALSE [, resource $コンテキスト [, int $オフセット = 0 [, int $読み込むデータの最大バイト数 ]]]] ) : string</t>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webページの内容を読み込む</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー / 例外の場合の処理</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの一部の読み込み</t>
+  </si>
+  <si>
+    <t>ファイルの内容を全ての読み込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェブサイトのホームページのソースの取得と出力
+&lt;?php
+$homepage = file_get_contents('http://www.example.com/');
+echo $homepage;
+?&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ファイルの一部の読み込み</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;?php
+// 21 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>文字目から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>文字ぶん読み込みます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+$section = file_get_contents('./people.txt', FALSE, NULL, 20, 14);
+var_dump($section);
+?&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php if 文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">file_get_contents — ファイルの内容を全て文字列に読み込む
+PHPではURLを指定してWebページの内容を取得したり、ファイルの内容を一括で取得できるfile_get_contents関数があります。
+ステータスコードの取得方法、画像を取得する方法など応用的な使い方
+今回はそんなfile_get_contents関数の使い方について、わかりやすく解説します！
+file_get_contents()を使えばfopen()fgets()fclose()による一連のファイルオープンから読み込み、クローズまでを1つの関数で簡単に処理できます。
+しかも、1行だけでなく全文取得してくれます。
 </t>
+  </si>
+  <si>
+    <t>https://www.sejuku.net/blog/24113</t>
+  </si>
+  <si>
+    <t>&lt;?php
+echo file_get_contents("test.txt");
+?&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戻り値</t>
+    <t>$ path：チェックするファイルまたはディレクトリのパスを指定します。
+$ include_path：これは、include_path（php.ini内）内のファイルが1に設定されている場合にもファイルを検索するオプションのパラメーターです。
+$ context：カスタムコンテキストを指定するために使用されるオプションのパラメーターです。
+$ start：これは、読み取り用のファイルの開始点を指定するために使用されるオプションのパラメーターです。
+$ max_length：これは、読み取るバイト数を指定するために使用されるオプションのパラメーターです。
+戻り値：成功した場合は読み取りデータ、失敗した場合はFALSEを返します。
+エラーと例外：
+スペースなどの特殊文字を含むファイルを開く場合は、最初にurlencode()を使用してエンコードする必要があります。
+file_get_contents()関数はブール値FALSEを返しますが、FALSEと評価される非ブール値を返す場合もあります。
+E_WARNINGレベルのエラーは、ファイル名が見つからない場合、maxlengthがゼロ未満の場合、またはストリーム内の指定されたオフセットの検索に失敗した場合に生成されます。</t>
+  </si>
+  <si>
+    <t>&lt;p class="export"&gt;PHPのfile_get_contents()関数は、ファイルを文字列に読み込みや、WEBページのHTMLを読み込むために使用される組み込み関数です。この関数は、メモリマッピングテクニックを使用しているため、パフォーマンスが向上し、ファイルの内容を読み取るために好ましい方法をとっています。
+&lt;/p&gt;
+ &lt;p class="blog_p"&gt;ここでは、PHPのfile_get_contents()関数を使ったファイルの読み込みやWEBページの読み込み方法をサンプルコードを使って分かり易く解説していきます。&lt;/p&gt;</t>
+    <rPh sb="77" eb="78">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※文字数が足りないときは、サンプルコードをたくさん使って文字数を稼いで！！</t>
+    <rPh sb="1" eb="4">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カセ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1161,7 +1409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,6 +1512,33 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1458,7 +1733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1534,12 +1809,14 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1577,6 +1854,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2135,19 +2443,19 @@
   <dimension ref="B2:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="8.796875" style="3"/>
+    <col min="2" max="2" width="14.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2158,7 +2466,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -2169,7 +2477,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -2179,13 +2487,13 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2201,19 +2509,19 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="71" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -2223,343 +2531,343 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="2:4">
+      <c r="B16" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="2:4">
+      <c r="B28" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="2:4">
+      <c r="B31" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="2:4">
+      <c r="B36" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="2:4">
+      <c r="B37" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
+    <row r="39" spans="2:4">
+      <c r="B39" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="71" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2577,17 +2885,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" style="3"/>
-    <col min="3" max="3" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6" max="12" width="3.33203125" style="3"/>
-    <col min="13" max="13" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="26" width="3.33203125" style="3"/>
-    <col min="27" max="27" width="3.33203125" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="3.33203125" style="3"/>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="26" width="3.296875" style="3"/>
+    <col min="27" max="27" width="3.296875" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="3.296875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:40">
@@ -2629,11 +2937,11 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
-    <row r="3" spans="2:40" ht="27">
+    <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
@@ -2764,21 +3072,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -2823,21 +3131,21 @@
         <v>2900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -2870,19 +3178,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5">
         <v>2900</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -2919,19 +3227,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -2968,19 +3276,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -3013,14 +3321,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5">
         <v>260</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3056,16 +3364,16 @@
     <row r="12" spans="2:40">
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6">
         <v>90</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -3142,7 +3450,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3182,13 +3490,13 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="11"/>
     </row>
-    <row r="15" spans="2:40" ht="126.5" customHeight="1">
+    <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -3227,13 +3535,13 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="11"/>
     </row>
-    <row r="16" spans="2:40" ht="19">
+    <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
@@ -3357,10 +3665,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -3443,10 +3751,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -3526,13 +3834,13 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="11"/>
     </row>
-    <row r="23" spans="2:40" ht="98.5" customHeight="1">
+    <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -3653,14 +3961,14 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="11"/>
     </row>
-    <row r="26" spans="2:40" ht="112.25" customHeight="1">
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
@@ -3742,13 +4050,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -3790,10 +4098,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -3876,10 +4184,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -3962,10 +4270,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -4008,7 +4316,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
       <c r="E34" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -4091,10 +4399,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -4137,7 +4445,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -4220,10 +4528,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -4306,10 +4614,10 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -4392,10 +4700,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -4478,10 +4786,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -4564,10 +4872,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -4650,10 +4958,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -4734,48 +5042,48 @@
     </row>
     <row r="52" spans="2:40">
       <c r="B52" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="32"/>
     </row>
     <row r="53" spans="2:40">
       <c r="C53" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:40" ht="18.600000000000001">
+      <c r="C54" s="31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="2:40" ht="20">
-      <c r="C54" s="31" t="s">
+    <row r="70" spans="3:3" ht="18.600000000000001">
+      <c r="C70" s="31" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" ht="20">
-      <c r="C70" s="31" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" ht="18.600000000000001">
+      <c r="C104" s="31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="3:11" ht="20">
-      <c r="C104" s="31" t="s">
+    <row r="105" spans="3:11" ht="18.600000000000001">
+      <c r="C105" s="31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="3:11" ht="20">
-      <c r="C105" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="3:11" ht="20">
+    <row r="109" spans="3:11" ht="18.600000000000001">
       <c r="C109" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="3:11">
       <c r="C110" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="40"/>
@@ -4788,42 +5096,42 @@
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4850,19 +5158,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D944D06-7B60-44D6-B319-58F2EB3DED52}">
   <dimension ref="B2:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" style="3"/>
-    <col min="3" max="3" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6" max="12" width="3.33203125" style="3"/>
-    <col min="13" max="13" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="3.33203125" style="3"/>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:40">
@@ -4904,14 +5212,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2">
         <v>1600</v>
@@ -5039,21 +5347,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -5092,19 +5400,19 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="5">
         <v>1600</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -5143,21 +5451,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="5">
         <v>1600</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -5197,12 +5505,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -5242,12 +5550,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -5283,7 +5591,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5322,7 +5630,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5399,7 +5707,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5442,10 +5750,10 @@
     <row r="15" spans="2:40" ht="165" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -5484,13 +5792,13 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="11"/>
     </row>
-    <row r="16" spans="2:40" ht="19">
+    <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
@@ -5614,10 +5922,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -5700,10 +6008,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -5783,13 +6091,13 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="11"/>
     </row>
-    <row r="23" spans="2:40" ht="98.5" customHeight="1">
+    <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -5910,14 +6218,14 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="11"/>
     </row>
-    <row r="26" spans="2:40" ht="112.25" customHeight="1">
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
@@ -5999,13 +6307,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -6047,10 +6355,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -6093,7 +6401,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="37"/>
@@ -6176,10 +6484,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -6262,10 +6570,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -6348,10 +6656,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -6434,10 +6742,10 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -6480,7 +6788,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
       <c r="E39" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -7154,19 +7462,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DC9289-CBFC-4C72-B35F-0B8411E5FAB6}">
   <dimension ref="B2:AN54"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:S23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" style="3"/>
-    <col min="3" max="3" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6" max="12" width="3.33203125" style="3"/>
-    <col min="13" max="13" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="3.33203125" style="3"/>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:40">
@@ -7208,17 +7516,17 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
-    <row r="3" spans="2:40" ht="27">
+    <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -7343,27 +7651,27 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
       <c r="M6" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -7396,21 +7704,21 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="5">
         <v>1900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -7449,21 +7757,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="5">
         <v>720</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -7500,21 +7808,21 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="5">
         <v>1600</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -7554,12 +7862,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -7595,7 +7903,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -7634,7 +7942,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -7711,7 +8019,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -7751,13 +8059,13 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="11"/>
     </row>
-    <row r="15" spans="2:40" ht="153.5" customHeight="1">
+    <row r="15" spans="2:40" ht="153.44999999999999" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -7796,13 +8104,13 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="11"/>
     </row>
-    <row r="16" spans="2:40" ht="19">
+    <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
@@ -7926,10 +8234,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -8012,10 +8320,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -8095,13 +8403,13 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="11"/>
     </row>
-    <row r="23" spans="2:40" ht="98.5" customHeight="1">
+    <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -8222,14 +8530,14 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="11"/>
     </row>
-    <row r="26" spans="2:40" ht="112.25" customHeight="1">
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
@@ -8311,13 +8619,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -8359,10 +8667,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -8405,7 +8713,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -8448,7 +8756,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="28"/>
       <c r="E31" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -8572,10 +8880,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -8658,10 +8966,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -8704,7 +9012,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -8742,12 +9050,12 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="11"/>
     </row>
-    <row r="38" spans="2:40" ht="74.5" customHeight="1">
+    <row r="38" spans="2:40" ht="74.55" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
       <c r="E38" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F38" s="58"/>
       <c r="G38" s="58"/>
@@ -8785,7 +9093,7 @@
       <c r="AM38" s="10"/>
       <c r="AN38" s="11"/>
     </row>
-    <row r="39" spans="2:40" ht="74.5" customHeight="1">
+    <row r="39" spans="2:40" ht="74.55" customHeight="1">
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
@@ -8826,7 +9134,7 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="11"/>
     </row>
-    <row r="40" spans="2:40" ht="74.5" customHeight="1">
+    <row r="40" spans="2:40" ht="74.55" customHeight="1">
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28"/>
@@ -8867,7 +9175,7 @@
       <c r="AM40" s="10"/>
       <c r="AN40" s="11"/>
     </row>
-    <row r="41" spans="2:40" ht="74.5" customHeight="1">
+    <row r="41" spans="2:40" ht="74.55" customHeight="1">
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28"/>
@@ -9035,10 +9343,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -9121,10 +9429,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -9207,10 +9515,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -9293,10 +9601,10 @@
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
       <c r="D51" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -9339,7 +9647,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="28"/>
       <c r="E52" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -9381,10 +9689,10 @@
       <c r="B53" s="9"/>
       <c r="C53" s="11"/>
       <c r="D53" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -9427,7 +9735,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -9487,21 +9795,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4763CD16-7F35-4419-950D-7C06E80819B4}">
-  <dimension ref="B2:AN49"/>
+  <dimension ref="B2:AN69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" style="3"/>
-    <col min="3" max="3" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6" max="12" width="3.33203125" style="3"/>
-    <col min="13" max="13" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="3.33203125" style="3"/>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:40">
@@ -9543,14 +9849,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -9678,26 +9984,28 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="20">
+        <v>3500</v>
+      </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -9729,26 +10037,28 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="5">
         <v>2900</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>149</v>
+      <c r="E7" s="68" t="s">
+        <v>166</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
-      <c r="M7" s="20"/>
+      <c r="M7" s="20">
+        <v>3352</v>
+      </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -9780,21 +10090,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D8" s="5">
         <v>1600</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -9834,12 +10142,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -9879,12 +10187,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -9920,7 +10228,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -9959,7 +10267,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -10036,7 +10344,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -10076,13 +10384,13 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="11"/>
     </row>
-    <row r="15" spans="2:40" ht="126.5" customHeight="1">
+    <row r="15" spans="2:40" ht="141.6" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -10121,13 +10429,13 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="11"/>
     </row>
-    <row r="16" spans="2:40" ht="19">
+    <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
@@ -10251,9 +10559,11 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -10335,7 +10645,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -10416,10 +10726,10 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="11"/>
     </row>
-    <row r="23" spans="2:40" ht="98.5" customHeight="1">
+    <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="56"/>
       <c r="E23" s="57"/>
@@ -10541,13 +10851,15 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="11"/>
     </row>
-    <row r="26" spans="2:40" ht="112.25" customHeight="1">
+    <row r="26" spans="2:40" ht="180.6" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="56"/>
+        <v>101</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>169</v>
+      </c>
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
       <c r="H26" s="57"/>
@@ -10628,12 +10940,14 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -10674,9 +10988,11 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="33"/>
+        <v>86</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>152</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
       <c r="H29" s="10"/>
@@ -10713,39 +11029,41 @@
       <c r="AM29" s="10"/>
       <c r="AN29" s="11"/>
     </row>
-    <row r="30" spans="2:40">
+    <row r="30" spans="2:40" ht="30.6" customHeight="1">
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
+      <c r="E30" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
       <c r="AH30" s="10"/>
       <c r="AI30" s="10"/>
       <c r="AJ30" s="10"/>
@@ -10757,10 +11075,8 @@
     <row r="31" spans="2:40">
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="10"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -10800,8 +11116,12 @@
     <row r="32" spans="2:40">
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>155</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -10841,37 +11161,37 @@
     <row r="33" spans="2:40">
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
       <c r="AG33" s="10"/>
       <c r="AH33" s="10"/>
       <c r="AI33" s="10"/>
@@ -10885,34 +11205,34 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
       <c r="AG34" s="10"/>
       <c r="AH34" s="10"/>
       <c r="AI34" s="10"/>
@@ -10926,34 +11246,34 @@
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
       <c r="AG35" s="10"/>
       <c r="AH35" s="10"/>
       <c r="AI35" s="10"/>
@@ -10966,37 +11286,35 @@
     <row r="36" spans="2:40">
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
       <c r="AG36" s="10"/>
       <c r="AH36" s="10"/>
       <c r="AI36" s="10"/>
@@ -11010,34 +11328,34 @@
       <c r="B37" s="9"/>
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="64"/>
+      <c r="AF37" s="64"/>
       <c r="AG37" s="10"/>
       <c r="AH37" s="10"/>
       <c r="AI37" s="10"/>
@@ -11050,37 +11368,35 @@
     <row r="38" spans="2:40">
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="64"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="64"/>
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="64"/>
       <c r="AG38" s="10"/>
       <c r="AH38" s="10"/>
       <c r="AI38" s="10"/>
@@ -11094,34 +11410,34 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="64"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="64"/>
+      <c r="AF39" s="64"/>
       <c r="AG39" s="10"/>
       <c r="AH39" s="10"/>
       <c r="AI39" s="10"/>
@@ -11134,37 +11450,35 @@
     <row r="40" spans="2:40">
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="64"/>
+      <c r="AF40" s="64"/>
       <c r="AG40" s="10"/>
       <c r="AH40" s="10"/>
       <c r="AI40" s="10"/>
@@ -11178,34 +11492,34 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64"/>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="64"/>
+      <c r="AE41" s="64"/>
+      <c r="AF41" s="64"/>
       <c r="AG41" s="10"/>
       <c r="AH41" s="10"/>
       <c r="AI41" s="10"/>
@@ -11218,37 +11532,35 @@
     <row r="42" spans="2:40">
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="64"/>
+      <c r="AF42" s="64"/>
       <c r="AG42" s="10"/>
       <c r="AH42" s="10"/>
       <c r="AI42" s="10"/>
@@ -11262,34 +11574,34 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="64"/>
+      <c r="W43" s="64"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="64"/>
+      <c r="AB43" s="64"/>
+      <c r="AC43" s="64"/>
+      <c r="AD43" s="64"/>
+      <c r="AE43" s="64"/>
+      <c r="AF43" s="64"/>
       <c r="AG43" s="10"/>
       <c r="AH43" s="10"/>
       <c r="AI43" s="10"/>
@@ -11302,10 +11614,8 @@
     <row r="44" spans="2:40">
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="10"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -11345,8 +11655,12 @@
     <row r="45" spans="2:40">
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="10"/>
+      <c r="D45" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -11386,9 +11700,7 @@
     <row r="46" spans="2:40">
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="28" t="s">
-        <v>54</v>
-      </c>
+      <c r="D46" s="28"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -11429,8 +11741,12 @@
     <row r="47" spans="2:40">
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="10"/>
+      <c r="D47" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -11470,10 +11786,8 @@
     <row r="48" spans="2:40">
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="10"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -11511,48 +11825,907 @@
       <c r="AN48" s="11"/>
     </row>
     <row r="49" spans="2:40">
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
-      <c r="AN49" s="14"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="11"/>
+    </row>
+    <row r="50" spans="2:40">
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="11"/>
+    </row>
+    <row r="51" spans="2:40" ht="70.2" customHeight="1">
+      <c r="B51" s="9"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="11"/>
+    </row>
+    <row r="52" spans="2:40">
+      <c r="B52" s="9"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="11"/>
+    </row>
+    <row r="53" spans="2:40">
+      <c r="B53" s="9"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="11"/>
+    </row>
+    <row r="54" spans="2:40" ht="62.4" customHeight="1">
+      <c r="B54" s="9"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="10"/>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="10"/>
+      <c r="AM54" s="10"/>
+      <c r="AN54" s="11"/>
+    </row>
+    <row r="55" spans="2:40" ht="62.4" customHeight="1">
+      <c r="B55" s="9"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="10"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="11"/>
+    </row>
+    <row r="56" spans="2:40">
+      <c r="B56" s="9"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="11"/>
+    </row>
+    <row r="57" spans="2:40">
+      <c r="B57" s="9"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="11"/>
+    </row>
+    <row r="58" spans="2:40">
+      <c r="B58" s="9"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="11"/>
+    </row>
+    <row r="59" spans="2:40">
+      <c r="B59" s="9"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="10"/>
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="11"/>
+    </row>
+    <row r="60" spans="2:40">
+      <c r="B60" s="9"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="11"/>
+    </row>
+    <row r="61" spans="2:40" ht="52.8" customHeight="1">
+      <c r="B61" s="9"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10"/>
+      <c r="AJ61" s="10"/>
+      <c r="AK61" s="10"/>
+      <c r="AL61" s="10"/>
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="11"/>
+    </row>
+    <row r="62" spans="2:40" ht="52.8" customHeight="1">
+      <c r="B62" s="9"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
+      <c r="AG62" s="10"/>
+      <c r="AH62" s="10"/>
+      <c r="AI62" s="10"/>
+      <c r="AJ62" s="10"/>
+      <c r="AK62" s="10"/>
+      <c r="AL62" s="10"/>
+      <c r="AM62" s="10"/>
+      <c r="AN62" s="11"/>
+    </row>
+    <row r="63" spans="2:40">
+      <c r="B63" s="9"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10"/>
+      <c r="AJ63" s="10"/>
+      <c r="AK63" s="10"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="11"/>
+    </row>
+    <row r="64" spans="2:40">
+      <c r="B64" s="9"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10"/>
+      <c r="AH64" s="10"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="10"/>
+      <c r="AK64" s="10"/>
+      <c r="AL64" s="10"/>
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="11"/>
+    </row>
+    <row r="65" spans="2:40">
+      <c r="B65" s="9"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="10"/>
+      <c r="AH65" s="10"/>
+      <c r="AI65" s="10"/>
+      <c r="AJ65" s="10"/>
+      <c r="AK65" s="10"/>
+      <c r="AL65" s="10"/>
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="11"/>
+    </row>
+    <row r="66" spans="2:40">
+      <c r="B66" s="9"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="10"/>
+      <c r="AH66" s="10"/>
+      <c r="AI66" s="10"/>
+      <c r="AJ66" s="10"/>
+      <c r="AK66" s="10"/>
+      <c r="AL66" s="10"/>
+      <c r="AM66" s="10"/>
+      <c r="AN66" s="11"/>
+    </row>
+    <row r="67" spans="2:40" ht="28.8">
+      <c r="B67" s="9"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="10"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="11"/>
+    </row>
+    <row r="68" spans="2:40" ht="28.8">
+      <c r="B68" s="9"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10"/>
+      <c r="AH68" s="10"/>
+      <c r="AI68" s="10"/>
+      <c r="AJ68" s="10"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="10"/>
+      <c r="AM68" s="10"/>
+      <c r="AN68" s="11"/>
+    </row>
+    <row r="69" spans="2:40">
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+      <c r="AA69" s="13"/>
+      <c r="AB69" s="13"/>
+      <c r="AC69" s="13"/>
+      <c r="AD69" s="13"/>
+      <c r="AE69" s="13"/>
+      <c r="AF69" s="13"/>
+      <c r="AG69" s="13"/>
+      <c r="AH69" s="13"/>
+      <c r="AI69" s="13"/>
+      <c r="AJ69" s="13"/>
+      <c r="AK69" s="13"/>
+      <c r="AL69" s="13"/>
+      <c r="AM69" s="13"/>
+      <c r="AN69" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="E30:AG30"/>
+    <mergeCell ref="E61:P62"/>
+    <mergeCell ref="E54:P55"/>
+    <mergeCell ref="E51:L51"/>
+    <mergeCell ref="E33:AF43"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="D15:S15"/>
     <mergeCell ref="D16:S16"/>
@@ -11561,32 +12734,31 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{5B824E9E-A5B7-4D92-BE6E-F5115A27EBD8}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{5F009747-B28C-41C7-858D-DD2687BDAFDB}"/>
-    <hyperlink ref="D16" r:id="rId3" xr:uid="{B75CEFB6-216E-433C-A868-1FD4B00D69FD}"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{B75CEFB6-216E-433C-A868-1FD4B00D69FD}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{09B09074-F1BB-47EB-95B0-77FE8E4746E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D379D0-4E44-4B1F-A25B-8C9EA86B30B9}">
   <dimension ref="B2:AN49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23:S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="3.33203125" style="3"/>
-    <col min="3" max="3" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="3" customWidth="1"/>
-    <col min="6" max="12" width="3.33203125" style="3"/>
-    <col min="13" max="13" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="3.33203125" style="3"/>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:40">
@@ -11628,11 +12800,11 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
-    <row r="3" spans="2:40" ht="27">
+    <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15"/>
       <c r="D3" s="16"/>
@@ -11757,21 +12929,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -11811,12 +12983,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -11856,12 +13028,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -11901,12 +13073,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -11946,12 +13118,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -11987,7 +13159,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -12026,7 +13198,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -12103,7 +13275,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -12143,10 +13315,10 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="11"/>
     </row>
-    <row r="15" spans="2:40" ht="126.5" customHeight="1">
+    <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
@@ -12186,10 +13358,10 @@
       <c r="AM15" s="10"/>
       <c r="AN15" s="11"/>
     </row>
-    <row r="16" spans="2:40" ht="19">
+    <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -12314,7 +13486,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -12398,7 +13570,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -12479,10 +13651,10 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="11"/>
     </row>
-    <row r="23" spans="2:40" ht="98.5" customHeight="1">
+    <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="56"/>
       <c r="E23" s="57"/>
@@ -12604,11 +13776,2069 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="11"/>
     </row>
-    <row r="26" spans="2:40" ht="112.25" customHeight="1">
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="9"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="9"/>
+      <c r="C28" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="2:40">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="2:40">
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="2:40">
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="2:40">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="2:40">
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="2:40">
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="2:40">
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="2:40">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="2:40">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="2:40">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="2:40">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="2:40">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="2:40">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="2:40">
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="2:40">
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="11"/>
+    </row>
+    <row r="48" spans="2:40">
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="11"/>
+    </row>
+    <row r="49" spans="2:40">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="13"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
+  <dimension ref="B2:AN49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:40">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN2" s="49"/>
+    </row>
+    <row r="3" spans="2:40" ht="26.4">
+      <c r="B3" s="9"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="B5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="B6" s="9"/>
+      <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="9"/>
+      <c r="C14" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="2:40" ht="126.45" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="9"/>
+      <c r="C16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="2:40">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="2:40">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="9"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="2:40">
+      <c r="B21" s="9"/>
+      <c r="C21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="2:40">
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="2:40" ht="98.55" customHeight="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="57"/>
@@ -12691,10 +15921,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -12737,7 +15967,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -12821,7 +16051,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -12905,7 +16135,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -13030,7 +16260,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -13114,7 +16344,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -13198,7 +16428,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -13282,7 +16512,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -13366,7 +16596,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -13450,7 +16680,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -13534,7 +16764,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2803152-6902-4E80-A8CD-D77959A71226}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409C4694-4FC9-4D3C-AA6E-0C1F627E4788}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20856" yWindow="3012" windowWidth="19764" windowHeight="19068" tabRatio="723" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24312" yWindow="4152" windowWidth="19764" windowHeight="19068" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="array_key_exists" sheetId="4" r:id="rId3"/>
     <sheet name="file_put_contents" sheetId="5" r:id="rId4"/>
     <sheet name="file_get_contents" sheetId="6" r:id="rId5"/>
-    <sheet name="xxxtemplate (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="php if 文" sheetId="7" r:id="rId6"/>
     <sheet name="xxxtemplate" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="204">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>php できること</t>
+  </si>
+  <si>
+    <t>php if 文</t>
   </si>
   <si>
     <t>mb_send_mail</t>
@@ -1401,6 +1404,387 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>カセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】ile_get_contentsを使ってファイル、WEBページの情報を取得｜フライテック</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、PHPのfile_get_contents()関数を使ったファイルの読み込みやWEBページの読み込み方法をサンプルコードを使って分かり易く解説していきます。PHPのfile_get_contents()関数は、ファイルを文字列に読み込みや、WEBページのHTMLを読み込むために使用される組み込み関数です。この関数は、メモリマッピングテクニックを使用しているため、パフォーマンスが向上し、ファイルの内容を読み取るために好ましい方法をとっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php if 文 複数条件</t>
+  </si>
+  <si>
+    <t>php if 文 書き方</t>
+  </si>
+  <si>
+    <t>php if 文字列</t>
+    <rPh sb="7" eb="10">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://techacademy.jp/magazine/4789</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://uxmilk.jp/12995</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://zeropuro.com/blog/?p=205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文(条件分岐)とは</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文の基本的なサンプルコード</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キホンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文の書き方</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文の使い方</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多くの場合、コードを作成するときは、さまざまな条件に対してさまざまなアクションを実行する必要があります。これを行うには、コードで条件ステートメントを使用できます。
+PHPでは、次の条件ステートメントがあります。
+if ステートメント-1つの条件が真の場合にコードを実行します
+if...else ステートメント-条件が真の場合はいくつかのコードを実行し、条件が偽の場合は別のコードを実行します
+if...elseif...else ステートメント-3つ以上の条件に対して異なるコードを実行します
+switch ステートメント-実行するコードの多くのブロックから1つを選択します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch文を使った例</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch文</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文がたくさんある場合は見にくいためswitch文を使う方が綺麗にかけるためおすすめです</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if...elseの使い方</t>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if ... elseif ... elseを使い方</t>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文のネスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文はネストとよばれる多重構造でif文の処理の中にif文を記述することが可能です。以下のサンプルでは、if文をネストしてそれぞれ値を比較しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較演算子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理演算子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理積：$値1 and $値2
+$値1 および $値2 が共にTRUEの場合にTRUEを返します。
+論理和：$値1 or $値2
+$値1 または $値2 のどちらかがTRUEの場合にTRUEを返します。
+排他的論理和：$値1 xor $値2
+$値1 または $値2 のどちらかがTRUEでかつ両方ともTRUEでない場合にTRUEを返します。
+否定：! $値1
+$値1 が TRUEでない場合にTRUEを返します。
+論理積：$値1 &amp;&amp; $値2
+$値1 および $値2 が共にTRUEの場合にTRUEを返します。
+論理和：$値1 || $値2
+$値1 または $値2 のどちらかがTRUEの場合にTRUEを返します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>等しい：$値1 == $値2
+$値1 が $値2 に等しい時にTRUEを返します。
+等しい：$値1 === $値2
+$値1 が $値2 に等しい、および同じ型の場合にTRUEを返します。
+等しくない：$値1 != $値2
+$値1 が $値2 に等しくない場合にTRUEを返します。
+等しくない：$値1 &lt;&gt; $値2
+$値1 が $値2 に等しくない場合にTRUEを返します。
+等しくない：$値1 !== $値2
+$値1 が $値2 と等しくない、および同じ型でない場合にTRUEを返します。
+より少ない：$値1 &lt; $値2
+$値1 が $値2 より少ない時にTRUEを返します。
+より多い：$値1 &gt; $値2
+$値1 が $値2 より多い時にTRUEを返します。
+より少ないか等しい：$値1 &lt;= $値2
+$値1 が $値2 より少ないか等しい時にTRUEを返します。
+より多いか等しい：$値1 &gt;= $値2
+$値1 が $値2 より多いか等しい時にTRUEを返します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較演算子を使った例</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理演算子を使った例</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】if文で条件分岐をする！書き方や使い方を分かり易く解説！</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】if文で条件分岐をする！書き方や使い方を分かり易く解説！｜フライテック</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>式に関するセクションで 説明したように、式はブール値に評価されます。場合表現評価さにTRUE、PHPが実行されます陳述をし、それが評価された場合FALSE-それはそれを無視します。評価される値の詳細についてFALSEは、「ブール値への変換」 セクションを参照してください。
+次の例では、表示していましたbよりも大きい場合は$よりも大きい$ B：
+&lt;?php
+if ($a &gt; $b)
+  echo "a is bigger than b";
+?&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件分岐はPHPだけでなく、他の言語でも最も重要な機能の一つです。
+サーバー側(Java,PHP,C#等)のプログラミングとは、if文等の条件分岐の集まりといっても過言ではありません。そのくらい重要な役割を占めていますので、しっかり学びましょう！
+ここでは、初心者にも分かり易くPHPのif文の書き方、使い方を解説していきます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>カゴン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="131" eb="134">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ここでは、初心者にも分かり易くPHPのif文の書き方、使い方を解説していきます。条件分岐はPHPだけでなく、他の言語でも最も重要な機能の一つです。
+サーバー側(Java,PHP,C#等)のプログラミングとは、if文等の条件分岐の集まりといっても過言ではありません。そのくらい重要な役割を占めていますので、しっかり学びましょう！
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分かるでしょ？Ｗ</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1544,7 +1928,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1584,6 +1968,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,7 +2123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1885,6 +2275,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2442,9 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
@@ -2455,7 +2849,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -2466,7 +2860,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -2477,7 +2871,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -2521,7 +2915,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -2532,7 +2926,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="71" t="s">
         <v>1</v>
@@ -2543,7 +2937,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="71" t="s">
         <v>1</v>
@@ -2554,7 +2948,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="71" t="s">
         <v>1</v>
@@ -2565,7 +2959,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="71" t="s">
         <v>1</v>
@@ -2576,7 +2970,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="71" t="s">
         <v>1</v>
@@ -2587,7 +2981,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="71" t="s">
         <v>1</v>
@@ -2598,7 +2992,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>1</v>
@@ -2609,7 +3003,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="71" t="s">
         <v>1</v>
@@ -2620,7 +3014,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="71" t="s">
         <v>1</v>
@@ -2631,7 +3025,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="71" t="s">
         <v>1</v>
@@ -2642,7 +3036,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="71" t="s">
         <v>1</v>
@@ -2653,7 +3047,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="71" t="s">
         <v>1</v>
@@ -2664,7 +3058,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="71" t="s">
         <v>1</v>
@@ -2675,7 +3069,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="71" t="s">
         <v>1</v>
@@ -2686,7 +3080,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="71" t="s">
         <v>1</v>
@@ -2697,7 +3091,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="71" t="s">
         <v>1</v>
@@ -2708,7 +3102,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="71" t="s">
         <v>1</v>
@@ -2719,7 +3113,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="71" t="s">
         <v>1</v>
@@ -2730,7 +3124,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="71" t="s">
         <v>1</v>
@@ -2741,7 +3135,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="71" t="s">
         <v>1</v>
@@ -2752,7 +3146,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="71" t="s">
         <v>1</v>
@@ -2763,7 +3157,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="71" t="s">
         <v>1</v>
@@ -2774,7 +3168,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="71" t="s">
         <v>1</v>
@@ -2785,7 +3179,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="71" t="s">
         <v>1</v>
@@ -2796,7 +3190,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="71" t="s">
         <v>1</v>
@@ -2807,7 +3201,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="71" t="s">
         <v>1</v>
@@ -2818,7 +3212,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="71" t="s">
         <v>1</v>
@@ -2829,7 +3223,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="71" t="s">
         <v>1</v>
@@ -2840,7 +3234,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="71" t="s">
         <v>1</v>
@@ -2851,7 +3245,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="71" t="s">
         <v>1</v>
@@ -2862,7 +3256,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C39" s="71" t="s">
         <v>1</v>
@@ -2937,7 +3331,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
@@ -3072,21 +3466,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -3131,21 +3525,21 @@
         <v>2900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -3178,19 +3572,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5">
         <v>2900</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -3227,19 +3621,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -3276,19 +3670,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -3321,14 +3715,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5">
         <v>260</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3364,16 +3758,16 @@
     <row r="12" spans="2:40">
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6">
         <v>90</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -3450,7 +3844,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3493,10 +3887,10 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -3538,10 +3932,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
@@ -3665,10 +4059,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -3751,10 +4145,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -3837,10 +4231,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -3965,10 +4359,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
@@ -4050,13 +4444,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -4098,10 +4492,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -4184,10 +4578,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -4270,10 +4664,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -4316,7 +4710,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
       <c r="E34" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -4399,10 +4793,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -4445,7 +4839,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -4528,10 +4922,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -4614,10 +5008,10 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -4700,10 +5094,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -4786,10 +5180,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -4872,10 +5266,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -4958,10 +5352,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -5042,48 +5436,48 @@
     </row>
     <row r="52" spans="2:40">
       <c r="B52" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C52" s="32"/>
     </row>
     <row r="53" spans="2:40">
       <c r="C53" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:40" ht="18.600000000000001">
       <c r="C54" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="3:3" ht="18.600000000000001">
       <c r="C70" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="3:11" ht="18.600000000000001">
       <c r="C104" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="3:11" ht="18.600000000000001">
       <c r="C105" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="3:11" ht="18.600000000000001">
       <c r="C109" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="3:11">
       <c r="C110" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="40"/>
@@ -5096,42 +5490,42 @@
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5158,9 +5552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D944D06-7B60-44D6-B319-58F2EB3DED52}">
   <dimension ref="B2:AN54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -5212,14 +5604,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2">
         <v>1600</v>
@@ -5347,21 +5739,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -5400,19 +5792,19 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7" s="5">
         <v>1600</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -5451,21 +5843,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" s="5">
         <v>1600</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -5505,12 +5897,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -5550,12 +5942,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -5591,7 +5983,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5630,7 +6022,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5707,7 +6099,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5750,10 +6142,10 @@
     <row r="15" spans="2:40" ht="165" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -5795,10 +6187,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
@@ -5922,10 +6314,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -6008,10 +6400,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -6094,10 +6486,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -6222,10 +6614,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
@@ -6307,13 +6699,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -6355,10 +6747,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -6401,7 +6793,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="37"/>
@@ -6484,10 +6876,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -6570,10 +6962,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -6656,10 +7048,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -6742,10 +7134,10 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -6788,7 +7180,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
       <c r="E39" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -7516,17 +7908,17 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -7651,27 +8043,27 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
       <c r="M6" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -7704,21 +8096,21 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" s="5">
         <v>1900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -7757,21 +8149,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="5">
         <v>720</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -7808,21 +8200,21 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" s="5">
         <v>1600</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -7862,12 +8254,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -7903,7 +8295,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -7942,7 +8334,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -8019,7 +8411,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8062,10 +8454,10 @@
     <row r="15" spans="2:40" ht="153.44999999999999" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -8107,10 +8499,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
@@ -8234,10 +8626,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -8320,10 +8712,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -8406,10 +8798,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -8534,10 +8926,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
@@ -8619,13 +9011,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -8667,10 +9059,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -8713,7 +9105,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -8756,7 +9148,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="28"/>
       <c r="E31" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -8880,10 +9272,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -8966,10 +9358,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -9012,7 +9404,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -9055,7 +9447,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
       <c r="E38" s="56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F38" s="58"/>
       <c r="G38" s="58"/>
@@ -9343,10 +9735,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -9429,10 +9821,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -9515,10 +9907,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -9601,10 +9993,10 @@
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
       <c r="D51" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -9647,7 +10039,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="28"/>
       <c r="E52" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -9689,10 +10081,10 @@
       <c r="B53" s="9"/>
       <c r="C53" s="11"/>
       <c r="D53" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -9735,7 +10127,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -9797,7 +10189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4763CD16-7F35-4419-950D-7C06E80819B4}">
   <dimension ref="B2:AN69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -9849,14 +10241,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -9984,21 +10376,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -10037,21 +10429,21 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D7" s="5">
         <v>2900</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -10090,19 +10482,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D8" s="5">
         <v>1600</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -10142,12 +10534,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -10187,12 +10579,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -10228,7 +10620,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -10267,7 +10659,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -10344,7 +10736,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -10387,10 +10779,10 @@
     <row r="15" spans="2:40" ht="141.6" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -10432,10 +10824,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
@@ -10559,10 +10951,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -10645,9 +11037,11 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -10726,27 +11120,29 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="11"/>
     </row>
-    <row r="23" spans="2:40" ht="98.55" customHeight="1">
+    <row r="23" spans="2:40" ht="115.2" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
+        <v>52</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -10855,26 +11251,26 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
+        <v>102</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -10940,13 +11336,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -10988,10 +11384,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -11034,7 +11430,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="64"/>
@@ -11117,10 +11513,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -11163,7 +11559,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="28"/>
       <c r="E33" s="63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F33" s="64"/>
       <c r="G33" s="64"/>
@@ -11656,10 +12052,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -11742,10 +12138,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -11828,10 +12224,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -11874,7 +12270,7 @@
       <c r="C50" s="11"/>
       <c r="D50" s="28"/>
       <c r="E50" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -11917,7 +12313,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="28"/>
       <c r="E51" s="61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F51" s="62"/>
       <c r="G51" s="62"/>
@@ -11959,10 +12355,10 @@
       <c r="B52" s="9"/>
       <c r="C52" s="11"/>
       <c r="D52" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -12005,7 +12401,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="28"/>
       <c r="E53" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -12048,7 +12444,7 @@
       <c r="C54" s="11"/>
       <c r="D54" s="28"/>
       <c r="E54" s="65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F54" s="66"/>
       <c r="G54" s="66"/>
@@ -12172,10 +12568,10 @@
       <c r="B57" s="9"/>
       <c r="C57" s="11"/>
       <c r="D57" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -12258,10 +12654,10 @@
       <c r="B59" s="9"/>
       <c r="C59" s="11"/>
       <c r="D59" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -12304,7 +12700,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="28"/>
       <c r="E60" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -12347,7 +12743,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="28"/>
       <c r="E61" s="61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="62"/>
@@ -12471,10 +12867,10 @@
       <c r="B64" s="9"/>
       <c r="C64" s="11"/>
       <c r="D64" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -12599,7 +12995,7 @@
       <c r="C67" s="11"/>
       <c r="D67" s="28"/>
       <c r="E67" s="72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -12744,10 +13140,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D379D0-4E44-4B1F-A25B-8C9EA86B30B9}">
-  <dimension ref="B2:AN49"/>
+  <dimension ref="B2:AN90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:S23"/>
+      <selection activeCell="D16" sqref="D16:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
@@ -12800,15 +13196,21 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
-    <row r="3" spans="2:40" ht="26.4">
+    <row r="3" spans="2:40">
       <c r="B3" s="9"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -12929,21 +13331,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -12979,16 +13381,22 @@
     </row>
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1300</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -13024,16 +13432,22 @@
     </row>
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -13069,16 +13483,22 @@
     </row>
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="5">
+        <v>90</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>179</v>
+      </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -13114,16 +13534,22 @@
     </row>
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="5">
+        <v>40</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>177</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -13159,7 +13585,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -13198,7 +13624,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -13275,7 +13701,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -13318,9 +13744,11 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="50"/>
+        <v>61</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>203</v>
+      </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -13361,7 +13789,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -13486,9 +13914,11 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -13570,9 +14000,11 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -13654,24 +14086,26 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
+        <v>52</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -13776,28 +14210,30 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="11"/>
     </row>
-    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+    <row r="26" spans="2:40" ht="141.6" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
+        <v>102</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -13863,12 +14299,14 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -13905,29 +14343,29 @@
       <c r="AM28" s="10"/>
       <c r="AN28" s="11"/>
     </row>
-    <row r="29" spans="2:40">
+    <row r="29" spans="2:40" ht="73.2" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
@@ -13948,27 +14386,27 @@
       <c r="AM29" s="10"/>
       <c r="AN29" s="11"/>
     </row>
-    <row r="30" spans="2:40">
+    <row r="30" spans="2:40" ht="73.2" customHeight="1">
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
@@ -13993,9 +14431,11 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -14077,9 +14517,11 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -14204,7 +14646,9 @@
       <c r="D36" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -14245,7 +14689,9 @@
       <c r="B37" s="9"/>
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="34" t="s">
+        <v>79</v>
+      </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -14282,36 +14728,36 @@
       <c r="AM37" s="10"/>
       <c r="AN37" s="11"/>
     </row>
-    <row r="38" spans="2:40">
+    <row r="38" spans="2:40" ht="58.2" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
       <c r="AE38" s="10"/>
@@ -14325,34 +14771,34 @@
       <c r="AM38" s="10"/>
       <c r="AN38" s="11"/>
     </row>
-    <row r="39" spans="2:40">
+    <row r="39" spans="2:40" ht="58.2" customHeight="1">
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
       <c r="AC39" s="10"/>
       <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
@@ -14366,36 +14812,34 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="11"/>
     </row>
-    <row r="40" spans="2:40">
+    <row r="40" spans="2:40" ht="58.2" customHeight="1">
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
+      <c r="W40" s="62"/>
+      <c r="X40" s="62"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="62"/>
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
@@ -14413,30 +14857,30 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
       <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
@@ -14454,9 +14898,11 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -14538,9 +14984,11 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -14622,9 +15070,11 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -14665,7 +15115,9 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28"/>
-      <c r="E47" s="10"/>
+      <c r="E47" s="34" t="s">
+        <v>79</v>
+      </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -14705,33 +15157,33 @@
     <row r="48" spans="2:40">
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="62"/>
+      <c r="V48" s="62"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="62"/>
+      <c r="Z48" s="62"/>
+      <c r="AA48" s="62"/>
+      <c r="AB48" s="62"/>
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
@@ -14746,57 +15198,1783 @@
       <c r="AN48" s="11"/>
     </row>
     <row r="49" spans="2:40">
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
-      <c r="AN49" s="14"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="62"/>
+      <c r="V49" s="62"/>
+      <c r="W49" s="62"/>
+      <c r="X49" s="62"/>
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="62"/>
+      <c r="AA49" s="62"/>
+      <c r="AB49" s="62"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="11"/>
+    </row>
+    <row r="50" spans="2:40">
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="11"/>
+    </row>
+    <row r="51" spans="2:40">
+      <c r="B51" s="9"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="11"/>
+    </row>
+    <row r="52" spans="2:40">
+      <c r="B52" s="9"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="11"/>
+    </row>
+    <row r="53" spans="2:40">
+      <c r="B53" s="9"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="11"/>
+    </row>
+    <row r="54" spans="2:40">
+      <c r="B54" s="9"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="10"/>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="10"/>
+      <c r="AM54" s="10"/>
+      <c r="AN54" s="11"/>
+    </row>
+    <row r="55" spans="2:40">
+      <c r="B55" s="9"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="10"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="11"/>
+    </row>
+    <row r="56" spans="2:40">
+      <c r="B56" s="9"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="11"/>
+    </row>
+    <row r="57" spans="2:40">
+      <c r="B57" s="9"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="11"/>
+    </row>
+    <row r="58" spans="2:40">
+      <c r="B58" s="9"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="11"/>
+    </row>
+    <row r="59" spans="2:40">
+      <c r="B59" s="9"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="10"/>
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="11"/>
+    </row>
+    <row r="60" spans="2:40">
+      <c r="B60" s="9"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="11"/>
+    </row>
+    <row r="61" spans="2:40" ht="30" customHeight="1">
+      <c r="B61" s="9"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="62"/>
+      <c r="V61" s="62"/>
+      <c r="W61" s="62"/>
+      <c r="X61" s="62"/>
+      <c r="Y61" s="62"/>
+      <c r="Z61" s="62"/>
+      <c r="AA61" s="62"/>
+      <c r="AB61" s="62"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10"/>
+      <c r="AJ61" s="10"/>
+      <c r="AK61" s="10"/>
+      <c r="AL61" s="10"/>
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="11"/>
+    </row>
+    <row r="62" spans="2:40" ht="30" customHeight="1">
+      <c r="B62" s="9"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="62"/>
+      <c r="V62" s="62"/>
+      <c r="W62" s="62"/>
+      <c r="X62" s="62"/>
+      <c r="Y62" s="62"/>
+      <c r="Z62" s="62"/>
+      <c r="AA62" s="62"/>
+      <c r="AB62" s="62"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
+      <c r="AG62" s="10"/>
+      <c r="AH62" s="10"/>
+      <c r="AI62" s="10"/>
+      <c r="AJ62" s="10"/>
+      <c r="AK62" s="10"/>
+      <c r="AL62" s="10"/>
+      <c r="AM62" s="10"/>
+      <c r="AN62" s="11"/>
+    </row>
+    <row r="63" spans="2:40" ht="30" customHeight="1">
+      <c r="B63" s="9"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="62"/>
+      <c r="V63" s="62"/>
+      <c r="W63" s="62"/>
+      <c r="X63" s="62"/>
+      <c r="Y63" s="62"/>
+      <c r="Z63" s="62"/>
+      <c r="AA63" s="62"/>
+      <c r="AB63" s="62"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10"/>
+      <c r="AJ63" s="10"/>
+      <c r="AK63" s="10"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="11"/>
+    </row>
+    <row r="64" spans="2:40" ht="30" customHeight="1">
+      <c r="B64" s="9"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="62"/>
+      <c r="U64" s="62"/>
+      <c r="V64" s="62"/>
+      <c r="W64" s="62"/>
+      <c r="X64" s="62"/>
+      <c r="Y64" s="62"/>
+      <c r="Z64" s="62"/>
+      <c r="AA64" s="62"/>
+      <c r="AB64" s="62"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10"/>
+      <c r="AH64" s="10"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="10"/>
+      <c r="AK64" s="10"/>
+      <c r="AL64" s="10"/>
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="11"/>
+    </row>
+    <row r="65" spans="2:40" ht="30" customHeight="1">
+      <c r="B65" s="9"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
+      <c r="O65" s="62"/>
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="62"/>
+      <c r="U65" s="62"/>
+      <c r="V65" s="62"/>
+      <c r="W65" s="62"/>
+      <c r="X65" s="62"/>
+      <c r="Y65" s="62"/>
+      <c r="Z65" s="62"/>
+      <c r="AA65" s="62"/>
+      <c r="AB65" s="62"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="10"/>
+      <c r="AH65" s="10"/>
+      <c r="AI65" s="10"/>
+      <c r="AJ65" s="10"/>
+      <c r="AK65" s="10"/>
+      <c r="AL65" s="10"/>
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="11"/>
+    </row>
+    <row r="66" spans="2:40" ht="30" customHeight="1">
+      <c r="B66" s="9"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="62"/>
+      <c r="O66" s="62"/>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="62"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="62"/>
+      <c r="U66" s="62"/>
+      <c r="V66" s="62"/>
+      <c r="W66" s="62"/>
+      <c r="X66" s="62"/>
+      <c r="Y66" s="62"/>
+      <c r="Z66" s="62"/>
+      <c r="AA66" s="62"/>
+      <c r="AB66" s="62"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="10"/>
+      <c r="AH66" s="10"/>
+      <c r="AI66" s="10"/>
+      <c r="AJ66" s="10"/>
+      <c r="AK66" s="10"/>
+      <c r="AL66" s="10"/>
+      <c r="AM66" s="10"/>
+      <c r="AN66" s="11"/>
+    </row>
+    <row r="67" spans="2:40" ht="30" customHeight="1">
+      <c r="B67" s="9"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="62"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="62"/>
+      <c r="U67" s="62"/>
+      <c r="V67" s="62"/>
+      <c r="W67" s="62"/>
+      <c r="X67" s="62"/>
+      <c r="Y67" s="62"/>
+      <c r="Z67" s="62"/>
+      <c r="AA67" s="62"/>
+      <c r="AB67" s="62"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="10"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="11"/>
+    </row>
+    <row r="68" spans="2:40" ht="30" customHeight="1">
+      <c r="B68" s="9"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="62"/>
+      <c r="O68" s="62"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="62"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="62"/>
+      <c r="U68" s="62"/>
+      <c r="V68" s="62"/>
+      <c r="W68" s="62"/>
+      <c r="X68" s="62"/>
+      <c r="Y68" s="62"/>
+      <c r="Z68" s="62"/>
+      <c r="AA68" s="62"/>
+      <c r="AB68" s="62"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10"/>
+      <c r="AH68" s="10"/>
+      <c r="AI68" s="10"/>
+      <c r="AJ68" s="10"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="10"/>
+      <c r="AM68" s="10"/>
+      <c r="AN68" s="11"/>
+    </row>
+    <row r="69" spans="2:40" ht="30" customHeight="1">
+      <c r="B69" s="9"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="62"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="62"/>
+      <c r="U69" s="62"/>
+      <c r="V69" s="62"/>
+      <c r="W69" s="62"/>
+      <c r="X69" s="62"/>
+      <c r="Y69" s="62"/>
+      <c r="Z69" s="62"/>
+      <c r="AA69" s="62"/>
+      <c r="AB69" s="62"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="10"/>
+      <c r="AH69" s="10"/>
+      <c r="AI69" s="10"/>
+      <c r="AJ69" s="10"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="10"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="11"/>
+    </row>
+    <row r="70" spans="2:40" ht="30" customHeight="1">
+      <c r="B70" s="9"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="62"/>
+      <c r="O70" s="62"/>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="62"/>
+      <c r="S70" s="62"/>
+      <c r="T70" s="62"/>
+      <c r="U70" s="62"/>
+      <c r="V70" s="62"/>
+      <c r="W70" s="62"/>
+      <c r="X70" s="62"/>
+      <c r="Y70" s="62"/>
+      <c r="Z70" s="62"/>
+      <c r="AA70" s="62"/>
+      <c r="AB70" s="62"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="10"/>
+      <c r="AI70" s="10"/>
+      <c r="AJ70" s="10"/>
+      <c r="AK70" s="10"/>
+      <c r="AL70" s="10"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="11"/>
+    </row>
+    <row r="71" spans="2:40">
+      <c r="B71" s="9"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="10"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="10"/>
+      <c r="AJ71" s="10"/>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="11"/>
+    </row>
+    <row r="72" spans="2:40">
+      <c r="B72" s="9"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
+      <c r="AG72" s="10"/>
+      <c r="AH72" s="10"/>
+      <c r="AI72" s="10"/>
+      <c r="AJ72" s="10"/>
+      <c r="AK72" s="10"/>
+      <c r="AL72" s="10"/>
+      <c r="AM72" s="10"/>
+      <c r="AN72" s="11"/>
+    </row>
+    <row r="73" spans="2:40">
+      <c r="B73" s="9"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="10"/>
+      <c r="AF73" s="10"/>
+      <c r="AG73" s="10"/>
+      <c r="AH73" s="10"/>
+      <c r="AI73" s="10"/>
+      <c r="AJ73" s="10"/>
+      <c r="AK73" s="10"/>
+      <c r="AL73" s="10"/>
+      <c r="AM73" s="10"/>
+      <c r="AN73" s="11"/>
+    </row>
+    <row r="74" spans="2:40">
+      <c r="B74" s="9"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="10"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="10"/>
+      <c r="AN74" s="11"/>
+    </row>
+    <row r="75" spans="2:40">
+      <c r="B75" s="9"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="10"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="11"/>
+    </row>
+    <row r="76" spans="2:40">
+      <c r="B76" s="9"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="10"/>
+      <c r="AH76" s="10"/>
+      <c r="AI76" s="10"/>
+      <c r="AJ76" s="10"/>
+      <c r="AK76" s="10"/>
+      <c r="AL76" s="10"/>
+      <c r="AM76" s="10"/>
+      <c r="AN76" s="11"/>
+    </row>
+    <row r="77" spans="2:40">
+      <c r="B77" s="9"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
+      <c r="AG77" s="10"/>
+      <c r="AH77" s="10"/>
+      <c r="AI77" s="10"/>
+      <c r="AJ77" s="10"/>
+      <c r="AK77" s="10"/>
+      <c r="AL77" s="10"/>
+      <c r="AM77" s="10"/>
+      <c r="AN77" s="11"/>
+    </row>
+    <row r="78" spans="2:40" ht="18" customHeight="1">
+      <c r="B78" s="9"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="62"/>
+      <c r="O78" s="62"/>
+      <c r="P78" s="62"/>
+      <c r="Q78" s="62"/>
+      <c r="R78" s="62"/>
+      <c r="S78" s="62"/>
+      <c r="T78" s="62"/>
+      <c r="U78" s="62"/>
+      <c r="V78" s="62"/>
+      <c r="W78" s="62"/>
+      <c r="X78" s="62"/>
+      <c r="Y78" s="62"/>
+      <c r="Z78" s="62"/>
+      <c r="AA78" s="62"/>
+      <c r="AB78" s="62"/>
+      <c r="AC78" s="10"/>
+      <c r="AD78" s="10"/>
+      <c r="AE78" s="10"/>
+      <c r="AF78" s="10"/>
+      <c r="AG78" s="10"/>
+      <c r="AH78" s="10"/>
+      <c r="AI78" s="10"/>
+      <c r="AJ78" s="10"/>
+      <c r="AK78" s="10"/>
+      <c r="AL78" s="10"/>
+      <c r="AM78" s="10"/>
+      <c r="AN78" s="11"/>
+    </row>
+    <row r="79" spans="2:40">
+      <c r="B79" s="9"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="62"/>
+      <c r="S79" s="62"/>
+      <c r="T79" s="62"/>
+      <c r="U79" s="62"/>
+      <c r="V79" s="62"/>
+      <c r="W79" s="62"/>
+      <c r="X79" s="62"/>
+      <c r="Y79" s="62"/>
+      <c r="Z79" s="62"/>
+      <c r="AA79" s="62"/>
+      <c r="AB79" s="62"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
+      <c r="AG79" s="10"/>
+      <c r="AH79" s="10"/>
+      <c r="AI79" s="10"/>
+      <c r="AJ79" s="10"/>
+      <c r="AK79" s="10"/>
+      <c r="AL79" s="10"/>
+      <c r="AM79" s="10"/>
+      <c r="AN79" s="11"/>
+    </row>
+    <row r="80" spans="2:40">
+      <c r="B80" s="9"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="62"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="62"/>
+      <c r="Q80" s="62"/>
+      <c r="R80" s="62"/>
+      <c r="S80" s="62"/>
+      <c r="T80" s="62"/>
+      <c r="U80" s="62"/>
+      <c r="V80" s="62"/>
+      <c r="W80" s="62"/>
+      <c r="X80" s="62"/>
+      <c r="Y80" s="62"/>
+      <c r="Z80" s="62"/>
+      <c r="AA80" s="62"/>
+      <c r="AB80" s="62"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="10"/>
+      <c r="AH80" s="10"/>
+      <c r="AI80" s="10"/>
+      <c r="AJ80" s="10"/>
+      <c r="AK80" s="10"/>
+      <c r="AL80" s="10"/>
+      <c r="AM80" s="10"/>
+      <c r="AN80" s="11"/>
+    </row>
+    <row r="81" spans="2:40">
+      <c r="B81" s="9"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="62"/>
+      <c r="L81" s="62"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="62"/>
+      <c r="O81" s="62"/>
+      <c r="P81" s="62"/>
+      <c r="Q81" s="62"/>
+      <c r="R81" s="62"/>
+      <c r="S81" s="62"/>
+      <c r="T81" s="62"/>
+      <c r="U81" s="62"/>
+      <c r="V81" s="62"/>
+      <c r="W81" s="62"/>
+      <c r="X81" s="62"/>
+      <c r="Y81" s="62"/>
+      <c r="Z81" s="62"/>
+      <c r="AA81" s="62"/>
+      <c r="AB81" s="62"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="10"/>
+      <c r="AF81" s="10"/>
+      <c r="AG81" s="10"/>
+      <c r="AH81" s="10"/>
+      <c r="AI81" s="10"/>
+      <c r="AJ81" s="10"/>
+      <c r="AK81" s="10"/>
+      <c r="AL81" s="10"/>
+      <c r="AM81" s="10"/>
+      <c r="AN81" s="11"/>
+    </row>
+    <row r="82" spans="2:40">
+      <c r="B82" s="9"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="62"/>
+      <c r="S82" s="62"/>
+      <c r="T82" s="62"/>
+      <c r="U82" s="62"/>
+      <c r="V82" s="62"/>
+      <c r="W82" s="62"/>
+      <c r="X82" s="62"/>
+      <c r="Y82" s="62"/>
+      <c r="Z82" s="62"/>
+      <c r="AA82" s="62"/>
+      <c r="AB82" s="62"/>
+      <c r="AC82" s="10"/>
+      <c r="AD82" s="10"/>
+      <c r="AE82" s="10"/>
+      <c r="AF82" s="10"/>
+      <c r="AG82" s="10"/>
+      <c r="AH82" s="10"/>
+      <c r="AI82" s="10"/>
+      <c r="AJ82" s="10"/>
+      <c r="AK82" s="10"/>
+      <c r="AL82" s="10"/>
+      <c r="AM82" s="10"/>
+      <c r="AN82" s="11"/>
+    </row>
+    <row r="83" spans="2:40">
+      <c r="B83" s="9"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="62"/>
+      <c r="S83" s="62"/>
+      <c r="T83" s="62"/>
+      <c r="U83" s="62"/>
+      <c r="V83" s="62"/>
+      <c r="W83" s="62"/>
+      <c r="X83" s="62"/>
+      <c r="Y83" s="62"/>
+      <c r="Z83" s="62"/>
+      <c r="AA83" s="62"/>
+      <c r="AB83" s="62"/>
+      <c r="AC83" s="10"/>
+      <c r="AD83" s="10"/>
+      <c r="AE83" s="10"/>
+      <c r="AF83" s="10"/>
+      <c r="AG83" s="10"/>
+      <c r="AH83" s="10"/>
+      <c r="AI83" s="10"/>
+      <c r="AJ83" s="10"/>
+      <c r="AK83" s="10"/>
+      <c r="AL83" s="10"/>
+      <c r="AM83" s="10"/>
+      <c r="AN83" s="11"/>
+    </row>
+    <row r="84" spans="2:40">
+      <c r="B84" s="9"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
+      <c r="N84" s="62"/>
+      <c r="O84" s="62"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="62"/>
+      <c r="S84" s="62"/>
+      <c r="T84" s="62"/>
+      <c r="U84" s="62"/>
+      <c r="V84" s="62"/>
+      <c r="W84" s="62"/>
+      <c r="X84" s="62"/>
+      <c r="Y84" s="62"/>
+      <c r="Z84" s="62"/>
+      <c r="AA84" s="62"/>
+      <c r="AB84" s="62"/>
+      <c r="AC84" s="10"/>
+      <c r="AD84" s="10"/>
+      <c r="AE84" s="10"/>
+      <c r="AF84" s="10"/>
+      <c r="AG84" s="10"/>
+      <c r="AH84" s="10"/>
+      <c r="AI84" s="10"/>
+      <c r="AJ84" s="10"/>
+      <c r="AK84" s="10"/>
+      <c r="AL84" s="10"/>
+      <c r="AM84" s="10"/>
+      <c r="AN84" s="11"/>
+    </row>
+    <row r="85" spans="2:40">
+      <c r="B85" s="9"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="62"/>
+      <c r="L85" s="62"/>
+      <c r="M85" s="62"/>
+      <c r="N85" s="62"/>
+      <c r="O85" s="62"/>
+      <c r="P85" s="62"/>
+      <c r="Q85" s="62"/>
+      <c r="R85" s="62"/>
+      <c r="S85" s="62"/>
+      <c r="T85" s="62"/>
+      <c r="U85" s="62"/>
+      <c r="V85" s="62"/>
+      <c r="W85" s="62"/>
+      <c r="X85" s="62"/>
+      <c r="Y85" s="62"/>
+      <c r="Z85" s="62"/>
+      <c r="AA85" s="62"/>
+      <c r="AB85" s="62"/>
+      <c r="AC85" s="10"/>
+      <c r="AD85" s="10"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
+      <c r="AG85" s="10"/>
+      <c r="AH85" s="10"/>
+      <c r="AI85" s="10"/>
+      <c r="AJ85" s="10"/>
+      <c r="AK85" s="10"/>
+      <c r="AL85" s="10"/>
+      <c r="AM85" s="10"/>
+      <c r="AN85" s="11"/>
+    </row>
+    <row r="86" spans="2:40">
+      <c r="B86" s="9"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="62"/>
+      <c r="N86" s="62"/>
+      <c r="O86" s="62"/>
+      <c r="P86" s="62"/>
+      <c r="Q86" s="62"/>
+      <c r="R86" s="62"/>
+      <c r="S86" s="62"/>
+      <c r="T86" s="62"/>
+      <c r="U86" s="62"/>
+      <c r="V86" s="62"/>
+      <c r="W86" s="62"/>
+      <c r="X86" s="62"/>
+      <c r="Y86" s="62"/>
+      <c r="Z86" s="62"/>
+      <c r="AA86" s="62"/>
+      <c r="AB86" s="62"/>
+      <c r="AC86" s="10"/>
+      <c r="AD86" s="10"/>
+      <c r="AE86" s="10"/>
+      <c r="AF86" s="10"/>
+      <c r="AG86" s="10"/>
+      <c r="AH86" s="10"/>
+      <c r="AI86" s="10"/>
+      <c r="AJ86" s="10"/>
+      <c r="AK86" s="10"/>
+      <c r="AL86" s="10"/>
+      <c r="AM86" s="10"/>
+      <c r="AN86" s="11"/>
+    </row>
+    <row r="87" spans="2:40">
+      <c r="B87" s="9"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="62"/>
+      <c r="O87" s="62"/>
+      <c r="P87" s="62"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="62"/>
+      <c r="S87" s="62"/>
+      <c r="T87" s="62"/>
+      <c r="U87" s="62"/>
+      <c r="V87" s="62"/>
+      <c r="W87" s="62"/>
+      <c r="X87" s="62"/>
+      <c r="Y87" s="62"/>
+      <c r="Z87" s="62"/>
+      <c r="AA87" s="62"/>
+      <c r="AB87" s="62"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="10"/>
+      <c r="AH87" s="10"/>
+      <c r="AI87" s="10"/>
+      <c r="AJ87" s="10"/>
+      <c r="AK87" s="10"/>
+      <c r="AL87" s="10"/>
+      <c r="AM87" s="10"/>
+      <c r="AN87" s="11"/>
+    </row>
+    <row r="88" spans="2:40">
+      <c r="B88" s="9"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+      <c r="AA88" s="10"/>
+      <c r="AB88" s="10"/>
+      <c r="AC88" s="10"/>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="10"/>
+      <c r="AF88" s="10"/>
+      <c r="AG88" s="10"/>
+      <c r="AH88" s="10"/>
+      <c r="AI88" s="10"/>
+      <c r="AJ88" s="10"/>
+      <c r="AK88" s="10"/>
+      <c r="AL88" s="10"/>
+      <c r="AM88" s="10"/>
+      <c r="AN88" s="11"/>
+    </row>
+    <row r="89" spans="2:40">
+      <c r="B89" s="9"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+      <c r="Z89" s="10"/>
+      <c r="AA89" s="10"/>
+      <c r="AB89" s="10"/>
+      <c r="AC89" s="10"/>
+      <c r="AD89" s="10"/>
+      <c r="AE89" s="10"/>
+      <c r="AF89" s="10"/>
+      <c r="AG89" s="10"/>
+      <c r="AH89" s="10"/>
+      <c r="AI89" s="10"/>
+      <c r="AJ89" s="10"/>
+      <c r="AK89" s="10"/>
+      <c r="AL89" s="10"/>
+      <c r="AM89" s="10"/>
+      <c r="AN89" s="11"/>
+    </row>
+    <row r="90" spans="2:40">
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
+      <c r="X90" s="13"/>
+      <c r="Y90" s="13"/>
+      <c r="Z90" s="13"/>
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13"/>
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="13"/>
+      <c r="AG90" s="13"/>
+      <c r="AH90" s="13"/>
+      <c r="AI90" s="13"/>
+      <c r="AJ90" s="13"/>
+      <c r="AK90" s="13"/>
+      <c r="AL90" s="13"/>
+      <c r="AM90" s="13"/>
+      <c r="AN90" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="E48:AB49"/>
+    <mergeCell ref="E61:AB70"/>
+    <mergeCell ref="E78:AB87"/>
+    <mergeCell ref="E29:U30"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="D15:S15"/>
     <mergeCell ref="D16:S16"/>
     <mergeCell ref="D23:S23"/>
     <mergeCell ref="E26:T26"/>
+    <mergeCell ref="E38:AB40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{E06F8FEA-206A-41F6-8581-80D3B3B10E70}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{F1139027-1A2E-4F26-9CBA-0A2B73B4E4D6}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{CF7AA9DB-F530-4389-8875-49F49823A699}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{92DDE1D9-FF1D-4219-8A46-EA2CEC4DAB58}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -14858,7 +17036,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="49"/>
     </row>
@@ -14987,21 +17165,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -15041,12 +17219,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -15086,12 +17264,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -15131,12 +17309,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -15176,12 +17354,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -15217,7 +17395,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -15256,7 +17434,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -15333,7 +17511,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -15376,7 +17554,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
@@ -15419,7 +17597,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -15544,7 +17722,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -15628,7 +17806,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -15712,7 +17890,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="56"/>
       <c r="E23" s="57"/>
@@ -15838,7 +18016,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="57"/>
@@ -15921,10 +18099,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -15967,7 +18145,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -16051,7 +18229,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -16135,7 +18313,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -16260,7 +18438,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -16344,7 +18522,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -16428,7 +18606,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -16512,7 +18690,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -16596,7 +18774,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -16680,7 +18858,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -16764,7 +18942,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CE1052-33F8-47DB-97C7-53EB695C18F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F575E3-BC4F-46BB-9CFE-9400C4959DC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20268" yWindow="0" windowWidth="20616" windowHeight="22896" tabRatio="878" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20268" yWindow="0" windowWidth="23196" windowHeight="22896" tabRatio="878" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="php 変数" sheetId="9" r:id="rId8"/>
     <sheet name="php while" sheetId="10" r:id="rId9"/>
     <sheet name="php date" sheetId="11" r:id="rId10"/>
-    <sheet name="xxxtemplate" sheetId="3" r:id="rId11"/>
+    <sheet name="php array" sheetId="12" r:id="rId11"/>
+    <sheet name="xxxtemplate" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="286">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -97,9 +98,6 @@
   </si>
   <si>
     <t>php date</t>
-  </si>
-  <si>
-    <t>php array</t>
   </si>
   <si>
     <t>str_replace</t>
@@ -3314,74 +3312,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PHPには日付や時刻を見やすく加工するdateという関数があります。
-2018/08/01,2018-08-01,2018年08月01日といった様にdateは日付の表示形式を自由に変えたりできます。date関数を使って日付や曜日の取得、日付の比較をする方法をサンプルコードを複数使って初心者にも分かり易く解説します。</t>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カコウ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ジユウ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ヨウビ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="142" eb="145">
-      <t>ショシンシャ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>カイセツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>UNIX TIMESTAMP</t>
     </r>
@@ -3416,6 +3346,78 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php array</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPには日付や時刻を見やすく加工するdateという関数があります。
+2018-08-01といった様にdateは日付の表示形式を自由に変えたりできます。date関数を使って日付や曜日の取得、日付の比較をする方法をサンプルコードを複数使って初心者にも分かり易く解説します。</t>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>カイセツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4764,7 +4766,7 @@
   <dimension ref="B2:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
@@ -4776,7 +4778,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -4787,7 +4789,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -4798,7 +4800,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -4830,19 +4832,19 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -4864,7 +4866,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -4875,7 +4877,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -4896,22 +4898,22 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="1" t="s">
-        <v>263</v>
+      <c r="B13" s="93" t="s">
+        <v>284</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>1</v>
+      <c r="B14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
@@ -4919,7 +4921,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>1</v>
@@ -4930,7 +4932,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>1</v>
@@ -4941,7 +4943,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>1</v>
@@ -4952,7 +4954,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>1</v>
@@ -4963,7 +4965,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>1</v>
@@ -4974,7 +4976,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>1</v>
@@ -4985,7 +4987,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>1</v>
@@ -4996,7 +4998,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>1</v>
@@ -5007,7 +5009,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>1</v>
@@ -5018,7 +5020,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="53" t="s">
         <v>1</v>
@@ -5029,7 +5031,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>1</v>
@@ -5040,7 +5042,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>1</v>
@@ -5051,7 +5053,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>1</v>
@@ -5062,7 +5064,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>1</v>
@@ -5073,7 +5075,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="53" t="s">
         <v>1</v>
@@ -5084,7 +5086,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="53" t="s">
         <v>1</v>
@@ -5095,7 +5097,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>1</v>
@@ -5106,7 +5108,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>1</v>
@@ -5117,7 +5119,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>1</v>
@@ -5128,7 +5130,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>1</v>
@@ -5139,7 +5141,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="53" t="s">
         <v>1</v>
@@ -5150,7 +5152,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="53" t="s">
         <v>1</v>
@@ -5161,7 +5163,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>1</v>
@@ -5172,7 +5174,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>1</v>
@@ -5183,7 +5185,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>1</v>
@@ -5194,7 +5196,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>1</v>
@@ -5205,7 +5207,7 @@
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>1</v>
@@ -5226,6 +5228,7 @@
     <hyperlink ref="B4" location="file_put_contents!A1" display="file_put_contents" xr:uid="{CCB54366-8EE3-40E4-B597-F91FF6D7720D}"/>
     <hyperlink ref="B3" location="array_key_exists!A1" display="array_key_exists" xr:uid="{B026C4A7-DCE9-4CE9-9083-C41F6A87A1A2}"/>
     <hyperlink ref="B2" location="htmlspecialchar!A1" display="htmlspecialchar" xr:uid="{9FEDCB6F-1D61-4426-AF74-59F4AA74F756}"/>
+    <hyperlink ref="B13" location="'php array'!A1" display="php array" xr:uid="{3A105D62-2D0D-498C-8E9C-97E3E0E2CF53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5233,10 +5236,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888916DB-559E-4A2D-A95A-6EB72F1949C2}">
-  <dimension ref="B2:AN57"/>
+  <dimension ref="B2:AN61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D23" sqref="D23:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
@@ -5289,20 +5292,20 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="92" t="s">
         <v>257</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>258</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -5424,21 +5427,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -5477,21 +5480,21 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="5">
         <v>6600</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -5532,15 +5535,15 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -5577,21 +5580,21 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D9" s="5">
         <v>720</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -5628,19 +5631,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D10" s="5">
         <v>390</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -5673,14 +5676,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D11" s="5">
         <v>170</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5716,14 +5719,14 @@
     <row r="12" spans="2:40">
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" s="6">
         <v>170</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5800,7 +5803,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5843,10 +5846,10 @@
     <row r="15" spans="2:40" ht="152.4" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -5888,10 +5891,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -6015,10 +6018,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -6101,10 +6104,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -6187,10 +6190,10 @@
     <row r="23" spans="2:40" ht="131.4" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="96" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E23" s="97"/>
       <c r="F23" s="97"/>
@@ -6315,10 +6318,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="96" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F26" s="97"/>
       <c r="G26" s="97"/>
@@ -6400,13 +6403,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -6448,10 +6451,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -6535,7 +6538,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="28"/>
       <c r="E31" s="94" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -6578,7 +6581,7 @@
       <c r="C32" s="11"/>
       <c r="D32" s="28"/>
       <c r="E32" s="95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -6661,10 +6664,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="95" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -6747,10 +6750,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="95" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -6874,10 +6877,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -6960,10 +6963,10 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -7087,10 +7090,10 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -7173,10 +7176,10 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -7259,10 +7262,10 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -7303,12 +7306,8 @@
     <row r="49" spans="2:40">
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>282</v>
-      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -7348,8 +7347,12 @@
     <row r="50" spans="2:40">
       <c r="B50" s="9"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="10"/>
+      <c r="D50" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -7389,12 +7392,8 @@
     <row r="51" spans="2:40">
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>282</v>
-      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -7435,10 +7434,10 @@
       <c r="B52" s="9"/>
       <c r="C52" s="11"/>
       <c r="D52" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -7479,12 +7478,8 @@
     <row r="53" spans="2:40">
       <c r="B53" s="9"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>277</v>
-      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -7525,10 +7520,10 @@
       <c r="B54" s="9"/>
       <c r="C54" s="11"/>
       <c r="D54" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -7610,7 +7605,15 @@
     <row r="56" spans="2:40">
       <c r="B56" s="9"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="28"/>
+      <c r="D56" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -7645,45 +7648,209 @@
       <c r="AN56" s="11"/>
     </row>
     <row r="57" spans="2:40">
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="13"/>
-      <c r="AH57" s="13"/>
-      <c r="AI57" s="13"/>
-      <c r="AJ57" s="13"/>
-      <c r="AK57" s="13"/>
-      <c r="AL57" s="13"/>
-      <c r="AM57" s="13"/>
-      <c r="AN57" s="14"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="11"/>
+    </row>
+    <row r="58" spans="2:40">
+      <c r="B58" s="9"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="11"/>
+    </row>
+    <row r="59" spans="2:40">
+      <c r="B59" s="9"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="10"/>
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="11"/>
+    </row>
+    <row r="60" spans="2:40">
+      <c r="B60" s="9"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="28"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="11"/>
+    </row>
+    <row r="61" spans="2:40">
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13"/>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="13"/>
+      <c r="AI61" s="13"/>
+      <c r="AJ61" s="13"/>
+      <c r="AK61" s="13"/>
+      <c r="AL61" s="13"/>
+      <c r="AM61" s="13"/>
+      <c r="AN61" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7706,6 +7873,2064 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6254EE6F-B8D2-4C17-8730-8FF80802E590}">
+  <dimension ref="B2:AN49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:40">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN2" s="65"/>
+    </row>
+    <row r="3" spans="2:40" ht="26.4">
+      <c r="B3" s="9"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="B5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="B6" s="9"/>
+      <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="9"/>
+      <c r="C14" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="2:40" ht="126.45" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="9"/>
+      <c r="C16" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="2:40">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="2:40">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="9"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="2:40">
+      <c r="B21" s="9"/>
+      <c r="C21" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="2:40">
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="2:40" ht="98.55" customHeight="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="9"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="9"/>
+      <c r="C28" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="2:40">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="2:40">
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="2:40">
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="2:40">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="2:40">
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="2:40">
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="2:40">
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="2:40">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="2:40">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="2:40">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="2:40">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="2:40">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="2:40">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="2:40">
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="2:40">
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="11"/>
+    </row>
+    <row r="48" spans="2:40">
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="11"/>
+    </row>
+    <row r="49" spans="2:40">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="13"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
   <dimension ref="B2:AN49"/>
   <sheetViews>
@@ -7763,7 +9988,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -7892,21 +10117,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -7946,12 +10171,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -7991,12 +10216,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -8036,12 +10261,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -8081,12 +10306,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -8122,7 +10347,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -8161,7 +10386,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -8238,7 +10463,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8281,7 +10506,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67"/>
@@ -8324,7 +10549,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -8449,7 +10674,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -8533,7 +10758,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -8617,7 +10842,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
@@ -8743,7 +10968,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="73"/>
@@ -8826,10 +11051,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -8872,7 +11097,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -8956,7 +11181,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -9040,7 +11265,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -9165,7 +11390,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -9249,7 +11474,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9333,7 +11558,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -9417,7 +11642,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -9501,7 +11726,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -9585,7 +11810,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -9669,7 +11894,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -9823,7 +12048,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -9958,21 +12183,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -10017,21 +12242,21 @@
         <v>2900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -10064,19 +12289,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5">
         <v>2900</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -10113,19 +12338,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -10162,19 +12387,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -10207,14 +12432,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5">
         <v>260</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -10250,16 +12475,16 @@
     <row r="12" spans="2:40">
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="6">
         <v>90</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -10336,7 +12561,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -10379,10 +12604,10 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -10424,10 +12649,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -10551,10 +12776,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -10637,10 +12862,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -10723,10 +12948,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -10851,10 +13076,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -10936,13 +13161,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -10984,10 +13209,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -11070,10 +13295,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -11156,10 +13381,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -11202,7 +13427,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
       <c r="E34" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -11285,10 +13510,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -11331,7 +13556,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -11414,10 +13639,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -11500,10 +13725,10 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -11586,10 +13811,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -11672,10 +13897,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -11758,10 +13983,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -11844,10 +14069,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -11928,48 +14153,48 @@
     </row>
     <row r="52" spans="2:40">
       <c r="B52" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="32"/>
     </row>
     <row r="53" spans="2:40">
       <c r="C53" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:40" ht="18.600000000000001">
       <c r="C54" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="3:3" ht="18.600000000000001">
       <c r="C70" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="3:11" ht="18.600000000000001">
       <c r="C104" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="3:11" ht="18.600000000000001">
       <c r="C105" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="3:11" ht="18.600000000000001">
       <c r="C109" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="3:11">
       <c r="C110" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="40"/>
@@ -11982,42 +14207,42 @@
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -12098,14 +14323,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2">
         <v>1600</v>
@@ -12233,21 +14458,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -12286,19 +14511,19 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="5">
         <v>1600</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -12337,21 +14562,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="5">
         <v>1600</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -12391,12 +14616,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -12436,12 +14661,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -12477,7 +14702,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -12516,7 +14741,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -12593,7 +14818,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -12636,10 +14861,10 @@
     <row r="15" spans="2:40" ht="165" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -12681,10 +14906,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -12808,10 +15033,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -12894,10 +15119,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -12980,10 +15205,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -13108,10 +15333,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -13193,13 +15418,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -13241,10 +15466,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -13287,7 +15512,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="37"/>
@@ -13370,10 +15595,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -13456,10 +15681,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -13542,10 +15767,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -13628,10 +15853,10 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -13674,7 +15899,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
       <c r="E39" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -14402,17 +16627,17 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -14537,27 +16762,27 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
       <c r="M6" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -14590,21 +16815,21 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="5">
         <v>1900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -14643,21 +16868,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="5">
         <v>720</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -14694,21 +16919,21 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="5">
         <v>1600</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -14748,12 +16973,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -14789,7 +17014,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -14828,7 +17053,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -14905,7 +17130,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -14948,10 +17173,10 @@
     <row r="15" spans="2:40" ht="153.44999999999999" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -14993,10 +17218,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -15120,10 +17345,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -15206,10 +17431,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -15292,10 +17517,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -15420,10 +17645,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -15505,13 +17730,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -15553,10 +17778,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -15599,7 +17824,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -15642,7 +17867,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="28"/>
       <c r="E31" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -15766,10 +17991,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -15852,10 +18077,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -15898,7 +18123,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -15941,7 +18166,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
       <c r="E38" s="72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F38" s="74"/>
       <c r="G38" s="74"/>
@@ -16229,10 +18454,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -16315,10 +18540,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -16401,10 +18626,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -16487,10 +18712,10 @@
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
       <c r="D51" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -16533,7 +18758,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="28"/>
       <c r="E52" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -16575,10 +18800,10 @@
       <c r="B53" s="9"/>
       <c r="C53" s="11"/>
       <c r="D53" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -16621,7 +18846,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -16735,14 +18960,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -16870,21 +19095,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -16923,21 +19148,21 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="5">
         <v>2900</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -16976,19 +19201,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="5">
         <v>1600</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -17028,12 +19253,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -17073,12 +19298,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -17114,7 +19339,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -17153,7 +19378,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -17230,7 +19455,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -17273,10 +19498,10 @@
     <row r="15" spans="2:40" ht="141.6" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -17318,10 +19543,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -17445,10 +19670,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -17531,10 +19756,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -17617,10 +19842,10 @@
     <row r="23" spans="2:40" ht="115.2" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
@@ -17745,10 +19970,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
@@ -17830,13 +20055,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -17878,10 +20103,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -17924,7 +20149,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
@@ -18007,10 +20232,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -18053,7 +20278,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="28"/>
       <c r="E33" s="76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
@@ -18546,10 +20771,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -18632,10 +20857,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -18718,10 +20943,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -18764,7 +20989,7 @@
       <c r="C50" s="11"/>
       <c r="D50" s="28"/>
       <c r="E50" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -18807,7 +21032,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="28"/>
       <c r="E51" s="78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F51" s="79"/>
       <c r="G51" s="79"/>
@@ -18849,10 +21074,10 @@
       <c r="B52" s="9"/>
       <c r="C52" s="11"/>
       <c r="D52" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="49" t="s">
         <v>159</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>160</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -18895,7 +21120,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="28"/>
       <c r="E53" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -18938,7 +21163,7 @@
       <c r="C54" s="11"/>
       <c r="D54" s="28"/>
       <c r="E54" s="80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F54" s="81"/>
       <c r="G54" s="81"/>
@@ -19062,10 +21287,10 @@
       <c r="B57" s="9"/>
       <c r="C57" s="11"/>
       <c r="D57" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -19148,10 +21373,10 @@
       <c r="B59" s="9"/>
       <c r="C59" s="11"/>
       <c r="D59" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -19194,7 +21419,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="28"/>
       <c r="E60" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -19237,7 +21462,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="28"/>
       <c r="E61" s="78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
@@ -19361,10 +21586,10 @@
       <c r="B64" s="9"/>
       <c r="C64" s="11"/>
       <c r="D64" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -19489,7 +21714,7 @@
       <c r="C67" s="11"/>
       <c r="D67" s="28"/>
       <c r="E67" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -19690,14 +21915,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -19825,21 +22050,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -19882,15 +22107,15 @@
         <v>1300</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -19927,21 +22152,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="5">
         <v>50</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -19978,21 +22203,21 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="5">
         <v>90</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -20029,21 +22254,21 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="5">
         <v>40</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -20079,7 +22304,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -20118,7 +22343,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -20195,7 +22420,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -20238,10 +22463,10 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -20283,7 +22508,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -20408,10 +22633,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -20494,10 +22719,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -20580,10 +22805,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
@@ -20708,10 +22933,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
@@ -20793,13 +23018,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -20842,7 +23067,7 @@
       <c r="C29" s="11"/>
       <c r="D29" s="28"/>
       <c r="E29" s="76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
@@ -20925,10 +23150,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -21011,10 +23236,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -21138,10 +23363,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -21184,7 +23409,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -21227,7 +23452,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
       <c r="E38" s="78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F38" s="79"/>
       <c r="G38" s="79"/>
@@ -21392,10 +23617,10 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -21478,10 +23703,10 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -21564,10 +23789,10 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -21610,7 +23835,7 @@
       <c r="C47" s="11"/>
       <c r="D47" s="28"/>
       <c r="E47" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -21653,7 +23878,7 @@
       <c r="C48" s="11"/>
       <c r="D48" s="28"/>
       <c r="E48" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
@@ -21777,10 +24002,10 @@
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
       <c r="D51" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -21864,7 +24089,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="28"/>
       <c r="E53" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -21947,10 +24172,10 @@
       <c r="B55" s="9"/>
       <c r="C55" s="11"/>
       <c r="D55" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -22074,10 +24299,10 @@
       <c r="B58" s="9"/>
       <c r="C58" s="11"/>
       <c r="D58" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -22161,7 +24386,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="28"/>
       <c r="E60" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -22204,7 +24429,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="28"/>
       <c r="E61" s="78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
@@ -22656,10 +24881,10 @@
       <c r="B72" s="9"/>
       <c r="C72" s="11"/>
       <c r="D72" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -22824,10 +25049,10 @@
       <c r="B76" s="9"/>
       <c r="C76" s="11"/>
       <c r="D76" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -22870,7 +25095,7 @@
       <c r="C77" s="11"/>
       <c r="D77" s="28"/>
       <c r="E77" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
@@ -22913,7 +25138,7 @@
       <c r="C78" s="11"/>
       <c r="D78" s="28"/>
       <c r="E78" s="78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F78" s="79"/>
       <c r="G78" s="79"/>
@@ -23365,10 +25590,10 @@
       <c r="B89" s="9"/>
       <c r="C89" s="11"/>
       <c r="D89" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
@@ -23530,7 +25755,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -23665,21 +25890,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -23724,15 +25949,15 @@
         <v>1300</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -23774,12 +25999,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -23819,12 +26044,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -23864,12 +26089,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -23905,7 +26130,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -23944,7 +26169,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -24021,7 +26246,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -24064,10 +26289,10 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -24109,10 +26334,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -24155,7 +26380,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="90"/>
       <c r="D17" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -24238,10 +26463,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -24324,10 +26549,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -24410,10 +26635,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
@@ -24538,10 +26763,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
@@ -24623,13 +26848,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -24672,7 +26897,7 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -24714,10 +26939,10 @@
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="37"/>
@@ -24800,10 +27025,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -24846,7 +27071,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="28"/>
       <c r="E33" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -24889,7 +27114,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
       <c r="E34" s="78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F34" s="91"/>
       <c r="G34" s="91"/>
@@ -25136,10 +27361,10 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -25261,10 +27486,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -25307,7 +27532,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="28"/>
       <c r="E44" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -25350,7 +27575,7 @@
       <c r="C45" s="11"/>
       <c r="D45" s="28"/>
       <c r="E45" s="78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F45" s="91"/>
       <c r="G45" s="91"/>
@@ -25434,7 +27659,7 @@
       <c r="C47" s="11"/>
       <c r="D47" s="28"/>
       <c r="E47" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -25477,7 +27702,7 @@
       <c r="C48" s="11"/>
       <c r="D48" s="28"/>
       <c r="E48" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -25520,7 +27745,7 @@
       <c r="C49" s="11"/>
       <c r="D49" s="28"/>
       <c r="E49" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -25642,10 +27867,10 @@
       <c r="B52" s="9"/>
       <c r="C52" s="11"/>
       <c r="D52" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -25728,7 +27953,7 @@
       <c r="C54" s="11"/>
       <c r="D54" s="28"/>
       <c r="E54" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -25771,7 +27996,7 @@
       <c r="C55" s="11"/>
       <c r="D55" s="28"/>
       <c r="E55" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -25814,7 +28039,7 @@
       <c r="C56" s="11"/>
       <c r="D56" s="28"/>
       <c r="E56" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F56" s="86"/>
       <c r="G56" s="86"/>
@@ -26061,7 +28286,7 @@
       <c r="C62" s="11"/>
       <c r="D62" s="28"/>
       <c r="E62" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -26104,7 +28329,7 @@
       <c r="C63" s="11"/>
       <c r="D63" s="28"/>
       <c r="E63" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -26147,7 +28372,7 @@
       <c r="C64" s="11"/>
       <c r="D64" s="28"/>
       <c r="E64" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -26190,7 +28415,7 @@
       <c r="C65" s="11"/>
       <c r="D65" s="28"/>
       <c r="E65" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F65" s="86"/>
       <c r="G65" s="86"/>
@@ -26396,7 +28621,7 @@
       <c r="C70" s="11"/>
       <c r="D70" s="28"/>
       <c r="E70" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -26439,7 +28664,7 @@
       <c r="C71" s="11"/>
       <c r="D71" s="28"/>
       <c r="E71" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F71" s="88"/>
       <c r="G71" s="88"/>
@@ -26645,10 +28870,10 @@
       <c r="B76" s="9"/>
       <c r="C76" s="11"/>
       <c r="D76" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -26732,7 +28957,7 @@
       <c r="C78" s="11"/>
       <c r="D78" s="28"/>
       <c r="E78" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
@@ -26775,7 +29000,7 @@
       <c r="C79" s="11"/>
       <c r="D79" s="28"/>
       <c r="E79" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -26818,7 +29043,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="28"/>
       <c r="E80" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F80" s="79"/>
       <c r="G80" s="79"/>
@@ -26984,7 +29209,7 @@
       <c r="C84" s="11"/>
       <c r="D84" s="28"/>
       <c r="E84" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -27027,7 +29252,7 @@
       <c r="C85" s="11"/>
       <c r="D85" s="28"/>
       <c r="E85" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -27070,7 +29295,7 @@
       <c r="C86" s="11"/>
       <c r="D86" s="28"/>
       <c r="E86" s="63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -27113,7 +29338,7 @@
       <c r="C87" s="11"/>
       <c r="D87" s="28"/>
       <c r="E87" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -27156,7 +29381,7 @@
       <c r="C88" s="11"/>
       <c r="D88" s="28"/>
       <c r="E88" s="63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -27239,10 +29464,10 @@
       <c r="B90" s="9"/>
       <c r="C90" s="11"/>
       <c r="D90" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
@@ -27325,10 +29550,10 @@
       <c r="B92" s="9"/>
       <c r="C92" s="11"/>
       <c r="D92" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
@@ -27371,7 +29596,7 @@
       <c r="C93" s="11"/>
       <c r="D93" s="28"/>
       <c r="E93" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
@@ -27414,7 +29639,7 @@
       <c r="C94" s="11"/>
       <c r="D94" s="28"/>
       <c r="E94" s="78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F94" s="79"/>
       <c r="G94" s="79"/>
@@ -27784,10 +30009,10 @@
       <c r="B103" s="9"/>
       <c r="C103" s="11"/>
       <c r="D103" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -27830,7 +30055,7 @@
       <c r="C104" s="11"/>
       <c r="D104" s="28"/>
       <c r="E104" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -27914,7 +30139,7 @@
       <c r="C106" s="11"/>
       <c r="D106" s="28"/>
       <c r="E106" s="63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -27998,7 +30223,7 @@
       <c r="C108" s="11"/>
       <c r="D108" s="28"/>
       <c r="E108" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
@@ -28041,7 +30266,7 @@
       <c r="C109" s="11"/>
       <c r="D109" s="28"/>
       <c r="E109" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
@@ -28084,7 +30309,7 @@
       <c r="C110" s="11"/>
       <c r="D110" s="28"/>
       <c r="E110" s="85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F110" s="86"/>
       <c r="G110" s="86"/>
@@ -28413,10 +30638,10 @@
       <c r="B118" s="9"/>
       <c r="C118" s="11"/>
       <c r="D118" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
@@ -28459,7 +30684,7 @@
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
@@ -28540,7 +30765,7 @@
     </row>
     <row r="124" spans="2:40">
       <c r="C124" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -28630,14 +30855,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -28765,21 +30990,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -28816,19 +31041,19 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="5">
         <v>1300</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -28865,19 +31090,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="5">
         <v>590</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -28914,19 +31139,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="5">
         <v>320</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -28963,19 +31188,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" s="5">
         <v>140</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -29008,14 +31233,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="5">
         <v>170</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -29054,7 +31279,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -29131,7 +31356,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -29174,7 +31399,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67"/>
@@ -29217,7 +31442,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -29342,7 +31567,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -29426,7 +31651,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -29510,7 +31735,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
@@ -29636,7 +31861,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="73"/>
@@ -29719,10 +31944,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -29765,7 +31990,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -29849,7 +32074,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -29933,7 +32158,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -30058,7 +32283,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -30142,7 +32367,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -30226,7 +32451,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -30310,7 +32535,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -30394,7 +32619,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -30478,7 +32703,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -30562,7 +32787,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -30714,14 +32939,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -30849,21 +33074,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -30900,19 +33125,19 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" s="5">
         <v>1000</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -30949,19 +33174,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D8" s="5">
         <v>210</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -30998,19 +33223,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D9" s="5">
         <v>110</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -31047,19 +33272,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D10" s="5">
         <v>70</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -31095,7 +33320,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -31134,7 +33359,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -31211,7 +33436,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -31254,7 +33479,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67"/>
@@ -31297,7 +33522,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -31422,7 +33647,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -31506,7 +33731,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -31590,7 +33815,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
@@ -31716,7 +33941,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="73"/>
@@ -31799,10 +34024,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -31845,7 +34070,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -31929,7 +34154,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -32013,7 +34238,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -32138,7 +34363,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -32222,7 +34447,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -32306,7 +34531,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -32390,7 +34615,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -32474,7 +34699,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -32558,7 +34783,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -32642,7 +34867,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F575E3-BC4F-46BB-9CFE-9400C4959DC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963AFF44-8AF3-45AD-BBFA-3B7538A92592}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20268" yWindow="0" windowWidth="23196" windowHeight="22896" tabRatio="878" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20268" yWindow="0" windowWidth="23196" windowHeight="22896" tabRatio="878" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="326">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>php date</t>
+  </si>
+  <si>
+    <t>php array</t>
   </si>
   <si>
     <t>str_replace</t>
@@ -1121,10 +1124,6 @@
     <rPh sb="8" eb="10">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>php 変数</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3419,6 +3418,234 @@
     <rPh sb="129" eb="131">
       <t>カイセツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php array</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP の配列は、実際には順番付けられたマップです。マップは型の一種で、 値をキーに関連付けます。 この型は、さまざまな使い道にあわせて最適化されます。 配列としてだけでなく、リスト (ベクター)、 ハッシュテーブル (マップの実装の一つ)、辞書、コレクション、スタック、 キュー等として使用することが可能です。 PHP の配列には他の PHP 配列を値として保持することができるため、 非常に簡単にツリー構造を表現することが可能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrayの構文</t>
+    <rPh sb="6" eb="8">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】配列(array)の使い方をわかりやすく解説｜フライテック</t>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】配列(array)の使い方をわかりやすく解説</t>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列とはデータの塊の事です。
+1つの変数の中に、複数の値を入れることが出来ます。
+例えば、LINEの友達を変数に入れるとなると、友達の数だけ変数を作らないといけないので、管理するだけでも大変です。
+なので複数データがある場合は、1つの変数だけで複数のデータが入れれる配列を使った方が便利なのです。
+ここでは初心者でもわかりやすいサンプルコード付きで丁寧に配列(array)について解説していきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列とはデータの塊の事です。
+1つの変数の中に、複数の値を入れることが出来ます。
+なので複数データがある場合は、1つの変数だけで複数のデータが入れれる配列を使った方が便利です。
+ここでは初心者でもわかりやすいサンプルコード付きで丁寧に配列(array)について解説していきます。</t>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="94" eb="97">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>テイネイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列の使い方</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添字配列の使い方</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連想配列の使い方</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーを指定する例</t>
+    <rPh sb="7" eb="8">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部分的にキーを指定する例</t>
+    <rPh sb="0" eb="3">
+      <t>ブブンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$array = array('バナナ', 'apple'=&gt;'りんご', 'peach'=&gt;'もも', 'pear'=&gt;'なし', 'みかん');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$array = array('apple'=&gt;'りんご', 'peach'=&gt;'もも', 'pear'=&gt;'なし');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列を結合する方法</t>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列を追加する方法</t>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列の値を置換する方法</t>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 配列の値を検索する方法</t>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>array php</t>
+  </si>
+  <si>
+    <t>php in_array</t>
+  </si>
+  <si>
+    <t>php array_merge</t>
+  </si>
+  <si>
+    <t>php array_search</t>
+  </si>
+  <si>
+    <t>php array_map</t>
+  </si>
+  <si>
+    <t>php array 追加</t>
+  </si>
+  <si>
+    <t>php array_push</t>
+  </si>
+  <si>
+    <t>php array_key_exists</t>
+  </si>
+  <si>
+    <t>php array_filter</t>
+  </si>
+  <si>
+    <t>php array_column</t>
+  </si>
+  <si>
+    <t>php array_shift</t>
+  </si>
+  <si>
+    <t>php arrayobject</t>
+  </si>
+  <si>
+    <t>arrayobject php</t>
+  </si>
+  <si>
+    <t>php array count</t>
+  </si>
+  <si>
+    <t>array string php</t>
+  </si>
+  <si>
+    <t>php arraycount</t>
+  </si>
+  <si>
+    <t>php arraymap</t>
+  </si>
+  <si>
+    <t>php array json</t>
+  </si>
+  <si>
+    <t>php array初期化</t>
+  </si>
+  <si>
+    <t>array key exists php</t>
+  </si>
+  <si>
+    <t>php array 追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000～3500</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4763,11 +4990,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D41"/>
+  <dimension ref="B2:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
@@ -4778,7 +5003,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -4789,7 +5014,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -4800,7 +5025,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="93" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -4921,7 +5146,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>1</v>
@@ -4932,7 +5157,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>1</v>
@@ -4943,7 +5168,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>1</v>
@@ -4954,7 +5179,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>1</v>
@@ -4965,7 +5190,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>1</v>
@@ -4976,7 +5201,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>1</v>
@@ -4987,7 +5212,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>1</v>
@@ -4998,7 +5223,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>1</v>
@@ -5009,7 +5234,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>1</v>
@@ -5020,7 +5245,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="53" t="s">
         <v>1</v>
@@ -5031,7 +5256,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>1</v>
@@ -5042,7 +5267,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>1</v>
@@ -5053,7 +5278,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>1</v>
@@ -5064,7 +5289,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>1</v>
@@ -5075,7 +5300,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" s="53" t="s">
         <v>1</v>
@@ -5086,7 +5311,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="53" t="s">
         <v>1</v>
@@ -5097,7 +5322,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>1</v>
@@ -5108,7 +5333,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>1</v>
@@ -5119,7 +5344,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>1</v>
@@ -5130,7 +5355,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>1</v>
@@ -5141,7 +5366,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="53" t="s">
         <v>1</v>
@@ -5152,7 +5377,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="53" t="s">
         <v>1</v>
@@ -5163,7 +5388,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>1</v>
@@ -5174,7 +5399,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="53" t="s">
         <v>1</v>
@@ -5185,7 +5410,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>1</v>
@@ -5196,7 +5421,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>1</v>
@@ -5206,13 +5431,233 @@
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>1</v>
+      <c r="B41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3600</v>
       </c>
       <c r="D41" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3600</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2900</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1600</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="4">
+        <v>880</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C46" s="4">
+        <v>720</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C47" s="4">
+        <v>720</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="4">
+        <v>720</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C49" s="4">
+        <v>590</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C50" s="4">
+        <v>590</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C51" s="4">
+        <v>480</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" s="4">
+        <v>320</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" s="4">
+        <v>320</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" s="4">
+        <v>320</v>
+      </c>
+      <c r="D54" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="4">
+        <v>320</v>
+      </c>
+      <c r="D55" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" s="18">
+        <v>480</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C57" s="18">
+        <v>320</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C58" s="18">
+        <v>320</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C59" s="18">
+        <v>210</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C60" s="18">
+        <v>170</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" s="18">
+        <v>140</v>
+      </c>
+      <c r="D61" s="53" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5236,10 +5681,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888916DB-559E-4A2D-A95A-6EB72F1949C2}">
-  <dimension ref="B2:AN61"/>
+  <dimension ref="B2:AN57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:S23"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
@@ -5292,7 +5737,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -5427,21 +5872,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -5489,12 +5934,12 @@
         <v>264</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -5538,12 +5983,12 @@
         <v>265</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -5589,12 +6034,12 @@
         <v>267</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -5638,12 +6083,12 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -5683,7 +6128,7 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -5726,7 +6171,7 @@
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -5803,7 +6248,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -5846,7 +6291,7 @@
     <row r="15" spans="2:40" ht="152.4" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>266</v>
@@ -5891,7 +6336,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="69" t="s">
         <v>264</v>
@@ -6018,7 +6463,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>268</v>
@@ -6104,7 +6549,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>268</v>
@@ -6190,7 +6635,7 @@
     <row r="23" spans="2:40" ht="131.4" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="96" t="s">
         <v>285</v>
@@ -6318,7 +6763,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="96" t="s">
         <v>278</v>
@@ -6403,10 +6848,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>269</v>
@@ -6451,7 +6896,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>270</v>
@@ -6664,7 +7109,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="95" t="s">
         <v>282</v>
@@ -6750,7 +7195,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="95" t="s">
         <v>283</v>
@@ -6877,7 +7322,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>273</v>
@@ -6963,7 +7408,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>274</v>
@@ -7090,7 +7535,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>275</v>
@@ -7176,7 +7621,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>281</v>
@@ -7262,7 +7707,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>280</v>
@@ -7351,7 +7796,7 @@
         <v>52</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -7434,10 +7879,10 @@
       <c r="B52" s="9"/>
       <c r="C52" s="11"/>
       <c r="D52" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -7520,10 +7965,10 @@
       <c r="B54" s="9"/>
       <c r="C54" s="11"/>
       <c r="D54" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -7605,15 +8050,7 @@
     <row r="56" spans="2:40">
       <c r="B56" s="9"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="D56" s="28"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -7648,209 +8085,45 @@
       <c r="AN56" s="11"/>
     </row>
     <row r="57" spans="2:40">
-      <c r="B57" s="9"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
-      <c r="AD57" s="10"/>
-      <c r="AE57" s="10"/>
-      <c r="AF57" s="10"/>
-      <c r="AG57" s="10"/>
-      <c r="AH57" s="10"/>
-      <c r="AI57" s="10"/>
-      <c r="AJ57" s="10"/>
-      <c r="AK57" s="10"/>
-      <c r="AL57" s="10"/>
-      <c r="AM57" s="10"/>
-      <c r="AN57" s="11"/>
-    </row>
-    <row r="58" spans="2:40">
-      <c r="B58" s="9"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
-      <c r="AL58" s="10"/>
-      <c r="AM58" s="10"/>
-      <c r="AN58" s="11"/>
-    </row>
-    <row r="59" spans="2:40">
-      <c r="B59" s="9"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="10"/>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="10"/>
-      <c r="AG59" s="10"/>
-      <c r="AH59" s="10"/>
-      <c r="AI59" s="10"/>
-      <c r="AJ59" s="10"/>
-      <c r="AK59" s="10"/>
-      <c r="AL59" s="10"/>
-      <c r="AM59" s="10"/>
-      <c r="AN59" s="11"/>
-    </row>
-    <row r="60" spans="2:40">
-      <c r="B60" s="9"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="28"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
-      <c r="AG60" s="10"/>
-      <c r="AH60" s="10"/>
-      <c r="AI60" s="10"/>
-      <c r="AJ60" s="10"/>
-      <c r="AK60" s="10"/>
-      <c r="AL60" s="10"/>
-      <c r="AM60" s="10"/>
-      <c r="AN60" s="11"/>
-    </row>
-    <row r="61" spans="2:40">
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="13"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="13"/>
-      <c r="AG61" s="13"/>
-      <c r="AH61" s="13"/>
-      <c r="AI61" s="13"/>
-      <c r="AJ61" s="13"/>
-      <c r="AK61" s="13"/>
-      <c r="AL61" s="13"/>
-      <c r="AM61" s="13"/>
-      <c r="AN61" s="14"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="13"/>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="13"/>
+      <c r="AH57" s="13"/>
+      <c r="AI57" s="13"/>
+      <c r="AJ57" s="13"/>
+      <c r="AK57" s="13"/>
+      <c r="AL57" s="13"/>
+      <c r="AM57" s="13"/>
+      <c r="AN57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7874,11 +8147,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6254EE6F-B8D2-4C17-8730-8FF80802E590}">
-  <dimension ref="B2:AN49"/>
+  <dimension ref="B2:AN54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -7888,7 +8159,9 @@
     <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
     <col min="6" max="12" width="3.296875" style="3"/>
     <col min="13" max="13" width="5.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="3.296875" style="3"/>
+    <col min="14" max="21" width="3.296875" style="3"/>
+    <col min="22" max="22" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="3.296875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:40">
@@ -7930,15 +8203,21 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>257</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -8059,26 +8338,28 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
-      <c r="M6" s="20"/>
+      <c r="M6" s="20">
+        <v>3000</v>
+      </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -8109,21 +8390,27 @@
     </row>
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3600</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
-      <c r="M7" s="20"/>
+      <c r="M7" s="20" t="s">
+        <v>325</v>
+      </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -8154,16 +8441,20 @@
     </row>
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="5">
+        <v>720</v>
+      </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -8203,12 +8494,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -8248,12 +8539,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -8289,7 +8580,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -8328,7 +8619,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -8405,7 +8696,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8448,9 +8739,11 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="66"/>
+        <v>60</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>287</v>
+      </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
@@ -8491,7 +8784,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -8616,9 +8909,11 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>290</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -8700,9 +8995,11 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>289</v>
+      </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -8781,27 +9078,29 @@
       <c r="AM22" s="10"/>
       <c r="AN22" s="11"/>
     </row>
-    <row r="23" spans="2:40" ht="98.55" customHeight="1">
+    <row r="23" spans="2:40" ht="178.8" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
+        <v>51</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -8906,28 +9205,30 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="11"/>
     </row>
-    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+    <row r="26" spans="2:40" ht="179.4" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
+        <v>101</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -8993,12 +9294,14 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>288</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -9038,9 +9341,7 @@
     <row r="29" spans="2:40">
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="D29" s="28"/>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -9125,7 +9426,9 @@
       <c r="D31" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>293</v>
+      </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -9207,9 +9510,11 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -9332,9 +9637,11 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -9415,10 +9722,10 @@
     <row r="38" spans="2:40">
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="10"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -9459,7 +9766,9 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="10"/>
+      <c r="E39" s="34" t="s">
+        <v>78</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -9499,10 +9808,10 @@
     <row r="40" spans="2:40">
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="10"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -9583,10 +9892,10 @@
     <row r="42" spans="2:40">
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="10"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="10" t="s">
+        <v>297</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -9627,7 +9936,9 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="10"/>
+      <c r="E43" s="34" t="s">
+        <v>78</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -9667,10 +9978,10 @@
     <row r="44" spans="2:40">
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="10"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="10" t="s">
+        <v>298</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -9752,9 +10063,11 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>300</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -9836,9 +10149,11 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>301</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -9876,45 +10191,258 @@
       <c r="AN48" s="11"/>
     </row>
     <row r="49" spans="2:40">
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
-      <c r="AN49" s="14"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="11"/>
+    </row>
+    <row r="50" spans="2:40">
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="11"/>
+    </row>
+    <row r="51" spans="2:40">
+      <c r="B51" s="9"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="11"/>
+    </row>
+    <row r="52" spans="2:40">
+      <c r="B52" s="9"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="11"/>
+    </row>
+    <row r="53" spans="2:40">
+      <c r="B53" s="9"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="11"/>
+    </row>
+    <row r="54" spans="2:40">
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="13"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="13"/>
+      <c r="AL54" s="13"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9988,7 +10516,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -10117,21 +10645,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -10171,12 +10699,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -10216,12 +10744,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -10261,12 +10789,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -10306,12 +10834,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -10347,7 +10875,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -10386,7 +10914,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -10463,7 +10991,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -10506,7 +11034,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67"/>
@@ -10549,7 +11077,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -10674,7 +11202,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -10758,7 +11286,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -10842,7 +11370,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
@@ -10968,7 +11496,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="73"/>
@@ -11051,10 +11579,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -11097,7 +11625,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -11181,7 +11709,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -11265,7 +11793,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -11390,7 +11918,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -11474,7 +12002,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -11558,7 +12086,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -11642,7 +12170,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -11726,7 +12254,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -11810,7 +12338,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -11894,7 +12422,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -12048,7 +12576,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -12183,21 +12711,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -12242,21 +12770,21 @@
         <v>2900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -12289,19 +12817,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5">
         <v>2900</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -12338,19 +12866,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -12387,19 +12915,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -12432,14 +12960,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5">
         <v>260</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -12475,16 +13003,16 @@
     <row r="12" spans="2:40">
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6">
         <v>90</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -12561,7 +13089,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -12604,10 +13132,10 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -12649,10 +13177,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="69" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>60</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -12776,10 +13304,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -12862,10 +13390,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -12948,10 +13476,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -13076,10 +13604,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -13161,13 +13689,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -13209,10 +13737,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -13295,10 +13823,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -13381,10 +13909,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -13427,7 +13955,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
       <c r="E34" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -13510,10 +14038,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -13556,7 +14084,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -13639,10 +14167,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -13725,10 +14253,10 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -13811,10 +14339,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -13897,10 +14425,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -13983,10 +14511,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -14069,10 +14597,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -14153,48 +14681,48 @@
     </row>
     <row r="52" spans="2:40">
       <c r="B52" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="32"/>
     </row>
     <row r="53" spans="2:40">
       <c r="C53" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:40" ht="18.600000000000001">
       <c r="C54" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="3:3" ht="18.600000000000001">
       <c r="C70" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="3:11" ht="18.600000000000001">
       <c r="C104" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="3:11" ht="18.600000000000001">
       <c r="C105" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="3:11" ht="18.600000000000001">
       <c r="C109" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="3:11">
       <c r="C110" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="40"/>
@@ -14207,42 +14735,42 @@
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -14323,14 +14851,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2">
         <v>1600</v>
@@ -14458,21 +14986,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -14511,19 +15039,19 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="5">
         <v>1600</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -14562,21 +15090,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="5">
         <v>1600</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -14616,12 +15144,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -14661,12 +15189,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -14702,7 +15230,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -14741,7 +15269,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -14818,7 +15346,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -14861,10 +15389,10 @@
     <row r="15" spans="2:40" ht="165" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -14906,10 +15434,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -15033,10 +15561,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -15119,10 +15647,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -15205,10 +15733,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -15333,10 +15861,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -15418,13 +15946,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -15466,10 +15994,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -15512,7 +16040,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="37"/>
@@ -15595,10 +16123,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -15681,7 +16209,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>148</v>
@@ -15767,10 +16295,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -15853,10 +16381,10 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -15899,7 +16427,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
       <c r="E39" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -16627,17 +17155,17 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -16762,27 +17290,27 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
       <c r="M6" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -16815,21 +17343,21 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="5">
         <v>1900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -16868,21 +17396,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" s="5">
         <v>720</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -16919,21 +17447,21 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="5">
         <v>1600</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -16973,12 +17501,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -17014,7 +17542,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -17053,7 +17581,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -17130,7 +17658,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -17173,10 +17701,10 @@
     <row r="15" spans="2:40" ht="153.44999999999999" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -17218,10 +17746,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -17345,10 +17873,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -17431,10 +17959,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -17517,10 +18045,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -17645,10 +18173,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -17730,13 +18258,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -17778,10 +18306,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -17824,7 +18352,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -17867,7 +18395,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="28"/>
       <c r="E31" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -17991,10 +18519,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -18077,10 +18605,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -18123,7 +18651,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -18166,7 +18694,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
       <c r="E38" s="72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F38" s="74"/>
       <c r="G38" s="74"/>
@@ -18454,10 +18982,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -18540,10 +19068,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -18626,10 +19154,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -18712,10 +19240,10 @@
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
       <c r="D51" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -18758,7 +19286,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="28"/>
       <c r="E52" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -18800,10 +19328,10 @@
       <c r="B53" s="9"/>
       <c r="C53" s="11"/>
       <c r="D53" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -18846,7 +19374,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -18960,7 +19488,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -19095,21 +19623,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -19157,12 +19685,12 @@
         <v>165</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -19208,12 +19736,12 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -19253,12 +19781,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -19298,12 +19826,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -19339,7 +19867,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -19378,7 +19906,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -19455,7 +19983,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -19498,7 +20026,7 @@
     <row r="15" spans="2:40" ht="141.6" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>164</v>
@@ -19543,7 +20071,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="69" t="s">
         <v>146</v>
@@ -19670,7 +20198,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>149</v>
@@ -19756,7 +20284,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>170</v>
@@ -19842,7 +20370,7 @@
     <row r="23" spans="2:40" ht="115.2" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="83" t="s">
         <v>171</v>
@@ -19970,7 +20498,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>168</v>
@@ -20055,10 +20583,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>150</v>
@@ -20103,7 +20631,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>151</v>
@@ -20232,7 +20760,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>154</v>
@@ -20771,7 +21299,7 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>152</v>
@@ -20857,7 +21385,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>156</v>
@@ -20943,7 +21471,7 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>160</v>
@@ -20989,7 +21517,7 @@
       <c r="C50" s="11"/>
       <c r="D50" s="28"/>
       <c r="E50" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -21120,7 +21648,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="28"/>
       <c r="E53" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -21287,7 +21815,7 @@
       <c r="B57" s="9"/>
       <c r="C57" s="11"/>
       <c r="D57" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>153</v>
@@ -21373,7 +21901,7 @@
       <c r="B59" s="9"/>
       <c r="C59" s="11"/>
       <c r="D59" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>156</v>
@@ -21419,7 +21947,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="28"/>
       <c r="E60" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -21586,7 +22114,7 @@
       <c r="B64" s="9"/>
       <c r="C64" s="11"/>
       <c r="D64" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>157</v>
@@ -21915,7 +22443,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -22050,21 +22578,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -22110,12 +22638,12 @@
         <v>175</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -22161,12 +22689,12 @@
         <v>176</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -22212,12 +22740,12 @@
         <v>177</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -22263,12 +22791,12 @@
         <v>175</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -22304,7 +22832,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -22343,7 +22871,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -22420,7 +22948,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -22463,7 +22991,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>201</v>
@@ -22508,7 +23036,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -22633,7 +23161,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>196</v>
@@ -22719,7 +23247,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>197</v>
@@ -22805,7 +23333,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="83" t="s">
         <v>200</v>
@@ -22933,7 +23461,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>199</v>
@@ -23018,10 +23546,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>178</v>
@@ -23150,7 +23678,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>180</v>
@@ -23236,7 +23764,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>179</v>
@@ -23363,7 +23891,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>181</v>
@@ -23409,7 +23937,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -23617,7 +24145,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>186</v>
@@ -23703,7 +24231,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>187</v>
@@ -23789,7 +24317,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>188</v>
@@ -23835,7 +24363,7 @@
       <c r="C47" s="11"/>
       <c r="D47" s="28"/>
       <c r="E47" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -24002,7 +24530,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
       <c r="D51" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>184</v>
@@ -24172,7 +24700,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="11"/>
       <c r="D55" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>183</v>
@@ -24299,7 +24827,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="11"/>
       <c r="D58" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>190</v>
@@ -24386,7 +24914,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="28"/>
       <c r="E60" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -24881,7 +25409,7 @@
       <c r="B72" s="9"/>
       <c r="C72" s="11"/>
       <c r="D72" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>194</v>
@@ -25049,7 +25577,7 @@
       <c r="B76" s="9"/>
       <c r="C76" s="11"/>
       <c r="D76" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>191</v>
@@ -25095,7 +25623,7 @@
       <c r="C77" s="11"/>
       <c r="D77" s="28"/>
       <c r="E77" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
@@ -25590,7 +26118,7 @@
       <c r="B89" s="9"/>
       <c r="C89" s="11"/>
       <c r="D89" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>195</v>
@@ -25755,7 +26283,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -25890,21 +26418,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -25952,12 +26480,12 @@
         <v>202</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -25999,12 +26527,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -26044,12 +26572,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -26089,12 +26617,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -26130,7 +26658,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -26169,7 +26697,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -26246,7 +26774,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -26289,7 +26817,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>203</v>
@@ -26334,7 +26862,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="69" t="s">
         <v>204</v>
@@ -26463,7 +26991,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>205</v>
@@ -26549,7 +27077,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>206</v>
@@ -26635,7 +27163,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="83" t="s">
         <v>207</v>
@@ -26763,7 +27291,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="83" t="s">
         <v>208</v>
@@ -26848,10 +27376,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>209</v>
@@ -26939,7 +27467,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E30" s="58" t="s">
         <v>211</v>
@@ -27025,7 +27553,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>214</v>
@@ -27361,7 +27889,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>215</v>
@@ -27486,7 +28014,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>217</v>
@@ -27867,7 +28395,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="11"/>
       <c r="D52" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>227</v>
@@ -28621,7 +29149,7 @@
       <c r="C70" s="11"/>
       <c r="D70" s="28"/>
       <c r="E70" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -28870,7 +29398,7 @@
       <c r="B76" s="9"/>
       <c r="C76" s="11"/>
       <c r="D76" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>237</v>
@@ -29000,7 +29528,7 @@
       <c r="C79" s="11"/>
       <c r="D79" s="28"/>
       <c r="E79" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -29464,7 +29992,7 @@
       <c r="B90" s="9"/>
       <c r="C90" s="11"/>
       <c r="D90" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>230</v>
@@ -29550,7 +30078,7 @@
       <c r="B92" s="9"/>
       <c r="C92" s="11"/>
       <c r="D92" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>228</v>
@@ -29596,7 +30124,7 @@
       <c r="C93" s="11"/>
       <c r="D93" s="28"/>
       <c r="E93" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
@@ -30009,7 +30537,7 @@
       <c r="B103" s="9"/>
       <c r="C103" s="11"/>
       <c r="D103" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>231</v>
@@ -30638,7 +31166,7 @@
       <c r="B118" s="9"/>
       <c r="C118" s="11"/>
       <c r="D118" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>235</v>
@@ -30855,7 +31383,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -30990,21 +31518,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -31048,12 +31576,12 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -31097,12 +31625,12 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -31146,12 +31674,12 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -31195,12 +31723,12 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -31240,7 +31768,7 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -31279,7 +31807,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -31356,7 +31884,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -31399,7 +31927,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67"/>
@@ -31442,7 +31970,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -31567,7 +32095,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -31651,7 +32179,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -31735,7 +32263,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
@@ -31861,7 +32389,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="73"/>
@@ -31944,10 +32472,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -31990,7 +32518,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -32074,7 +32602,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -32158,7 +32686,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -32283,7 +32811,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -32367,7 +32895,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -32451,7 +32979,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -32535,7 +33063,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -32619,7 +33147,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -32703,7 +33231,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -32787,7 +33315,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -32939,7 +33467,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -33074,21 +33602,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -33132,12 +33660,12 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -33181,12 +33709,12 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -33230,12 +33758,12 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -33279,12 +33807,12 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -33320,7 +33848,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -33359,7 +33887,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -33436,7 +33964,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -33479,7 +34007,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67"/>
@@ -33522,7 +34050,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -33647,7 +34175,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -33731,7 +34259,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -33815,7 +34343,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
@@ -33941,7 +34469,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="73"/>
@@ -34024,10 +34552,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -34070,7 +34598,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -34154,7 +34682,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -34238,7 +34766,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -34363,7 +34891,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -34447,7 +34975,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -34531,7 +35059,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -34615,7 +35143,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -34699,7 +35227,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -34783,7 +35311,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -34867,7 +35395,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963AFF44-8AF3-45AD-BBFA-3B7538A92592}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D276F09-927E-4C4E-88B9-3C6D0465C1FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20268" yWindow="0" windowWidth="23196" windowHeight="22896" tabRatio="878" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20268" yWindow="0" windowWidth="23196" windowHeight="22896" tabRatio="878" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="php while" sheetId="10" r:id="rId9"/>
     <sheet name="php date" sheetId="11" r:id="rId10"/>
     <sheet name="php array" sheetId="12" r:id="rId11"/>
-    <sheet name="xxxtemplate" sheetId="3" r:id="rId12"/>
+    <sheet name="php empty" sheetId="14" r:id="rId12"/>
+    <sheet name="xxxtemplate" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="361">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -124,9 +125,6 @@
     <t>php if</t>
   </si>
   <si>
-    <t>php split</t>
-  </si>
-  <si>
     <t>php empty</t>
   </si>
   <si>
@@ -170,9 +168,6 @@
   </si>
   <si>
     <t>php html</t>
-  </si>
-  <si>
-    <t>php コメントアウト</t>
   </si>
   <si>
     <t>php 三 項 演算 子</t>
@@ -3648,12 +3643,307 @@
     <t>2000～3500</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>php empty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php empty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1500～2000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/ja/function.empty.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>empty — 変数が空であるかどうかを検査する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>empty ( mixed $var ) : bool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emptyの構文</t>
+    <rPh sb="6" eb="8">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emptyの使い方</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/shinichi-takii/items/00aed26f96cf6bb3fe62</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】empty関数を使って変数が空か判定する方法を解説！</t>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】empty関数を使って変数が空か判定する方法を解説！｜フライテック</t>
+    <rPh sb="10" eb="12">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPのempty関数は、変数が空であるかどうかを判定します。
+条件分岐によく使われます。Isset関数やis_nullの違いも解説していきます。初心者でもわかりやすいサンプルコード付き！</t>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPのempty関数は、変数が空であるかどうかを判定します。
+条件分岐によく使われます。
+Isset関数やis_nullの違いも初心者でもわかりやすいサンプルコード付きで解説していきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>$var = 0;
+// $var が空なのでtrueと評価されます
+if (empty($var)) {
+    echo '$var is either 0, empty, or not set at all';
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+  </si>
+  <si>
+    <t>if($var)</t>
+  </si>
+  <si>
+    <t>isset</t>
+  </si>
+  <si>
+    <t>is_null</t>
+  </si>
+  <si>
+    <t>$var=1</t>
+  </si>
+  <si>
+    <t>$var="";</t>
+  </si>
+  <si>
+    <t>$var="0";</t>
+  </si>
+  <si>
+    <t>$var=0;</t>
+  </si>
+  <si>
+    <t>$var=NULL;</t>
+  </si>
+  <si>
+    <t>$var</t>
+  </si>
+  <si>
+    <t>$var=array()</t>
+  </si>
+  <si>
+    <t>$var=array(1)</t>
+  </si>
+  <si>
+    <t>値  empty
+$var=NULL;  TRUE
+$var=1  FALSE
+$var=array()  TRUE
+$var=array(1)  FALSE
+$var="";  TRUE
+$var="0";  TRUE
+$var=0;  TRUE
+$var  TRUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emptyでfalse,trueになる値一覧</t>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;?php
+$expected_array_got_string = 'somestring';
+var_dump(empty($expected_array_got_string['some_key']));
+var_dump(empty($expected_array_got_string[0]));
+var_dump(empty($expected_array_got_string['0']));
+var_dump(empty($expected_array_got_string[0.5]));
+var_dump(empty($expected_array_got_string['0.5']));
+var_dump(empty($expected_array_got_string['0 Mostel']));
+?&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool(false)</t>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>isset</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は変数の存在をチェックするためのオーバーヘッドがあるので、定義済みであると確定している場合は $var !== null によるチェックで済ませるほうが良い。(但し複数同時にチェックする際に簡略化出来る場合を除く)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emptyは変数の存在をチェックするためのオーバーヘッドがあるので、定義済みであると確定している場合は $var によるチェックで済ませるほうが良い。(但しemptyという語のわかりやすさから，配列が空かどうか調べるときには定義済みが確定していてもこれが用いられる場合がある)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is_nullは関数呼び出しのオーバーヘッドがあるので、この用途では使う必要が全くない。</t>
+    </r>
+  </si>
+  <si>
+    <t>isset, empty, is_nullの比較</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3927,8 +4217,37 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3977,8 +4296,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -4168,12 +4505,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4385,6 +4774,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4990,9 +5429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D61"/>
+  <dimension ref="B2:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
@@ -5003,7 +5444,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -5014,7 +5455,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -5025,7 +5466,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -5069,7 +5510,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="93" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -5091,7 +5532,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="93" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -5102,7 +5543,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="93" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -5124,7 +5565,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -5134,33 +5575,33 @@
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="1" t="s">
-        <v>262</v>
+      <c r="B14" s="93" t="s">
+        <v>324</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="52" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>2</v>
@@ -5168,7 +5609,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>1</v>
@@ -5179,7 +5620,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>1</v>
@@ -5190,7 +5631,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>1</v>
@@ -5201,7 +5642,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>1</v>
@@ -5212,7 +5653,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>1</v>
@@ -5223,7 +5664,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>1</v>
@@ -5234,7 +5675,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>1</v>
@@ -5245,7 +5686,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="53" t="s">
         <v>1</v>
@@ -5256,7 +5697,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="53" t="s">
         <v>1</v>
@@ -5267,7 +5708,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="53" t="s">
         <v>1</v>
@@ -5278,7 +5719,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="53" t="s">
         <v>1</v>
@@ -5289,7 +5730,7 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="53" t="s">
         <v>1</v>
@@ -5300,7 +5741,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="53" t="s">
         <v>1</v>
@@ -5311,7 +5752,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="53" t="s">
         <v>1</v>
@@ -5322,7 +5763,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>1</v>
@@ -5333,7 +5774,7 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>1</v>
@@ -5344,7 +5785,7 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>1</v>
@@ -5355,7 +5796,7 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>1</v>
@@ -5366,7 +5807,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="53" t="s">
         <v>1</v>
@@ -5377,7 +5818,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="53" t="s">
         <v>1</v>
@@ -5388,7 +5829,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="53" t="s">
         <v>1</v>
@@ -5399,10 +5840,10 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="52" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="D38" s="53" t="s">
         <v>2</v>
@@ -5410,7 +5851,7 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="53" t="s">
         <v>1</v>
@@ -5421,7 +5862,7 @@
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>1</v>
@@ -5430,20 +5871,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="4">
-        <v>3600</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="42" spans="2:4">
       <c r="B42" s="4" t="s">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="C42" s="4">
         <v>3600</v>
@@ -5454,10 +5884,10 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C43" s="4">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="D43" s="53" t="s">
         <v>2</v>
@@ -5465,10 +5895,10 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C44" s="4">
-        <v>1600</v>
+        <v>2900</v>
       </c>
       <c r="D44" s="53" t="s">
         <v>2</v>
@@ -5476,10 +5906,10 @@
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C45" s="4">
-        <v>880</v>
+        <v>1600</v>
       </c>
       <c r="D45" s="53" t="s">
         <v>2</v>
@@ -5487,10 +5917,10 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C46" s="4">
-        <v>720</v>
+        <v>880</v>
       </c>
       <c r="D46" s="53" t="s">
         <v>2</v>
@@ -5498,7 +5928,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C47" s="4">
         <v>720</v>
@@ -5509,7 +5939,7 @@
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C48" s="4">
         <v>720</v>
@@ -5520,10 +5950,10 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C49" s="4">
-        <v>590</v>
+        <v>720</v>
       </c>
       <c r="D49" s="53" t="s">
         <v>2</v>
@@ -5531,7 +5961,7 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C50" s="4">
         <v>590</v>
@@ -5542,10 +5972,10 @@
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C51" s="4">
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="D51" s="53" t="s">
         <v>2</v>
@@ -5553,10 +5983,10 @@
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C52" s="4">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="D52" s="53" t="s">
         <v>2</v>
@@ -5564,7 +5994,7 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C53" s="4">
         <v>320</v>
@@ -5575,7 +6005,7 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C54" s="4">
         <v>320</v>
@@ -5586,7 +6016,7 @@
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C55" s="4">
         <v>320</v>
@@ -5596,11 +6026,11 @@
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C56" s="18">
-        <v>480</v>
+      <c r="B56" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" s="4">
+        <v>320</v>
       </c>
       <c r="D56" s="53" t="s">
         <v>2</v>
@@ -5608,10 +6038,10 @@
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C57" s="18">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="D57" s="53" t="s">
         <v>2</v>
@@ -5619,7 +6049,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C58" s="18">
         <v>320</v>
@@ -5630,10 +6060,10 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C59" s="18">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="D59" s="53" t="s">
         <v>2</v>
@@ -5641,10 +6071,10 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C60" s="18">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="D60" s="53" t="s">
         <v>2</v>
@@ -5652,12 +6082,23 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C61" s="18">
+        <v>170</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" s="18">
         <v>140</v>
       </c>
-      <c r="D61" s="53" t="s">
+      <c r="D62" s="53" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5674,6 +6115,7 @@
     <hyperlink ref="B3" location="array_key_exists!A1" display="array_key_exists" xr:uid="{B026C4A7-DCE9-4CE9-9083-C41F6A87A1A2}"/>
     <hyperlink ref="B2" location="htmlspecialchar!A1" display="htmlspecialchar" xr:uid="{9FEDCB6F-1D61-4426-AF74-59F4AA74F756}"/>
     <hyperlink ref="B13" location="'php array'!A1" display="php array" xr:uid="{3A105D62-2D0D-498C-8E9C-97E3E0E2CF53}"/>
+    <hyperlink ref="B14" location="'php empty'!A1" display="php empty" xr:uid="{98CFE730-BF72-4703-B598-4508508C8E11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5737,20 +6179,20 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="92" t="s">
         <v>255</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>257</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -5872,21 +6314,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -5925,21 +6367,21 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D7" s="5">
         <v>6600</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -5980,15 +6422,15 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -6025,21 +6467,21 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D9" s="5">
         <v>720</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -6076,19 +6518,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D10" s="5">
         <v>390</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -6121,14 +6563,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D11" s="5">
         <v>170</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -6164,14 +6606,14 @@
     <row r="12" spans="2:40">
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D12" s="6">
         <v>170</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -6248,7 +6690,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6291,10 +6733,10 @@
     <row r="15" spans="2:40" ht="152.4" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -6336,10 +6778,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -6463,10 +6905,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -6549,10 +6991,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -6635,10 +7077,10 @@
     <row r="23" spans="2:40" ht="131.4" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="96" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E23" s="97"/>
       <c r="F23" s="97"/>
@@ -6763,10 +7205,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="96" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F26" s="97"/>
       <c r="G26" s="97"/>
@@ -6848,13 +7290,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -6896,10 +7338,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -6983,7 +7425,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="28"/>
       <c r="E31" s="94" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -7026,7 +7468,7 @@
       <c r="C32" s="11"/>
       <c r="D32" s="28"/>
       <c r="E32" s="95" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -7109,10 +7551,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" s="95" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -7195,10 +7637,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36" s="95" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -7322,10 +7764,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -7408,10 +7850,10 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -7535,10 +7977,10 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -7621,10 +8063,10 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -7707,10 +8149,10 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -7793,10 +8235,10 @@
       <c r="B50" s="9"/>
       <c r="C50" s="11"/>
       <c r="D50" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -7879,10 +8321,10 @@
       <c r="B52" s="9"/>
       <c r="C52" s="11"/>
       <c r="D52" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -7965,10 +8407,10 @@
       <c r="B54" s="9"/>
       <c r="C54" s="11"/>
       <c r="D54" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -8149,7 +8591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6254EE6F-B8D2-4C17-8730-8FF80802E590}">
   <dimension ref="B2:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -8203,20 +8647,20 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" s="92" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -8338,21 +8782,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -8398,18 +8842,18 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -8442,19 +8886,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D8" s="5">
         <v>720</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -8494,12 +8938,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -8539,12 +8983,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -8580,7 +9024,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -8619,7 +9063,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -8696,7 +9140,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -8739,10 +9183,10 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -8784,7 +9228,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -8909,10 +9353,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -8995,10 +9439,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -9081,10 +9525,10 @@
     <row r="23" spans="2:40" ht="178.8" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="96" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E23" s="97"/>
       <c r="F23" s="97"/>
@@ -9209,10 +9653,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="96" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F26" s="97"/>
       <c r="G26" s="97"/>
@@ -9294,13 +9738,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -9424,10 +9868,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -9510,10 +9954,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -9637,10 +10081,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -9724,7 +10168,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
       <c r="E38" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -9767,7 +10211,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
       <c r="E39" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -9810,7 +10254,7 @@
       <c r="C40" s="11"/>
       <c r="D40" s="28"/>
       <c r="E40" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -9894,7 +10338,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="28"/>
       <c r="E42" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -9937,7 +10381,7 @@
       <c r="C43" s="11"/>
       <c r="D43" s="28"/>
       <c r="E43" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -9980,7 +10424,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="28"/>
       <c r="E44" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -10063,10 +10507,10 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -10149,10 +10593,10 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -10235,10 +10679,10 @@
       <c r="B50" s="9"/>
       <c r="C50" s="11"/>
       <c r="D50" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -10321,10 +10765,10 @@
       <c r="B52" s="9"/>
       <c r="C52" s="11"/>
       <c r="D52" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -10459,11 +10903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
-  <dimension ref="B2:AN49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0404E570-5E21-4B4A-9FFA-E3F8DD405A3B}">
+  <dimension ref="B2:AN79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
@@ -10516,7 +10960,2957 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" s="65"/>
+    </row>
+    <row r="3" spans="2:40" ht="26.4">
+      <c r="B3" s="9"/>
+      <c r="C3" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="B5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="B6" s="9"/>
+      <c r="C6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3600</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20">
+        <v>500</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="9"/>
+      <c r="C14" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="2:40" ht="126.45" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="9"/>
+      <c r="C16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="98" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="2:40">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="2:40">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="9"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="2:40">
+      <c r="B21" s="9"/>
+      <c r="C21" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="2:40">
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="2:40" ht="98.55" customHeight="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="35" t="s">
         <v>49</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="9"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="9"/>
+      <c r="C28" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="2:40" ht="38.4" customHeight="1">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="99" t="s">
+        <v>338</v>
+      </c>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="2:40" ht="38.4" customHeight="1">
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="100"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="2:40" ht="38.4" customHeight="1">
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="2:40">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="2:40">
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="2:40" ht="36" customHeight="1">
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="110" t="s">
+        <v>351</v>
+      </c>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="2:40" ht="36" customHeight="1">
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="2:40" ht="36" customHeight="1">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="2:40" ht="36" customHeight="1">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="2:40">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="109"/>
+      <c r="O42" s="109"/>
+      <c r="P42" s="109"/>
+      <c r="Q42" s="109"/>
+      <c r="R42" s="109"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="109"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="2:40">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="2:40" ht="31.8" customHeight="1">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="110" t="s">
+        <v>353</v>
+      </c>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="2:40" ht="31.8" customHeight="1">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="2:40" ht="31.8" customHeight="1">
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="2:40" ht="31.8" customHeight="1">
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="11"/>
+    </row>
+    <row r="48" spans="2:40">
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="11"/>
+    </row>
+    <row r="49" spans="2:40">
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="11"/>
+    </row>
+    <row r="50" spans="2:40">
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" s="114"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="11"/>
+    </row>
+    <row r="51" spans="2:40">
+      <c r="B51" s="9"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="F51" s="114"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="11"/>
+    </row>
+    <row r="52" spans="2:40">
+      <c r="B52" s="9"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="F52" s="114"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="11"/>
+    </row>
+    <row r="53" spans="2:40">
+      <c r="B53" s="9"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="F53" s="114"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="11"/>
+    </row>
+    <row r="54" spans="2:40">
+      <c r="B54" s="9"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="F54" s="114"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="10"/>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="10"/>
+      <c r="AM54" s="10"/>
+      <c r="AN54" s="11"/>
+    </row>
+    <row r="55" spans="2:40">
+      <c r="B55" s="9"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="113" t="s">
+        <v>354</v>
+      </c>
+      <c r="F55" s="114"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="10"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="11"/>
+    </row>
+    <row r="56" spans="2:40">
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="11"/>
+    </row>
+    <row r="57" spans="2:40">
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="11"/>
+    </row>
+    <row r="58" spans="2:40">
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="11"/>
+    </row>
+    <row r="59" spans="2:40">
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="10"/>
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="11"/>
+    </row>
+    <row r="60" spans="2:40">
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="11"/>
+    </row>
+    <row r="61" spans="2:40">
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10"/>
+      <c r="AJ61" s="10"/>
+      <c r="AK61" s="10"/>
+      <c r="AL61" s="10"/>
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="11"/>
+    </row>
+    <row r="62" spans="2:40">
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="13"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13"/>
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="13"/>
+      <c r="AI62" s="13"/>
+      <c r="AJ62" s="13"/>
+      <c r="AK62" s="13"/>
+      <c r="AL62" s="13"/>
+      <c r="AM62" s="13"/>
+      <c r="AN62" s="14"/>
+    </row>
+    <row r="63" spans="2:40">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10"/>
+      <c r="AJ63" s="10"/>
+      <c r="AK63" s="10"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="10"/>
+    </row>
+    <row r="64" spans="2:40">
+      <c r="B64" s="10"/>
+      <c r="C64" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10"/>
+      <c r="AH64" s="10"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="10"/>
+      <c r="AK64" s="10"/>
+      <c r="AL64" s="10"/>
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="10"/>
+    </row>
+    <row r="65" spans="2:40">
+      <c r="B65" s="10"/>
+      <c r="C65" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="10"/>
+      <c r="AH65" s="10"/>
+      <c r="AI65" s="10"/>
+      <c r="AJ65" s="10"/>
+      <c r="AK65" s="10"/>
+      <c r="AL65" s="10"/>
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="10"/>
+    </row>
+    <row r="66" spans="2:40">
+      <c r="C66" s="115" t="s">
+        <v>356</v>
+      </c>
+      <c r="E66" s="115"/>
+    </row>
+    <row r="67" spans="2:40">
+      <c r="C67" s="115" t="s">
+        <v>357</v>
+      </c>
+      <c r="E67" s="115"/>
+    </row>
+    <row r="68" spans="2:40">
+      <c r="C68" s="115" t="s">
+        <v>358</v>
+      </c>
+      <c r="E68" s="115"/>
+    </row>
+    <row r="70" spans="2:40" ht="18.600000000000001" thickBot="1"/>
+    <row r="71" spans="2:40" ht="45.6" thickBot="1">
+      <c r="C71" s="106" t="s">
+        <v>339</v>
+      </c>
+      <c r="D71" s="101" t="s">
+        <v>340</v>
+      </c>
+      <c r="E71" s="101" t="s">
+        <v>341</v>
+      </c>
+      <c r="F71" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="G71" s="101" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="2:40" ht="18.600000000000001" thickBot="1">
+      <c r="C72" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="D72" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:40" ht="18.600000000000001" thickBot="1">
+      <c r="C73" s="108" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" s="104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:40" ht="18.600000000000001" thickBot="1">
+      <c r="C74" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="D74" s="103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" s="103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:40" ht="18.600000000000001" thickBot="1">
+      <c r="C75" s="108" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" s="104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:40" ht="18.600000000000001" thickBot="1">
+      <c r="C76" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="D76" s="103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" s="102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:40" ht="18.600000000000001" thickBot="1">
+      <c r="C77" s="108" t="s">
+        <v>348</v>
+      </c>
+      <c r="D77" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" s="105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:40" ht="18.600000000000001" thickBot="1">
+      <c r="C78" s="107" t="s">
+        <v>349</v>
+      </c>
+      <c r="D78" s="103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" s="103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:40" ht="18.600000000000001" thickBot="1">
+      <c r="C79" s="108" t="s">
+        <v>350</v>
+      </c>
+      <c r="D79" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E38:T41"/>
+    <mergeCell ref="E44:T47"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
+    <mergeCell ref="E33:T35"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{13614E28-A481-42A4-8600-A4B2BE0095EF}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{BB5BADAF-C06F-4B84-A580-A9622689E96C}"/>
+    <hyperlink ref="C66" r:id="rId3" display="http://www.php.net/manual/ja/function.isset.php" xr:uid="{DDD0A000-70C4-49FE-A263-80F69C3CF83A}"/>
+    <hyperlink ref="C67" r:id="rId4" display="http://www.php.net/manual/ja/function.empty.php" xr:uid="{3DF780C7-B827-4CDB-AB3A-4F2D1F71667B}"/>
+    <hyperlink ref="C68" r:id="rId5" display="http://www.php.net/manual/ja/function.is-null.php" xr:uid="{24455E27-4B70-4B86-9AFF-81E39DBE6614}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
+  <dimension ref="B2:AN49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:40">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="64" t="s">
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -10645,21 +14039,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -10699,12 +14093,12 @@
       <c r="D7" s="5"/>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -10744,12 +14138,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -10789,12 +14183,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -10834,12 +14228,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -10875,7 +14269,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -10914,7 +14308,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -10991,7 +14385,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -11034,7 +14428,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67"/>
@@ -11077,7 +14471,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -11202,7 +14596,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -11286,7 +14680,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -11370,7 +14764,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
@@ -11496,7 +14890,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="73"/>
@@ -11579,10 +14973,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -11625,7 +15019,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -11709,7 +15103,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -11793,7 +15187,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -11918,7 +15312,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -12002,7 +15396,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -12086,7 +15480,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -12170,7 +15564,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -12254,7 +15648,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -12338,7 +15732,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -12422,7 +15816,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -12576,7 +15970,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -12711,21 +16105,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -12770,21 +16164,21 @@
         <v>2900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25"/>
       <c r="M7" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -12817,19 +16211,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5">
         <v>2900</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -12866,19 +16260,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5">
         <v>1000</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -12915,19 +16309,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5">
         <v>1000</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -12960,14 +16354,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5">
         <v>260</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -13003,16 +16397,16 @@
     <row r="12" spans="2:40">
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="6">
         <v>90</v>
       </c>
       <c r="E12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -13089,7 +16483,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -13132,10 +16526,10 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -13177,10 +16571,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -13304,10 +16698,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -13390,10 +16784,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -13476,10 +16870,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -13604,10 +16998,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -13689,13 +17083,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -13737,10 +17131,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -13823,10 +17217,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -13909,10 +17303,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -13955,7 +17349,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
       <c r="E34" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -14038,10 +17432,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -14084,7 +17478,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -14167,10 +17561,10 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -14253,10 +17647,10 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -14339,10 +17733,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -14425,10 +17819,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -14511,10 +17905,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -14597,10 +17991,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -14681,48 +18075,48 @@
     </row>
     <row r="52" spans="2:40">
       <c r="B52" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C52" s="32"/>
     </row>
     <row r="53" spans="2:40">
       <c r="C53" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="2:40" ht="18.600000000000001">
       <c r="C54" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="3:3" ht="18.600000000000001">
       <c r="C70" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="3:11" ht="18.600000000000001">
       <c r="C104" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="3:11" ht="18.600000000000001">
       <c r="C105" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="3:11" ht="18.600000000000001">
       <c r="C109" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="3:11">
       <c r="C110" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="40"/>
@@ -14735,42 +18129,42 @@
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="3:3">
       <c r="C152" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -14851,14 +18245,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <v>1600</v>
@@ -14986,21 +18380,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -15039,19 +18433,19 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="5">
         <v>1600</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -15090,21 +18484,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5">
         <v>1600</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -15144,12 +18538,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -15189,12 +18583,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -15230,7 +18624,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -15269,7 +18663,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -15346,7 +18740,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -15389,10 +18783,10 @@
     <row r="15" spans="2:40" ht="165" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -15434,10 +18828,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -15561,10 +18955,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -15647,10 +19041,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -15733,10 +19127,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -15861,10 +19255,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -15946,13 +19340,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -15994,10 +19388,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -16040,7 +19434,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="37"/>
@@ -16123,10 +19517,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -16209,10 +19603,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -16295,10 +19689,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -16381,10 +19775,10 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -16427,7 +19821,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
       <c r="E39" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -17155,17 +20549,17 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
       <c r="C3" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -17290,27 +20684,27 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="25"/>
       <c r="M6" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -17343,21 +20737,21 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="5">
         <v>1900</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -17396,21 +20790,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="5">
         <v>720</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -17447,21 +20841,21 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="5">
         <v>1600</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -17501,12 +20895,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -17542,7 +20936,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -17581,7 +20975,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -17658,7 +21052,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -17701,10 +21095,10 @@
     <row r="15" spans="2:40" ht="153.44999999999999" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -17746,10 +21140,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -17873,10 +21267,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -17959,10 +21353,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -18045,10 +21439,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -18173,10 +21567,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -18258,13 +21652,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -18306,10 +21700,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -18352,7 +21746,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -18395,7 +21789,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="28"/>
       <c r="E31" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -18519,10 +21913,10 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -18605,10 +21999,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -18651,7 +22045,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -18694,7 +22088,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
       <c r="E38" s="72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38" s="74"/>
       <c r="G38" s="74"/>
@@ -18982,10 +22376,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -19068,10 +22462,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -19154,10 +22548,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -19240,10 +22634,10 @@
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
       <c r="D51" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -19286,7 +22680,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="28"/>
       <c r="E52" s="34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -19328,10 +22722,10 @@
       <c r="B53" s="9"/>
       <c r="C53" s="11"/>
       <c r="D53" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -19374,7 +22768,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -19488,14 +22882,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -19623,21 +23017,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -19676,21 +23070,21 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="5">
         <v>2900</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -19729,19 +23123,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="5">
         <v>1600</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -19781,12 +23175,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -19826,12 +23220,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -19867,7 +23261,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -19906,7 +23300,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -19983,7 +23377,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -20026,10 +23420,10 @@
     <row r="15" spans="2:40" ht="141.6" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -20071,10 +23465,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -20198,10 +23592,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -20284,10 +23678,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -20370,10 +23764,10 @@
     <row r="23" spans="2:40" ht="115.2" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
@@ -20498,10 +23892,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
@@ -20583,13 +23977,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -20631,10 +24025,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="37"/>
@@ -20677,7 +24071,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
       <c r="E30" s="76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
@@ -20760,10 +24154,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -20806,7 +24200,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="28"/>
       <c r="E33" s="76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
@@ -21299,10 +24693,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -21385,10 +24779,10 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -21471,10 +24865,10 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -21517,7 +24911,7 @@
       <c r="C50" s="11"/>
       <c r="D50" s="28"/>
       <c r="E50" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -21560,7 +24954,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="28"/>
       <c r="E51" s="78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F51" s="79"/>
       <c r="G51" s="79"/>
@@ -21602,10 +24996,10 @@
       <c r="B52" s="9"/>
       <c r="C52" s="11"/>
       <c r="D52" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -21648,7 +25042,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="28"/>
       <c r="E53" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -21691,7 +25085,7 @@
       <c r="C54" s="11"/>
       <c r="D54" s="28"/>
       <c r="E54" s="80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F54" s="81"/>
       <c r="G54" s="81"/>
@@ -21815,10 +25209,10 @@
       <c r="B57" s="9"/>
       <c r="C57" s="11"/>
       <c r="D57" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -21901,10 +25295,10 @@
       <c r="B59" s="9"/>
       <c r="C59" s="11"/>
       <c r="D59" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -21947,7 +25341,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="28"/>
       <c r="E60" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -21990,7 +25384,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="28"/>
       <c r="E61" s="78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
@@ -22114,10 +25508,10 @@
       <c r="B64" s="9"/>
       <c r="C64" s="11"/>
       <c r="D64" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -22242,7 +25636,7 @@
       <c r="C67" s="11"/>
       <c r="D67" s="28"/>
       <c r="E67" s="54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -22443,14 +25837,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -22578,21 +25972,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -22635,15 +26029,15 @@
         <v>1300</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -22680,21 +26074,21 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="5">
         <v>50</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -22731,21 +26125,21 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="5">
         <v>90</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -22782,21 +26176,21 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D10" s="5">
         <v>40</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -22832,7 +26226,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -22871,7 +26265,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -22948,7 +26342,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -22991,10 +26385,10 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -23036,7 +26430,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -23161,10 +26555,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -23247,10 +26641,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -23333,10 +26727,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
@@ -23461,10 +26855,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
@@ -23546,13 +26940,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -23595,7 +26989,7 @@
       <c r="C29" s="11"/>
       <c r="D29" s="28"/>
       <c r="E29" s="76" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
@@ -23678,10 +27072,10 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -23764,10 +27158,10 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -23891,10 +27285,10 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -23937,7 +27331,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
       <c r="E37" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -23980,7 +27374,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
       <c r="E38" s="78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F38" s="79"/>
       <c r="G38" s="79"/>
@@ -24145,10 +27539,10 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -24231,10 +27625,10 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -24317,10 +27711,10 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -24363,7 +27757,7 @@
       <c r="C47" s="11"/>
       <c r="D47" s="28"/>
       <c r="E47" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -24406,7 +27800,7 @@
       <c r="C48" s="11"/>
       <c r="D48" s="28"/>
       <c r="E48" s="78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F48" s="79"/>
       <c r="G48" s="79"/>
@@ -24530,10 +27924,10 @@
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
       <c r="D51" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -24617,7 +28011,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="28"/>
       <c r="E53" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -24700,10 +28094,10 @@
       <c r="B55" s="9"/>
       <c r="C55" s="11"/>
       <c r="D55" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -24827,10 +28221,10 @@
       <c r="B58" s="9"/>
       <c r="C58" s="11"/>
       <c r="D58" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -24914,7 +28308,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="28"/>
       <c r="E60" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -24957,7 +28351,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="28"/>
       <c r="E61" s="78" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F61" s="79"/>
       <c r="G61" s="79"/>
@@ -25409,10 +28803,10 @@
       <c r="B72" s="9"/>
       <c r="C72" s="11"/>
       <c r="D72" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -25577,10 +28971,10 @@
       <c r="B76" s="9"/>
       <c r="C76" s="11"/>
       <c r="D76" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -25623,7 +29017,7 @@
       <c r="C77" s="11"/>
       <c r="D77" s="28"/>
       <c r="E77" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
@@ -25666,7 +29060,7 @@
       <c r="C78" s="11"/>
       <c r="D78" s="28"/>
       <c r="E78" s="78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F78" s="79"/>
       <c r="G78" s="79"/>
@@ -26118,10 +29512,10 @@
       <c r="B89" s="9"/>
       <c r="C89" s="11"/>
       <c r="D89" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
@@ -26283,7 +29677,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
@@ -26418,21 +29812,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -26477,15 +29871,15 @@
         <v>1300</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -26527,12 +29921,12 @@
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -26572,12 +29966,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -26617,12 +30011,12 @@
       <c r="D10" s="5"/>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -26658,7 +30052,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -26697,7 +30091,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -26774,7 +30168,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -26817,10 +30211,10 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -26862,10 +30256,10 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
@@ -26908,7 +30302,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="90"/>
       <c r="D17" s="57" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -26991,10 +30385,10 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -27077,10 +30471,10 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -27163,10 +30557,10 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
@@ -27291,10 +30685,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F26" s="84"/>
       <c r="G26" s="84"/>
@@ -27376,13 +30770,13 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -27425,7 +30819,7 @@
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -27467,10 +30861,10 @@
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="37"/>
@@ -27553,10 +30947,10 @@
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -27599,7 +30993,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="28"/>
       <c r="E33" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -27642,7 +31036,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
       <c r="E34" s="78" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F34" s="91"/>
       <c r="G34" s="91"/>
@@ -27889,10 +31283,10 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -28014,10 +31408,10 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -28060,7 +31454,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="28"/>
       <c r="E44" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -28103,7 +31497,7 @@
       <c r="C45" s="11"/>
       <c r="D45" s="28"/>
       <c r="E45" s="78" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F45" s="91"/>
       <c r="G45" s="91"/>
@@ -28187,7 +31581,7 @@
       <c r="C47" s="11"/>
       <c r="D47" s="28"/>
       <c r="E47" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -28230,7 +31624,7 @@
       <c r="C48" s="11"/>
       <c r="D48" s="28"/>
       <c r="E48" s="59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -28273,7 +31667,7 @@
       <c r="C49" s="11"/>
       <c r="D49" s="28"/>
       <c r="E49" s="59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -28395,10 +31789,10 @@
       <c r="B52" s="9"/>
       <c r="C52" s="11"/>
       <c r="D52" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -28481,7 +31875,7 @@
       <c r="C54" s="11"/>
       <c r="D54" s="28"/>
       <c r="E54" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -28524,7 +31918,7 @@
       <c r="C55" s="11"/>
       <c r="D55" s="28"/>
       <c r="E55" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -28567,7 +31961,7 @@
       <c r="C56" s="11"/>
       <c r="D56" s="28"/>
       <c r="E56" s="85" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F56" s="86"/>
       <c r="G56" s="86"/>
@@ -28814,7 +32208,7 @@
       <c r="C62" s="11"/>
       <c r="D62" s="28"/>
       <c r="E62" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -28857,7 +32251,7 @@
       <c r="C63" s="11"/>
       <c r="D63" s="28"/>
       <c r="E63" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -28900,7 +32294,7 @@
       <c r="C64" s="11"/>
       <c r="D64" s="28"/>
       <c r="E64" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -28943,7 +32337,7 @@
       <c r="C65" s="11"/>
       <c r="D65" s="28"/>
       <c r="E65" s="85" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F65" s="86"/>
       <c r="G65" s="86"/>
@@ -29149,7 +32543,7 @@
       <c r="C70" s="11"/>
       <c r="D70" s="28"/>
       <c r="E70" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -29192,7 +32586,7 @@
       <c r="C71" s="11"/>
       <c r="D71" s="28"/>
       <c r="E71" s="87" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F71" s="88"/>
       <c r="G71" s="88"/>
@@ -29398,10 +32792,10 @@
       <c r="B76" s="9"/>
       <c r="C76" s="11"/>
       <c r="D76" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -29485,7 +32879,7 @@
       <c r="C78" s="11"/>
       <c r="D78" s="28"/>
       <c r="E78" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
@@ -29528,7 +32922,7 @@
       <c r="C79" s="11"/>
       <c r="D79" s="28"/>
       <c r="E79" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -29571,7 +32965,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="28"/>
       <c r="E80" s="78" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F80" s="79"/>
       <c r="G80" s="79"/>
@@ -29737,7 +33131,7 @@
       <c r="C84" s="11"/>
       <c r="D84" s="28"/>
       <c r="E84" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -29780,7 +33174,7 @@
       <c r="C85" s="11"/>
       <c r="D85" s="28"/>
       <c r="E85" s="63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
@@ -29823,7 +33217,7 @@
       <c r="C86" s="11"/>
       <c r="D86" s="28"/>
       <c r="E86" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
@@ -29866,7 +33260,7 @@
       <c r="C87" s="11"/>
       <c r="D87" s="28"/>
       <c r="E87" s="63" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F87" s="51"/>
       <c r="G87" s="51"/>
@@ -29909,7 +33303,7 @@
       <c r="C88" s="11"/>
       <c r="D88" s="28"/>
       <c r="E88" s="63" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F88" s="51"/>
       <c r="G88" s="51"/>
@@ -29992,10 +33386,10 @@
       <c r="B90" s="9"/>
       <c r="C90" s="11"/>
       <c r="D90" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
@@ -30078,10 +33472,10 @@
       <c r="B92" s="9"/>
       <c r="C92" s="11"/>
       <c r="D92" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
@@ -30124,7 +33518,7 @@
       <c r="C93" s="11"/>
       <c r="D93" s="28"/>
       <c r="E93" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
@@ -30167,7 +33561,7 @@
       <c r="C94" s="11"/>
       <c r="D94" s="28"/>
       <c r="E94" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F94" s="79"/>
       <c r="G94" s="79"/>
@@ -30537,10 +33931,10 @@
       <c r="B103" s="9"/>
       <c r="C103" s="11"/>
       <c r="D103" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -30583,7 +33977,7 @@
       <c r="C104" s="11"/>
       <c r="D104" s="28"/>
       <c r="E104" s="62" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -30667,7 +34061,7 @@
       <c r="C106" s="11"/>
       <c r="D106" s="28"/>
       <c r="E106" s="63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" s="51"/>
       <c r="G106" s="51"/>
@@ -30751,7 +34145,7 @@
       <c r="C108" s="11"/>
       <c r="D108" s="28"/>
       <c r="E108" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
@@ -30794,7 +34188,7 @@
       <c r="C109" s="11"/>
       <c r="D109" s="28"/>
       <c r="E109" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
@@ -30837,7 +34231,7 @@
       <c r="C110" s="11"/>
       <c r="D110" s="28"/>
       <c r="E110" s="85" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F110" s="86"/>
       <c r="G110" s="86"/>
@@ -31166,10 +34560,10 @@
       <c r="B118" s="9"/>
       <c r="C118" s="11"/>
       <c r="D118" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
@@ -31212,7 +34606,7 @@
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="61" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
@@ -31293,7 +34687,7 @@
     </row>
     <row r="124" spans="2:40">
       <c r="C124" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -31383,14 +34777,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -31518,21 +34912,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -31569,19 +34963,19 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D7" s="5">
         <v>1300</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -31618,19 +35012,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D8" s="5">
         <v>590</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -31667,19 +35061,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D9" s="5">
         <v>320</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -31716,19 +35110,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D10" s="5">
         <v>140</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -31761,14 +35155,14 @@
     <row r="11" spans="2:40">
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D11" s="5">
         <v>170</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -31807,7 +35201,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -31884,7 +35278,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -31927,7 +35321,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67"/>
@@ -31970,7 +35364,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -32095,7 +35489,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -32179,7 +35573,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -32263,7 +35657,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
@@ -32389,7 +35783,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="73"/>
@@ -32472,10 +35866,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -32518,7 +35912,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -32602,7 +35996,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -32686,7 +36080,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -32811,7 +36205,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -32895,7 +36289,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -32979,7 +36373,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -33063,7 +36457,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -33147,7 +36541,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -33231,7 +36625,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -33315,7 +36709,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -33467,14 +36861,14 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AN2" s="65"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -33602,21 +36996,21 @@
     <row r="6" spans="2:40">
       <c r="B6" s="9"/>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -33653,19 +37047,19 @@
     <row r="7" spans="2:40">
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D7" s="5">
         <v>1000</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -33702,19 +37096,19 @@
     <row r="8" spans="2:40">
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D8" s="5">
         <v>210</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -33751,19 +37145,19 @@
     <row r="9" spans="2:40">
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D9" s="5">
         <v>110</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -33800,19 +37194,19 @@
     <row r="10" spans="2:40">
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D10" s="5">
         <v>70</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -33848,7 +37242,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="18"/>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -33887,7 +37281,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="17"/>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -33964,7 +37358,7 @@
     <row r="14" spans="2:40">
       <c r="B14" s="9"/>
       <c r="C14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -34007,7 +37401,7 @@
     <row r="15" spans="2:40" ht="126.45" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="67"/>
@@ -34050,7 +37444,7 @@
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="70"/>
@@ -34175,7 +37569,7 @@
     <row r="19" spans="2:40">
       <c r="B19" s="9"/>
       <c r="C19" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -34259,7 +37653,7 @@
     <row r="21" spans="2:40">
       <c r="B21" s="9"/>
       <c r="C21" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -34343,7 +37737,7 @@
     <row r="23" spans="2:40" ht="98.55" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="73"/>
@@ -34469,7 +37863,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="73"/>
@@ -34552,10 +37946,10 @@
     <row r="28" spans="2:40">
       <c r="B28" s="9"/>
       <c r="C28" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -34598,7 +37992,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="10"/>
@@ -34682,7 +38076,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="11"/>
       <c r="D31" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -34766,7 +38160,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -34891,7 +38285,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -34975,7 +38369,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -35059,7 +38453,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -35143,7 +38537,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -35227,7 +38621,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -35311,7 +38705,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -35395,7 +38789,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D276F09-927E-4C4E-88B9-3C6D0465C1FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D802D587-B8A2-4684-B564-5F3077C4D856}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20268" yWindow="0" windowWidth="23196" windowHeight="22896" tabRatio="878" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10906,9 +10906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0404E570-5E21-4B4A-9FFA-E3F8DD405A3B}">
   <dimension ref="B2:AN79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:S15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D802D587-B8A2-4684-B564-5F3077C4D856}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4937B8BE-3A1C-4699-B5E2-E53403B7CE6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20268" yWindow="0" windowWidth="23196" windowHeight="22896" tabRatio="878" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20268" yWindow="0" windowWidth="23196" windowHeight="22896" tabRatio="878" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="php date" sheetId="11" r:id="rId10"/>
     <sheet name="php array" sheetId="12" r:id="rId11"/>
     <sheet name="php empty" sheetId="14" r:id="rId12"/>
-    <sheet name="xxxtemplate" sheetId="3" r:id="rId13"/>
+    <sheet name="str_replace" sheetId="15" r:id="rId13"/>
+    <sheet name="xxxtemplate" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="381">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -3938,12 +3939,299 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>str_replace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.sejuku.net/blog/30092</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str_replace — 検索文字列に一致したすべての文字列を置換する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/ja/function.str-replace.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】str_replaceを使って文字列を置き換える方法を解説！</t>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】str_replaceを使って文字列を置き換える方法を解説！｜フライテック</t>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str_replaceを使って文字列を置き換える方法を解説をわかりやすいサンプルコード付きで解説していきます。str_replace は、 検索文字列に一致した文字列をすべて置換します。</t>
+    <rPh sb="43" eb="44">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str_replaceの構文</t>
+    <rPh sb="12" eb="14">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str_replaceの使い方</t>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータと返り値</t>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的なstr_replaceの使い方</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大文字小文字を区別しないで置換</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大文字小文字を区別して置換</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str_replace は検索した文字列が一致した場合、一致した文字列をすべて置換します。
+str_replaceを使って文字列を置き換える方法をわかりやすいサンプルコード付きで解説していきます。</t>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">str_replace ( mixed $search , mixed $replace , mixed $subject [, int &amp;$count ] ) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※それと、変数は日本語にしてね</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>mb_ereg_replace( $</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正規表現パターン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> , $</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>置換後の文字列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> , $</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>置換対象の文字列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )reg_replace( $</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正規表現パターン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> , $</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>置換後の文字列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> , $</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>置換対象の文字列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記の様な感じで</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列の検索と置換</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※サンプルコードは複数で！いろんなパターンを混ぜて！</t>
+    <rPh sb="9" eb="11">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4246,8 +4534,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4311,6 +4626,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4562,7 +4883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4825,6 +5146,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -10906,7 +11233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0404E570-5E21-4B4A-9FFA-E3F8DD405A3B}">
   <dimension ref="B2:AN79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -13851,6 +14180,2076 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7650DE1D-611F-4BD2-B3CE-09AAF09F9FFB}">
+  <dimension ref="B2:AN48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="5.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:40">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" s="65"/>
+    </row>
+    <row r="3" spans="2:40" ht="26.4">
+      <c r="B3" s="9"/>
+      <c r="C3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="B5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="B6" s="9"/>
+      <c r="C6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="20">
+        <v>2500</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3600</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20">
+        <v>4000</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="9"/>
+      <c r="C14" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="2:40" ht="126.45" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="9"/>
+      <c r="C16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="98" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="2:40">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="2:40">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="9"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="2:40">
+      <c r="B21" s="9"/>
+      <c r="C21" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="2:40">
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="2:40" ht="98.55" customHeight="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>367</v>
+      </c>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="9"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="9"/>
+      <c r="C28" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="9"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="9"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="117" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" s="118"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="118"/>
+      <c r="AE32" s="118"/>
+      <c r="AF32" s="118"/>
+      <c r="AG32" s="118"/>
+      <c r="AH32" s="118"/>
+      <c r="AI32" s="118"/>
+      <c r="AJ32" s="118"/>
+      <c r="AK32" s="118"/>
+      <c r="AL32" s="118"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="2:40">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="120" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="118"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="118"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
+      <c r="AE33" s="118"/>
+      <c r="AF33" s="118"/>
+      <c r="AG33" s="118"/>
+      <c r="AH33" s="118"/>
+      <c r="AI33" s="118"/>
+      <c r="AJ33" s="118"/>
+      <c r="AK33" s="118"/>
+      <c r="AL33" s="118"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="2:40">
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="2:40">
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="2:40">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="2:40">
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="2:40">
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="2:40">
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="2:40">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="2:40" ht="22.2">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="121" t="s">
+        <v>380</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="2:40">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="2:40">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="2:40">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="2:40">
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="2:40">
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
+      <c r="AL46" s="10"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="2:40">
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="11"/>
+    </row>
+    <row r="48" spans="2:40">
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="13"/>
+      <c r="AM48" s="13"/>
+      <c r="AN48" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{BDC92717-EBD2-432B-BD32-B310A18EDDEE}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{5CBB972D-A17D-4F36-B987-CAD4DD53ABCD}"/>
+    <hyperlink ref="D17" r:id="rId3" xr:uid="{A644080A-9A32-411E-B8C2-4DDCB07B7368}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
   <dimension ref="B2:AN49"/>
   <sheetViews>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4395E66-E2F0-4141-9B13-B9B275F9DD5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096246A9-D7AF-4925-84EE-D005446FE1DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12888" yWindow="1356" windowWidth="23196" windowHeight="22896" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12888" yWindow="1356" windowWidth="23196" windowHeight="22896" tabRatio="878" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,8 @@
     <sheet name="str_replace" sheetId="15" r:id="rId13"/>
     <sheet name="php cURL" sheetId="16" r:id="rId14"/>
     <sheet name="php　文字列連結" sheetId="18" r:id="rId15"/>
-    <sheet name="xxxtemplate" sheetId="3" r:id="rId16"/>
+    <sheet name="php echo" sheetId="19" r:id="rId16"/>
+    <sheet name="xxxtemplate" sheetId="3" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="497">
   <si>
     <t>htmlspecialchar</t>
   </si>
@@ -5111,12 +5112,692 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>php echo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPでは、出力を取得するための2つの基本的な方法がechoありprintます。
+echoステートメントは、1つ以上の文字列を出力できます。一般的に、echoステートメントは、文字列、数値、変数値、式の結果など、ブラウザに表示できるすべてのものを表示できます。
+echoは実際には関数（ifステートメントのような）ではない言語構造なので、かっこなしで使用できます（例：echoまたは）echo()。ただし、エコーに複数のパラメーターを渡す場合は、パラメーターを括弧で囲まないでください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php echo print</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php echo html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.javadrive.jp/php/string/index3.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.sejuku.net/blog/25843</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザに出力するには、echoまたはprintを使用します。どちらも画面へのデータ出力に使用されます。
+ここでは、echoの使い方と、printとの違いをわかりやすく解説していきます。</t>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザに出力するには、echoまたはprintを使用します。どちらも画面へのデータ出力に使用されます。ここでは、echoの使い方と、printとの違いをわかりやすく解説していきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> echo と print のちがい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>早速結論ですが、ひとことでいうと、 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>echo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> と </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> の最も大きなちがいは式（ expression ）かどうか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> です。 PHP の仕様として「 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>echo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> は式ではなくて、 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> は式である</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> 」ということになっているそうです。</t>
+    </r>
+  </si>
+  <si>
+    <t>つまり</t>
+  </si>
+  <si>
+    <r>
+      <t>echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> は文（ statement ）。他の式や文の一部として使うことができない。戻り値を持たない。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> は式（ expression ）。他の式や文の一部として使うことができる。戻り値を持っていて、それはいつも 1 。</t>
+    </r>
+  </si>
+  <si>
+    <t>とのこと。</t>
+  </si>
+  <si>
+    <t>※参考1を参照</t>
+    <rPh sb="1" eb="3">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>文と式の区別でいうと、たとえば、わかりやすい例は </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> 文です。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> を </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> 文の中に入れることはできませんが </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> の場合は可能です。</t>
+    </r>
+  </si>
+  <si>
+    <t>// Parse error になる</t>
+  </si>
+  <si>
+    <t>if (echo 5) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print 'echo is an expression with return value';</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>// print の場合: ○</t>
+  </si>
+  <si>
+    <t>// 問題なく動作する</t>
+  </si>
+  <si>
+    <t>if (print 5) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print 'print is an expression with return value';</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> の方は式なので、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> 文にかぎらず他の式の中に組み込むことができます。</t>
+    </r>
+  </si>
+  <si>
+    <t>// ◯ print は他の式や文の要素として利用できる</t>
+  </si>
+  <si>
+    <t>$result = 10 + (print 3) + (print FALSE);</t>
+  </si>
+  <si>
+    <t>print $result;  // =&gt; 12</t>
+  </si>
+  <si>
+    <t>// × エラー Parse error</t>
+  </si>
+  <si>
+    <t>$result = (echo 3);</t>
+  </si>
+  <si>
+    <t>（これらはあくまでも実行の可否を示すための例であり、実用性はありません）</t>
+  </si>
+  <si>
+    <r>
+      <t>ちなみに、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> の戻り値は必ず 1 になることに注意が必要です。 例えば、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> とした場合でもその戻り値は 1 になります。 このあたりは Ruby の </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> や </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>puts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> のようなふるまいを期待すると裏切られます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>となると </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> には特段メリットが無いようにも思えますが、 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> にできて </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> にはできないことがあります。 それは「複数の引数を受け取ること」です。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> は複数の引数を受け取ることができますが </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF232129"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> は単一の引数しか受け取れません。</t>
+    </r>
+  </si>
+  <si>
+    <t>// echo の場合: ○</t>
+  </si>
+  <si>
+    <t>// 問題なく動作します</t>
+  </si>
+  <si>
+    <t>echo 3, 4, 5;  // =&gt; 345</t>
+  </si>
+  <si>
+    <t>// print の場合: ×</t>
+  </si>
+  <si>
+    <t>print 3, 4, 5;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// echo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: ×</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echoとは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】echoで画面にHTMLやテキスト出力する方法を解説！printとの違いも解説！</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【PHP】echoで画面にHTMLやテキスト出力する方法を解説！printとの違いも解説！｜フライテック</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echoは画面にデータ(HTMLやテキスト)を出力する事ができます。</t>
+    <rPh sb="27" eb="28">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echoの使い方</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列を画面に出力する方法</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;?php
+// Displaying string of text
+echo "Hello World!";
+?&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLコードを出力する方法</t>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数を出力する方法</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="58">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5508,8 +6189,47 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF232129"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF232129"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF232129"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF232129"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5573,6 +6293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5824,7 +6550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6137,6 +6863,31 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6870,8 +7621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
@@ -22116,6 +22867,2113 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634850AC-DDB7-4DA3-8519-11F5DEA6A9FC}">
+  <dimension ref="B2:AN81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="3.296875" style="3"/>
+    <col min="3" max="3" width="23.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="3.296875" style="3"/>
+    <col min="13" max="13" width="6.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.296875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:40">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" s="93"/>
+    </row>
+    <row r="3" spans="2:40" ht="26.4">
+      <c r="B3" s="9"/>
+      <c r="C3" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="11"/>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="11"/>
+    </row>
+    <row r="5" spans="2:40">
+      <c r="B5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="B6" s="9"/>
+      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="20">
+        <v>20000</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="11"/>
+    </row>
+    <row r="7" spans="2:40">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2400</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="20">
+        <v>1800</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="11"/>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="5">
+        <v>210</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="11"/>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="5">
+        <v>170</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="11"/>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="11"/>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="11"/>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="11"/>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="11"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="B14" s="9"/>
+      <c r="C14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="11"/>
+    </row>
+    <row r="15" spans="2:40" ht="126.45" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>449</v>
+      </c>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="11"/>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="9"/>
+      <c r="C16" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="97"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="11"/>
+    </row>
+    <row r="17" spans="2:40">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="11"/>
+    </row>
+    <row r="18" spans="2:40">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="11"/>
+    </row>
+    <row r="19" spans="2:40">
+      <c r="B19" s="9"/>
+      <c r="C19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="11"/>
+    </row>
+    <row r="20" spans="2:40">
+      <c r="B20" s="9"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="11"/>
+    </row>
+    <row r="21" spans="2:40">
+      <c r="B21" s="9"/>
+      <c r="C21" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="11"/>
+    </row>
+    <row r="22" spans="2:40">
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="11"/>
+    </row>
+    <row r="23" spans="2:40" ht="98.55" customHeight="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="139" t="s">
+        <v>455</v>
+      </c>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="140"/>
+      <c r="S23" s="140"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="11"/>
+    </row>
+    <row r="24" spans="2:40">
+      <c r="B24" s="9"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="11"/>
+    </row>
+    <row r="25" spans="2:40">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="11"/>
+    </row>
+    <row r="26" spans="2:40" ht="112.2" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="139" t="s">
+        <v>454</v>
+      </c>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="11"/>
+    </row>
+    <row r="27" spans="2:40">
+      <c r="B27" s="9"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="11"/>
+    </row>
+    <row r="28" spans="2:40">
+      <c r="B28" s="9"/>
+      <c r="C28" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="11"/>
+    </row>
+    <row r="29" spans="2:40">
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="11"/>
+    </row>
+    <row r="30" spans="2:40">
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="11"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="11"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="11"/>
+    </row>
+    <row r="33" spans="2:40">
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="11"/>
+    </row>
+    <row r="34" spans="2:40">
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="11"/>
+    </row>
+    <row r="35" spans="2:40" ht="67.8" customHeight="1">
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="106" t="s">
+        <v>494</v>
+      </c>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="147"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="147"/>
+      <c r="Q35" s="147"/>
+      <c r="R35" s="147"/>
+      <c r="S35" s="147"/>
+      <c r="T35" s="147"/>
+      <c r="U35" s="147"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="2:40">
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="2:40">
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="2:40">
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="2:40">
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="2:40">
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="2:40">
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="2:40">
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="2:40">
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="2:40">
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="2:40">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="13"/>
+      <c r="AL45" s="13"/>
+      <c r="AM45" s="13"/>
+      <c r="AN45" s="14"/>
+    </row>
+    <row r="48" spans="2:40">
+      <c r="C48" s="143" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="141" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="142" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="142" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="141" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="141" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="146" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="146" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="146" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="146" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="146" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="146" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="146" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="146" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="146" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="146" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="144" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="145" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="145" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="145" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="145" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="145" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="141" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="141" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="141" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="145" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="145" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="145" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="145" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="145" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="145" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
+    <mergeCell ref="E35:U35"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{C0D76FD4-A3BE-4DC4-A86C-9D8796A0887C}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{C88A2701-28DA-45E2-98D7-E075D4736AFA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE48AC-F3CF-4950-AB02-6CB0C5022987}">
   <dimension ref="B2:AN49"/>
   <sheetViews>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F909449-6B7D-424C-8E70-6DC7989FD152}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2321FB-5B58-4A5D-940F-F1C98401C909}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23868" yWindow="1296" windowWidth="23196" windowHeight="22896" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/記事設計/php設計書_no1.xlsx
+++ b/記事設計/php設計書_no1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\記事設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2321FB-5B58-4A5D-940F-F1C98401C909}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E3600A3-6E27-45FD-8617-F97F3BA637DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23868" yWindow="1296" windowWidth="23196" windowHeight="22896" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="xxxtemplate" sheetId="3" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7394,19 +7395,7 @@
       <t>ツカ</t>
     </rPh>
     <rPh sb="139" eb="141">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="2427" eb="2429">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="2430" eb="2433">
-      <t>シヨウジョウ</t>
-    </rPh>
-    <rPh sb="2434" eb="2436">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="2437" eb="2439">
-      <t>カイセツ</t>
+      <t>ホウホウホウホウシヨウジョウチュウイカイセツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7641,7 +7630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="82">
+  <fonts count="81">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8156,12 +8145,6 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Source Sans Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
     <font>
@@ -8757,6 +8740,42 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8787,11 +8806,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8812,12 +8840,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8862,14 +8884,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8877,50 +8899,11 @@
     <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9949,7 +9932,7 @@
       <c r="B19" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C19" s="157">
+      <c r="C19" s="117">
         <v>1900</v>
       </c>
       <c r="D19" s="2">
@@ -10029,7 +10012,7 @@
       <c r="C26" s="87">
         <v>1600</v>
       </c>
-      <c r="D26" s="170">
+      <c r="D26" s="128">
         <v>19</v>
       </c>
     </row>
@@ -10436,10 +10419,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -10485,10 +10468,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -10995,24 +10978,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -11040,24 +11023,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -11339,24 +11322,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="158" t="s">
         <v>269</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="159"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -11467,24 +11450,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="158" t="s">
         <v>262</v>
       </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -12907,10 +12890,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -12956,10 +12939,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -13448,24 +13431,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -13493,22 +13476,22 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -13790,24 +13773,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="158" t="s">
         <v>276</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="159"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -13918,24 +13901,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="158" t="s">
         <v>275</v>
       </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -15225,10 +15208,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -15274,10 +15257,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -15762,24 +15745,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -15807,24 +15790,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>312</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -16108,24 +16091,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="158" t="s">
         <v>320</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="159"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -16236,24 +16219,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="158" t="s">
         <v>321</v>
       </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -16541,24 +16524,24 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="150" t="s">
+      <c r="E33" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="151"/>
-      <c r="Q33" s="151"/>
-      <c r="R33" s="151"/>
-      <c r="S33" s="151"/>
-      <c r="T33" s="151"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
@@ -16584,22 +16567,22 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="151"/>
-      <c r="S34" s="151"/>
-      <c r="T34" s="151"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="164"/>
+      <c r="M34" s="164"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="164"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="164"/>
+      <c r="T34" s="164"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
@@ -16625,22 +16608,22 @@
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="151"/>
-      <c r="S35" s="151"/>
-      <c r="T35" s="151"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="164"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="164"/>
+      <c r="T35" s="164"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
@@ -16752,24 +16735,24 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="147" t="s">
+      <c r="E38" s="160" t="s">
         <v>336</v>
       </c>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="148"/>
-      <c r="N38" s="148"/>
-      <c r="O38" s="148"/>
-      <c r="P38" s="148"/>
-      <c r="Q38" s="148"/>
-      <c r="R38" s="148"/>
-      <c r="S38" s="148"/>
-      <c r="T38" s="148"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
+      <c r="R38" s="161"/>
+      <c r="S38" s="161"/>
+      <c r="T38" s="161"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
@@ -16795,22 +16778,22 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="148"/>
-      <c r="N39" s="148"/>
-      <c r="O39" s="148"/>
-      <c r="P39" s="148"/>
-      <c r="Q39" s="148"/>
-      <c r="R39" s="148"/>
-      <c r="S39" s="148"/>
-      <c r="T39" s="148"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="161"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="161"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="161"/>
+      <c r="Q39" s="161"/>
+      <c r="R39" s="161"/>
+      <c r="S39" s="161"/>
+      <c r="T39" s="161"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
@@ -16836,22 +16819,22 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
-      <c r="N40" s="148"/>
-      <c r="O40" s="148"/>
-      <c r="P40" s="148"/>
-      <c r="Q40" s="148"/>
-      <c r="R40" s="148"/>
-      <c r="S40" s="148"/>
-      <c r="T40" s="148"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="161"/>
+      <c r="M40" s="161"/>
+      <c r="N40" s="161"/>
+      <c r="O40" s="161"/>
+      <c r="P40" s="161"/>
+      <c r="Q40" s="161"/>
+      <c r="R40" s="161"/>
+      <c r="S40" s="161"/>
+      <c r="T40" s="161"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
@@ -16877,22 +16860,22 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
-      <c r="N41" s="148"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="148"/>
-      <c r="Q41" s="148"/>
-      <c r="R41" s="148"/>
-      <c r="S41" s="148"/>
-      <c r="T41" s="148"/>
+      <c r="E41" s="162"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="161"/>
+      <c r="M41" s="161"/>
+      <c r="N41" s="161"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="161"/>
+      <c r="Q41" s="161"/>
+      <c r="R41" s="161"/>
+      <c r="S41" s="161"/>
+      <c r="T41" s="161"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
@@ -17002,24 +16985,24 @@
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="147" t="s">
+      <c r="E44" s="160" t="s">
         <v>338</v>
       </c>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="148"/>
-      <c r="M44" s="148"/>
-      <c r="N44" s="148"/>
-      <c r="O44" s="148"/>
-      <c r="P44" s="148"/>
-      <c r="Q44" s="148"/>
-      <c r="R44" s="148"/>
-      <c r="S44" s="148"/>
-      <c r="T44" s="148"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="161"/>
+      <c r="M44" s="161"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="161"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="161"/>
       <c r="U44" s="10"/>
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
@@ -17045,22 +17028,22 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="148"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="148"/>
-      <c r="N45" s="148"/>
-      <c r="O45" s="148"/>
-      <c r="P45" s="148"/>
-      <c r="Q45" s="148"/>
-      <c r="R45" s="148"/>
-      <c r="S45" s="148"/>
-      <c r="T45" s="148"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="161"/>
+      <c r="L45" s="161"/>
+      <c r="M45" s="161"/>
+      <c r="N45" s="161"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="161"/>
+      <c r="Q45" s="161"/>
+      <c r="R45" s="161"/>
+      <c r="S45" s="161"/>
+      <c r="T45" s="161"/>
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
@@ -17086,22 +17069,22 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
-      <c r="J46" s="148"/>
-      <c r="K46" s="148"/>
-      <c r="L46" s="148"/>
-      <c r="M46" s="148"/>
-      <c r="N46" s="148"/>
-      <c r="O46" s="148"/>
-      <c r="P46" s="148"/>
-      <c r="Q46" s="148"/>
-      <c r="R46" s="148"/>
-      <c r="S46" s="148"/>
-      <c r="T46" s="148"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="161"/>
+      <c r="L46" s="161"/>
+      <c r="M46" s="161"/>
+      <c r="N46" s="161"/>
+      <c r="O46" s="161"/>
+      <c r="P46" s="161"/>
+      <c r="Q46" s="161"/>
+      <c r="R46" s="161"/>
+      <c r="S46" s="161"/>
+      <c r="T46" s="161"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
@@ -17127,22 +17110,22 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="148"/>
-      <c r="L47" s="148"/>
-      <c r="M47" s="148"/>
-      <c r="N47" s="148"/>
-      <c r="O47" s="148"/>
-      <c r="P47" s="148"/>
-      <c r="Q47" s="148"/>
-      <c r="R47" s="148"/>
-      <c r="S47" s="148"/>
-      <c r="T47" s="148"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="161"/>
+      <c r="J47" s="161"/>
+      <c r="K47" s="161"/>
+      <c r="L47" s="161"/>
+      <c r="M47" s="161"/>
+      <c r="N47" s="161"/>
+      <c r="O47" s="161"/>
+      <c r="P47" s="161"/>
+      <c r="Q47" s="161"/>
+      <c r="R47" s="161"/>
+      <c r="S47" s="161"/>
+      <c r="T47" s="161"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
@@ -18178,10 +18161,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -18227,10 +18210,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -18717,24 +18700,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>348</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -18762,24 +18745,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>349</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -19063,24 +19046,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="158" t="s">
         <v>352</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="159"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -19191,24 +19174,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="158" t="s">
         <v>359</v>
       </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -20251,10 +20234,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -20300,10 +20283,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -20794,24 +20777,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>373</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -20839,24 +20822,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>368</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -21140,24 +21123,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="158" t="s">
         <v>398</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="159"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -21268,24 +21251,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="158" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -22300,29 +22283,29 @@
       <c r="B50" s="9"/>
       <c r="C50" s="11"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="131" t="s">
+      <c r="E50" s="146" t="s">
         <v>391</v>
       </c>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="132"/>
-      <c r="M50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="132"/>
-      <c r="P50" s="132"/>
-      <c r="Q50" s="132"/>
-      <c r="R50" s="132"/>
-      <c r="S50" s="132"/>
-      <c r="T50" s="132"/>
-      <c r="U50" s="132"/>
-      <c r="V50" s="132"/>
-      <c r="W50" s="132"/>
-      <c r="X50" s="132"/>
-      <c r="Y50" s="132"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="147"/>
+      <c r="L50" s="147"/>
+      <c r="M50" s="147"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="147"/>
+      <c r="P50" s="147"/>
+      <c r="Q50" s="147"/>
+      <c r="R50" s="147"/>
+      <c r="S50" s="147"/>
+      <c r="T50" s="147"/>
+      <c r="U50" s="147"/>
+      <c r="V50" s="147"/>
+      <c r="W50" s="147"/>
+      <c r="X50" s="147"/>
+      <c r="Y50" s="147"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
@@ -22805,10 +22788,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -22854,10 +22837,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -23348,24 +23331,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>424</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -23393,22 +23376,22 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -23690,24 +23673,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="137" t="s">
         <v>429</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -23818,24 +23801,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="125" t="s">
+      <c r="E26" s="137" t="s">
         <v>428</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -25044,10 +25027,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -25093,10 +25076,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -25593,24 +25576,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>440</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -25638,22 +25621,22 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -25935,24 +25918,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="166" t="s">
         <v>446</v>
       </c>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="167"/>
+      <c r="S23" s="167"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -26063,24 +26046,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="152" t="s">
+      <c r="E26" s="166" t="s">
         <v>445</v>
       </c>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="167"/>
+      <c r="T26" s="167"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -26454,25 +26437,25 @@
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="129" t="s">
+      <c r="E35" s="144" t="s">
         <v>485</v>
       </c>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="154"/>
-      <c r="N35" s="154"/>
-      <c r="O35" s="154"/>
-      <c r="P35" s="154"/>
-      <c r="Q35" s="154"/>
-      <c r="R35" s="154"/>
-      <c r="S35" s="154"/>
-      <c r="T35" s="154"/>
-      <c r="U35" s="154"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="165"/>
+      <c r="O35" s="165"/>
+      <c r="P35" s="165"/>
+      <c r="Q35" s="165"/>
+      <c r="R35" s="165"/>
+      <c r="S35" s="165"/>
+      <c r="T35" s="165"/>
+      <c r="U35" s="165"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
@@ -27154,10 +27137,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -27203,10 +27186,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -27693,22 +27676,22 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -27736,22 +27719,22 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -28029,24 +28012,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="159"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -28157,24 +28140,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="158" t="s">
         <v>496</v>
       </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -29365,22 +29348,22 @@
       </c>
     </row>
     <row r="70" spans="3:16" ht="286.2" customHeight="1">
-      <c r="C70" s="155" t="s">
+      <c r="C70" s="168" t="s">
         <v>508</v>
       </c>
-      <c r="D70" s="156"/>
-      <c r="E70" s="156"/>
-      <c r="F70" s="156"/>
-      <c r="G70" s="156"/>
-      <c r="H70" s="156"/>
-      <c r="I70" s="156"/>
-      <c r="J70" s="156"/>
-      <c r="K70" s="156"/>
-      <c r="L70" s="156"/>
-      <c r="M70" s="156"/>
-      <c r="N70" s="156"/>
-      <c r="O70" s="156"/>
-      <c r="P70" s="156"/>
+      <c r="D70" s="169"/>
+      <c r="E70" s="169"/>
+      <c r="F70" s="169"/>
+      <c r="G70" s="169"/>
+      <c r="H70" s="169"/>
+      <c r="I70" s="169"/>
+      <c r="J70" s="169"/>
+      <c r="K70" s="169"/>
+      <c r="L70" s="169"/>
+      <c r="M70" s="169"/>
+      <c r="N70" s="169"/>
+      <c r="O70" s="169"/>
+      <c r="P70" s="169"/>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" s="112" t="s">
@@ -29516,10 +29499,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -29565,10 +29548,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -30055,24 +30038,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>537</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -30100,24 +30083,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>535</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -30401,24 +30384,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="142" t="s">
         <v>540</v>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="143"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -30529,24 +30512,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="136" t="s">
+      <c r="E26" s="142" t="s">
         <v>539</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -31771,10 +31754,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -31820,10 +31803,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -32320,24 +32303,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>589</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -32365,24 +32348,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>590</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -32664,24 +32647,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="158" t="s">
         <v>589</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="159"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -32792,24 +32775,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="145" t="s">
+      <c r="E26" s="158" t="s">
         <v>591</v>
       </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -33402,26 +33385,26 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="131" t="s">
+      <c r="E40" s="146" t="s">
         <v>569</v>
       </c>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="166"/>
-      <c r="N40" s="166"/>
-      <c r="O40" s="166"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="166"/>
-      <c r="R40" s="166"/>
-      <c r="S40" s="166"/>
-      <c r="T40" s="166"/>
-      <c r="U40" s="166"/>
-      <c r="V40" s="166"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
+      <c r="M40" s="170"/>
+      <c r="N40" s="170"/>
+      <c r="O40" s="170"/>
+      <c r="P40" s="170"/>
+      <c r="Q40" s="170"/>
+      <c r="R40" s="170"/>
+      <c r="S40" s="170"/>
+      <c r="T40" s="170"/>
+      <c r="U40" s="170"/>
+      <c r="V40" s="170"/>
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
@@ -33445,24 +33428,24 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="166"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="166"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="166"/>
-      <c r="N41" s="166"/>
-      <c r="O41" s="166"/>
-      <c r="P41" s="166"/>
-      <c r="Q41" s="166"/>
-      <c r="R41" s="166"/>
-      <c r="S41" s="166"/>
-      <c r="T41" s="166"/>
-      <c r="U41" s="166"/>
-      <c r="V41" s="166"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="170"/>
+      <c r="L41" s="170"/>
+      <c r="M41" s="170"/>
+      <c r="N41" s="170"/>
+      <c r="O41" s="170"/>
+      <c r="P41" s="170"/>
+      <c r="Q41" s="170"/>
+      <c r="R41" s="170"/>
+      <c r="S41" s="170"/>
+      <c r="T41" s="170"/>
+      <c r="U41" s="170"/>
+      <c r="V41" s="170"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
@@ -33658,26 +33641,26 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="131" t="s">
+      <c r="E46" s="146" t="s">
         <v>572</v>
       </c>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
-      <c r="O46" s="166"/>
-      <c r="P46" s="166"/>
-      <c r="Q46" s="166"/>
-      <c r="R46" s="166"/>
-      <c r="S46" s="166"/>
-      <c r="T46" s="166"/>
-      <c r="U46" s="166"/>
-      <c r="V46" s="166"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
+      <c r="L46" s="170"/>
+      <c r="M46" s="170"/>
+      <c r="N46" s="170"/>
+      <c r="O46" s="170"/>
+      <c r="P46" s="170"/>
+      <c r="Q46" s="170"/>
+      <c r="R46" s="170"/>
+      <c r="S46" s="170"/>
+      <c r="T46" s="170"/>
+      <c r="U46" s="170"/>
+      <c r="V46" s="170"/>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
@@ -33701,24 +33684,24 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="28"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="166"/>
-      <c r="L47" s="166"/>
-      <c r="M47" s="166"/>
-      <c r="N47" s="166"/>
-      <c r="O47" s="166"/>
-      <c r="P47" s="166"/>
-      <c r="Q47" s="166"/>
-      <c r="R47" s="166"/>
-      <c r="S47" s="166"/>
-      <c r="T47" s="166"/>
-      <c r="U47" s="166"/>
-      <c r="V47" s="166"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="170"/>
+      <c r="K47" s="170"/>
+      <c r="L47" s="170"/>
+      <c r="M47" s="170"/>
+      <c r="N47" s="170"/>
+      <c r="O47" s="170"/>
+      <c r="P47" s="170"/>
+      <c r="Q47" s="170"/>
+      <c r="R47" s="170"/>
+      <c r="S47" s="170"/>
+      <c r="T47" s="170"/>
+      <c r="U47" s="170"/>
+      <c r="V47" s="170"/>
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
@@ -33996,23 +33979,23 @@
       </c>
     </row>
     <row r="60" spans="2:40">
-      <c r="C60" s="158" t="s">
+      <c r="C60" s="118" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="61" spans="2:40">
-      <c r="C61" s="159"/>
+      <c r="C61" s="119"/>
     </row>
     <row r="62" spans="2:40">
-      <c r="C62" s="160" t="s">
+      <c r="C62" s="120" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="63" spans="2:40">
-      <c r="C63" s="159"/>
+      <c r="C63" s="119"/>
     </row>
     <row r="64" spans="2:40">
-      <c r="C64" s="160" t="s">
+      <c r="C64" s="120" t="s">
         <v>551</v>
       </c>
     </row>
@@ -34020,25 +34003,25 @@
       <c r="C65" s="94"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="161" t="s">
+      <c r="C66" s="121" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="161" t="s">
+      <c r="C67" s="121" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="162" t="s">
+      <c r="C68" s="122" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="159"/>
+      <c r="C69" s="119"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="160" t="s">
+      <c r="C70" s="120" t="s">
         <v>553</v>
       </c>
     </row>
@@ -34046,30 +34029,30 @@
       <c r="C71" s="94"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="161" t="s">
+      <c r="C72" s="121" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="161" t="s">
+      <c r="C73" s="121" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="159"/>
+      <c r="C74" s="119"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="163" t="s">
+      <c r="C75" s="123" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="164" t="s">
+      <c r="C76" s="124" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="162" t="s">
+      <c r="C77" s="122" t="s">
         <v>517</v>
       </c>
     </row>
@@ -34077,15 +34060,15 @@
       <c r="C78" s="94"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="158" t="s">
+      <c r="C79" s="118" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="159"/>
+      <c r="C80" s="119"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="160" t="s">
+      <c r="C81" s="120" t="s">
         <v>558</v>
       </c>
     </row>
@@ -34093,22 +34076,22 @@
       <c r="C82" s="94"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="161" t="s">
+      <c r="C83" s="121" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="161" t="s">
+      <c r="C84" s="121" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="161" t="s">
+      <c r="C85" s="121" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="162" t="s">
+      <c r="C86" s="122" t="s">
         <v>517</v>
       </c>
     </row>
@@ -34116,15 +34099,15 @@
       <c r="C87" s="94"/>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="158" t="s">
+      <c r="C88" s="118" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="89" spans="3:3">
-      <c r="C89" s="159"/>
+      <c r="C89" s="119"/>
     </row>
     <row r="90" spans="3:3">
-      <c r="C90" s="160" t="s">
+      <c r="C90" s="120" t="s">
         <v>562</v>
       </c>
     </row>
@@ -34132,7 +34115,7 @@
       <c r="C91" s="94"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="165" t="s">
+      <c r="C92" s="125" t="s">
         <v>563</v>
       </c>
     </row>
@@ -34142,120 +34125,120 @@
       </c>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="165" t="s">
+      <c r="C99" s="125" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="159"/>
+      <c r="C100" s="119"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="168" t="s">
+      <c r="C101" s="126" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="102" spans="3:3">
-      <c r="C102" s="160" t="s">
+      <c r="C102" s="120" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="103" spans="3:3">
-      <c r="C103" s="159"/>
+      <c r="C103" s="119"/>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="168" t="s">
+      <c r="C104" s="126" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="160" t="s">
+      <c r="C105" s="120" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="159"/>
+      <c r="C106" s="119"/>
     </row>
     <row r="107" spans="3:3">
-      <c r="C107" s="168" t="s">
+      <c r="C107" s="126" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="108" spans="3:3">
-      <c r="C108" s="160" t="s">
+      <c r="C108" s="120" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="109" spans="3:3">
-      <c r="C109" s="159"/>
+      <c r="C109" s="119"/>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="168" t="s">
+      <c r="C110" s="126" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="111" spans="3:3">
-      <c r="C111" s="160" t="s">
+      <c r="C111" s="120" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="159"/>
+      <c r="C112" s="119"/>
     </row>
     <row r="113" spans="3:3">
-      <c r="C113" s="169" t="s">
+      <c r="C113" s="127" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="114" spans="3:3">
-      <c r="C114" s="159"/>
+      <c r="C114" s="119"/>
     </row>
     <row r="115" spans="3:3">
-      <c r="C115" s="168" t="s">
+      <c r="C115" s="126" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="160" t="s">
+      <c r="C116" s="120" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="161" t="s">
+      <c r="C117" s="121" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="118" spans="3:3">
-      <c r="C118" s="163" t="s">
+      <c r="C118" s="123" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="119" spans="3:3">
-      <c r="C119" s="161" t="s">
+      <c r="C119" s="121" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="120" spans="3:3">
-      <c r="C120" s="161" t="s">
+      <c r="C120" s="121" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="161" t="s">
+      <c r="C121" s="121" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="122" spans="3:3">
-      <c r="C122" s="161" t="s">
+      <c r="C122" s="121" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="123" spans="3:3">
-      <c r="C123" s="164" t="s">
+      <c r="C123" s="124" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="124" spans="3:3">
-      <c r="C124" s="162" t="s">
+      <c r="C124" s="122" t="s">
         <v>517</v>
       </c>
     </row>
@@ -34343,10 +34326,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -34392,10 +34375,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -34904,24 +34887,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -34949,24 +34932,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -35248,24 +35231,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -35376,24 +35359,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="125" t="s">
+      <c r="E26" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -36620,10 +36603,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
@@ -36669,10 +36652,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -37163,24 +37146,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>596</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -37208,24 +37191,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>595</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -37595,24 +37578,24 @@
       <c r="C25" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="142" t="s">
         <v>599</v>
       </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="143"/>
+      <c r="S25" s="143"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -37723,24 +37706,24 @@
       <c r="D28" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="136" t="s">
+      <c r="E28" s="142" t="s">
         <v>602</v>
       </c>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="137"/>
-      <c r="S28" s="137"/>
-      <c r="T28" s="137"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="143"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="143"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
@@ -38815,10 +38798,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -38858,10 +38841,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -39338,22 +39321,22 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -39381,22 +39364,22 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -39674,22 +39657,22 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -39800,22 +39783,22 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -40880,10 +40863,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -40923,10 +40906,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -41403,22 +41386,22 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -41446,22 +41429,22 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -41739,22 +41722,22 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -41865,22 +41848,22 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -42943,10 +42926,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
@@ -42992,10 +42975,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -43486,24 +43469,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -43531,24 +43514,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -43830,24 +43813,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -43958,24 +43941,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="125" t="s">
+      <c r="E26" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -45250,10 +45233,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="9"/>
@@ -45299,10 +45282,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -45801,24 +45784,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -45846,24 +45829,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -46145,24 +46128,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="D23" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -46273,24 +46256,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="125" t="s">
+      <c r="E26" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -46791,36 +46774,36 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="125" t="s">
+      <c r="E38" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="127"/>
-      <c r="L38" s="127"/>
-      <c r="M38" s="127"/>
-      <c r="N38" s="127"/>
-      <c r="O38" s="127"/>
-      <c r="P38" s="127"/>
-      <c r="Q38" s="127"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="127"/>
-      <c r="T38" s="127"/>
-      <c r="U38" s="127"/>
-      <c r="V38" s="127"/>
-      <c r="W38" s="127"/>
-      <c r="X38" s="127"/>
-      <c r="Y38" s="127"/>
-      <c r="Z38" s="127"/>
-      <c r="AA38" s="127"/>
-      <c r="AB38" s="127"/>
-      <c r="AC38" s="127"/>
-      <c r="AD38" s="127"/>
-      <c r="AE38" s="127"/>
-      <c r="AF38" s="127"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="140"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="140"/>
+      <c r="N38" s="140"/>
+      <c r="O38" s="140"/>
+      <c r="P38" s="140"/>
+      <c r="Q38" s="140"/>
+      <c r="R38" s="140"/>
+      <c r="S38" s="140"/>
+      <c r="T38" s="140"/>
+      <c r="U38" s="140"/>
+      <c r="V38" s="140"/>
+      <c r="W38" s="140"/>
+      <c r="X38" s="140"/>
+      <c r="Y38" s="140"/>
+      <c r="Z38" s="140"/>
+      <c r="AA38" s="140"/>
+      <c r="AB38" s="140"/>
+      <c r="AC38" s="140"/>
+      <c r="AD38" s="140"/>
+      <c r="AE38" s="140"/>
+      <c r="AF38" s="140"/>
       <c r="AG38" s="10"/>
       <c r="AH38" s="10"/>
       <c r="AI38" s="10"/>
@@ -46834,34 +46817,34 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="127"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="127"/>
-      <c r="U39" s="127"/>
-      <c r="V39" s="127"/>
-      <c r="W39" s="127"/>
-      <c r="X39" s="127"/>
-      <c r="Y39" s="127"/>
-      <c r="Z39" s="127"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="127"/>
-      <c r="AC39" s="127"/>
-      <c r="AD39" s="127"/>
-      <c r="AE39" s="127"/>
-      <c r="AF39" s="127"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="140"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="140"/>
+      <c r="N39" s="140"/>
+      <c r="O39" s="140"/>
+      <c r="P39" s="140"/>
+      <c r="Q39" s="140"/>
+      <c r="R39" s="140"/>
+      <c r="S39" s="140"/>
+      <c r="T39" s="140"/>
+      <c r="U39" s="140"/>
+      <c r="V39" s="140"/>
+      <c r="W39" s="140"/>
+      <c r="X39" s="140"/>
+      <c r="Y39" s="140"/>
+      <c r="Z39" s="140"/>
+      <c r="AA39" s="140"/>
+      <c r="AB39" s="140"/>
+      <c r="AC39" s="140"/>
+      <c r="AD39" s="140"/>
+      <c r="AE39" s="140"/>
+      <c r="AF39" s="140"/>
       <c r="AG39" s="10"/>
       <c r="AH39" s="10"/>
       <c r="AI39" s="10"/>
@@ -46875,34 +46858,34 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="127"/>
-      <c r="T40" s="127"/>
-      <c r="U40" s="127"/>
-      <c r="V40" s="127"/>
-      <c r="W40" s="127"/>
-      <c r="X40" s="127"/>
-      <c r="Y40" s="127"/>
-      <c r="Z40" s="127"/>
-      <c r="AA40" s="127"/>
-      <c r="AB40" s="127"/>
-      <c r="AC40" s="127"/>
-      <c r="AD40" s="127"/>
-      <c r="AE40" s="127"/>
-      <c r="AF40" s="127"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="140"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="140"/>
+      <c r="Q40" s="140"/>
+      <c r="R40" s="140"/>
+      <c r="S40" s="140"/>
+      <c r="T40" s="140"/>
+      <c r="U40" s="140"/>
+      <c r="V40" s="140"/>
+      <c r="W40" s="140"/>
+      <c r="X40" s="140"/>
+      <c r="Y40" s="140"/>
+      <c r="Z40" s="140"/>
+      <c r="AA40" s="140"/>
+      <c r="AB40" s="140"/>
+      <c r="AC40" s="140"/>
+      <c r="AD40" s="140"/>
+      <c r="AE40" s="140"/>
+      <c r="AF40" s="140"/>
       <c r="AG40" s="10"/>
       <c r="AH40" s="10"/>
       <c r="AI40" s="10"/>
@@ -46916,34 +46899,34 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="127"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="127"/>
-      <c r="U41" s="127"/>
-      <c r="V41" s="127"/>
-      <c r="W41" s="127"/>
-      <c r="X41" s="127"/>
-      <c r="Y41" s="127"/>
-      <c r="Z41" s="127"/>
-      <c r="AA41" s="127"/>
-      <c r="AB41" s="127"/>
-      <c r="AC41" s="127"/>
-      <c r="AD41" s="127"/>
-      <c r="AE41" s="127"/>
-      <c r="AF41" s="127"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="140"/>
+      <c r="P41" s="140"/>
+      <c r="Q41" s="140"/>
+      <c r="R41" s="140"/>
+      <c r="S41" s="140"/>
+      <c r="T41" s="140"/>
+      <c r="U41" s="140"/>
+      <c r="V41" s="140"/>
+      <c r="W41" s="140"/>
+      <c r="X41" s="140"/>
+      <c r="Y41" s="140"/>
+      <c r="Z41" s="140"/>
+      <c r="AA41" s="140"/>
+      <c r="AB41" s="140"/>
+      <c r="AC41" s="140"/>
+      <c r="AD41" s="140"/>
+      <c r="AE41" s="140"/>
+      <c r="AF41" s="140"/>
       <c r="AG41" s="10"/>
       <c r="AH41" s="10"/>
       <c r="AI41" s="10"/>
@@ -47588,10 +47571,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
@@ -47637,10 +47620,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -48131,24 +48114,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -48176,24 +48159,24 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -48475,24 +48458,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="143"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -48603,24 +48586,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="136" t="s">
+      <c r="E26" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -48779,37 +48762,37 @@
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="129" t="s">
+      <c r="E30" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="130"/>
-      <c r="AG30" s="130"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="145"/>
+      <c r="T30" s="145"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+      <c r="Y30" s="145"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="145"/>
+      <c r="AF30" s="145"/>
+      <c r="AG30" s="145"/>
       <c r="AH30" s="10"/>
       <c r="AI30" s="10"/>
       <c r="AJ30" s="10"/>
@@ -48908,36 +48891,36 @@
       <c r="B33" s="9"/>
       <c r="C33" s="11"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="129" t="s">
+      <c r="E33" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="130"/>
-      <c r="AC33" s="130"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="130"/>
-      <c r="AF33" s="130"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
       <c r="AG33" s="10"/>
       <c r="AH33" s="10"/>
       <c r="AI33" s="10"/>
@@ -48951,34 +48934,34 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="130"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="130"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="130"/>
-      <c r="AC34" s="130"/>
-      <c r="AD34" s="130"/>
-      <c r="AE34" s="130"/>
-      <c r="AF34" s="130"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="145"/>
+      <c r="T34" s="145"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="145"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="145"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="145"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="145"/>
+      <c r="AE34" s="145"/>
+      <c r="AF34" s="145"/>
       <c r="AG34" s="10"/>
       <c r="AH34" s="10"/>
       <c r="AI34" s="10"/>
@@ -48992,34 +48975,34 @@
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="130"/>
-      <c r="T35" s="130"/>
-      <c r="U35" s="130"/>
-      <c r="V35" s="130"/>
-      <c r="W35" s="130"/>
-      <c r="X35" s="130"/>
-      <c r="Y35" s="130"/>
-      <c r="Z35" s="130"/>
-      <c r="AA35" s="130"/>
-      <c r="AB35" s="130"/>
-      <c r="AC35" s="130"/>
-      <c r="AD35" s="130"/>
-      <c r="AE35" s="130"/>
-      <c r="AF35" s="130"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="145"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="145"/>
+      <c r="Y35" s="145"/>
+      <c r="Z35" s="145"/>
+      <c r="AA35" s="145"/>
+      <c r="AB35" s="145"/>
+      <c r="AC35" s="145"/>
+      <c r="AD35" s="145"/>
+      <c r="AE35" s="145"/>
+      <c r="AF35" s="145"/>
       <c r="AG35" s="10"/>
       <c r="AH35" s="10"/>
       <c r="AI35" s="10"/>
@@ -49033,34 +49016,34 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="P36" s="130"/>
-      <c r="Q36" s="130"/>
-      <c r="R36" s="130"/>
-      <c r="S36" s="130"/>
-      <c r="T36" s="130"/>
-      <c r="U36" s="130"/>
-      <c r="V36" s="130"/>
-      <c r="W36" s="130"/>
-      <c r="X36" s="130"/>
-      <c r="Y36" s="130"/>
-      <c r="Z36" s="130"/>
-      <c r="AA36" s="130"/>
-      <c r="AB36" s="130"/>
-      <c r="AC36" s="130"/>
-      <c r="AD36" s="130"/>
-      <c r="AE36" s="130"/>
-      <c r="AF36" s="130"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="145"/>
+      <c r="T36" s="145"/>
+      <c r="U36" s="145"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="145"/>
+      <c r="Y36" s="145"/>
+      <c r="Z36" s="145"/>
+      <c r="AA36" s="145"/>
+      <c r="AB36" s="145"/>
+      <c r="AC36" s="145"/>
+      <c r="AD36" s="145"/>
+      <c r="AE36" s="145"/>
+      <c r="AF36" s="145"/>
       <c r="AG36" s="10"/>
       <c r="AH36" s="10"/>
       <c r="AI36" s="10"/>
@@ -49074,34 +49057,34 @@
       <c r="B37" s="9"/>
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="130"/>
-      <c r="O37" s="130"/>
-      <c r="P37" s="130"/>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
-      <c r="S37" s="130"/>
-      <c r="T37" s="130"/>
-      <c r="U37" s="130"/>
-      <c r="V37" s="130"/>
-      <c r="W37" s="130"/>
-      <c r="X37" s="130"/>
-      <c r="Y37" s="130"/>
-      <c r="Z37" s="130"/>
-      <c r="AA37" s="130"/>
-      <c r="AB37" s="130"/>
-      <c r="AC37" s="130"/>
-      <c r="AD37" s="130"/>
-      <c r="AE37" s="130"/>
-      <c r="AF37" s="130"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="145"/>
+      <c r="P37" s="145"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="145"/>
+      <c r="S37" s="145"/>
+      <c r="T37" s="145"/>
+      <c r="U37" s="145"/>
+      <c r="V37" s="145"/>
+      <c r="W37" s="145"/>
+      <c r="X37" s="145"/>
+      <c r="Y37" s="145"/>
+      <c r="Z37" s="145"/>
+      <c r="AA37" s="145"/>
+      <c r="AB37" s="145"/>
+      <c r="AC37" s="145"/>
+      <c r="AD37" s="145"/>
+      <c r="AE37" s="145"/>
+      <c r="AF37" s="145"/>
       <c r="AG37" s="10"/>
       <c r="AH37" s="10"/>
       <c r="AI37" s="10"/>
@@ -49115,34 +49098,34 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="130"/>
-      <c r="R38" s="130"/>
-      <c r="S38" s="130"/>
-      <c r="T38" s="130"/>
-      <c r="U38" s="130"/>
-      <c r="V38" s="130"/>
-      <c r="W38" s="130"/>
-      <c r="X38" s="130"/>
-      <c r="Y38" s="130"/>
-      <c r="Z38" s="130"/>
-      <c r="AA38" s="130"/>
-      <c r="AB38" s="130"/>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="130"/>
-      <c r="AE38" s="130"/>
-      <c r="AF38" s="130"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="145"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="145"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="145"/>
+      <c r="S38" s="145"/>
+      <c r="T38" s="145"/>
+      <c r="U38" s="145"/>
+      <c r="V38" s="145"/>
+      <c r="W38" s="145"/>
+      <c r="X38" s="145"/>
+      <c r="Y38" s="145"/>
+      <c r="Z38" s="145"/>
+      <c r="AA38" s="145"/>
+      <c r="AB38" s="145"/>
+      <c r="AC38" s="145"/>
+      <c r="AD38" s="145"/>
+      <c r="AE38" s="145"/>
+      <c r="AF38" s="145"/>
       <c r="AG38" s="10"/>
       <c r="AH38" s="10"/>
       <c r="AI38" s="10"/>
@@ -49156,34 +49139,34 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="130"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="130"/>
-      <c r="Q39" s="130"/>
-      <c r="R39" s="130"/>
-      <c r="S39" s="130"/>
-      <c r="T39" s="130"/>
-      <c r="U39" s="130"/>
-      <c r="V39" s="130"/>
-      <c r="W39" s="130"/>
-      <c r="X39" s="130"/>
-      <c r="Y39" s="130"/>
-      <c r="Z39" s="130"/>
-      <c r="AA39" s="130"/>
-      <c r="AB39" s="130"/>
-      <c r="AC39" s="130"/>
-      <c r="AD39" s="130"/>
-      <c r="AE39" s="130"/>
-      <c r="AF39" s="130"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="145"/>
+      <c r="L39" s="145"/>
+      <c r="M39" s="145"/>
+      <c r="N39" s="145"/>
+      <c r="O39" s="145"/>
+      <c r="P39" s="145"/>
+      <c r="Q39" s="145"/>
+      <c r="R39" s="145"/>
+      <c r="S39" s="145"/>
+      <c r="T39" s="145"/>
+      <c r="U39" s="145"/>
+      <c r="V39" s="145"/>
+      <c r="W39" s="145"/>
+      <c r="X39" s="145"/>
+      <c r="Y39" s="145"/>
+      <c r="Z39" s="145"/>
+      <c r="AA39" s="145"/>
+      <c r="AB39" s="145"/>
+      <c r="AC39" s="145"/>
+      <c r="AD39" s="145"/>
+      <c r="AE39" s="145"/>
+      <c r="AF39" s="145"/>
       <c r="AG39" s="10"/>
       <c r="AH39" s="10"/>
       <c r="AI39" s="10"/>
@@ -49197,34 +49180,34 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="130"/>
-      <c r="S40" s="130"/>
-      <c r="T40" s="130"/>
-      <c r="U40" s="130"/>
-      <c r="V40" s="130"/>
-      <c r="W40" s="130"/>
-      <c r="X40" s="130"/>
-      <c r="Y40" s="130"/>
-      <c r="Z40" s="130"/>
-      <c r="AA40" s="130"/>
-      <c r="AB40" s="130"/>
-      <c r="AC40" s="130"/>
-      <c r="AD40" s="130"/>
-      <c r="AE40" s="130"/>
-      <c r="AF40" s="130"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="145"/>
+      <c r="L40" s="145"/>
+      <c r="M40" s="145"/>
+      <c r="N40" s="145"/>
+      <c r="O40" s="145"/>
+      <c r="P40" s="145"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="145"/>
+      <c r="S40" s="145"/>
+      <c r="T40" s="145"/>
+      <c r="U40" s="145"/>
+      <c r="V40" s="145"/>
+      <c r="W40" s="145"/>
+      <c r="X40" s="145"/>
+      <c r="Y40" s="145"/>
+      <c r="Z40" s="145"/>
+      <c r="AA40" s="145"/>
+      <c r="AB40" s="145"/>
+      <c r="AC40" s="145"/>
+      <c r="AD40" s="145"/>
+      <c r="AE40" s="145"/>
+      <c r="AF40" s="145"/>
       <c r="AG40" s="10"/>
       <c r="AH40" s="10"/>
       <c r="AI40" s="10"/>
@@ -49238,34 +49221,34 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="130"/>
-      <c r="Q41" s="130"/>
-      <c r="R41" s="130"/>
-      <c r="S41" s="130"/>
-      <c r="T41" s="130"/>
-      <c r="U41" s="130"/>
-      <c r="V41" s="130"/>
-      <c r="W41" s="130"/>
-      <c r="X41" s="130"/>
-      <c r="Y41" s="130"/>
-      <c r="Z41" s="130"/>
-      <c r="AA41" s="130"/>
-      <c r="AB41" s="130"/>
-      <c r="AC41" s="130"/>
-      <c r="AD41" s="130"/>
-      <c r="AE41" s="130"/>
-      <c r="AF41" s="130"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="145"/>
+      <c r="M41" s="145"/>
+      <c r="N41" s="145"/>
+      <c r="O41" s="145"/>
+      <c r="P41" s="145"/>
+      <c r="Q41" s="145"/>
+      <c r="R41" s="145"/>
+      <c r="S41" s="145"/>
+      <c r="T41" s="145"/>
+      <c r="U41" s="145"/>
+      <c r="V41" s="145"/>
+      <c r="W41" s="145"/>
+      <c r="X41" s="145"/>
+      <c r="Y41" s="145"/>
+      <c r="Z41" s="145"/>
+      <c r="AA41" s="145"/>
+      <c r="AB41" s="145"/>
+      <c r="AC41" s="145"/>
+      <c r="AD41" s="145"/>
+      <c r="AE41" s="145"/>
+      <c r="AF41" s="145"/>
       <c r="AG41" s="10"/>
       <c r="AH41" s="10"/>
       <c r="AI41" s="10"/>
@@ -49279,34 +49262,34 @@
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="28"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="130"/>
-      <c r="Q42" s="130"/>
-      <c r="R42" s="130"/>
-      <c r="S42" s="130"/>
-      <c r="T42" s="130"/>
-      <c r="U42" s="130"/>
-      <c r="V42" s="130"/>
-      <c r="W42" s="130"/>
-      <c r="X42" s="130"/>
-      <c r="Y42" s="130"/>
-      <c r="Z42" s="130"/>
-      <c r="AA42" s="130"/>
-      <c r="AB42" s="130"/>
-      <c r="AC42" s="130"/>
-      <c r="AD42" s="130"/>
-      <c r="AE42" s="130"/>
-      <c r="AF42" s="130"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="145"/>
+      <c r="M42" s="145"/>
+      <c r="N42" s="145"/>
+      <c r="O42" s="145"/>
+      <c r="P42" s="145"/>
+      <c r="Q42" s="145"/>
+      <c r="R42" s="145"/>
+      <c r="S42" s="145"/>
+      <c r="T42" s="145"/>
+      <c r="U42" s="145"/>
+      <c r="V42" s="145"/>
+      <c r="W42" s="145"/>
+      <c r="X42" s="145"/>
+      <c r="Y42" s="145"/>
+      <c r="Z42" s="145"/>
+      <c r="AA42" s="145"/>
+      <c r="AB42" s="145"/>
+      <c r="AC42" s="145"/>
+      <c r="AD42" s="145"/>
+      <c r="AE42" s="145"/>
+      <c r="AF42" s="145"/>
       <c r="AG42" s="10"/>
       <c r="AH42" s="10"/>
       <c r="AI42" s="10"/>
@@ -49320,34 +49303,34 @@
       <c r="B43" s="9"/>
       <c r="C43" s="11"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="130"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="130"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="130"/>
-      <c r="S43" s="130"/>
-      <c r="T43" s="130"/>
-      <c r="U43" s="130"/>
-      <c r="V43" s="130"/>
-      <c r="W43" s="130"/>
-      <c r="X43" s="130"/>
-      <c r="Y43" s="130"/>
-      <c r="Z43" s="130"/>
-      <c r="AA43" s="130"/>
-      <c r="AB43" s="130"/>
-      <c r="AC43" s="130"/>
-      <c r="AD43" s="130"/>
-      <c r="AE43" s="130"/>
-      <c r="AF43" s="130"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
+      <c r="M43" s="145"/>
+      <c r="N43" s="145"/>
+      <c r="O43" s="145"/>
+      <c r="P43" s="145"/>
+      <c r="Q43" s="145"/>
+      <c r="R43" s="145"/>
+      <c r="S43" s="145"/>
+      <c r="T43" s="145"/>
+      <c r="U43" s="145"/>
+      <c r="V43" s="145"/>
+      <c r="W43" s="145"/>
+      <c r="X43" s="145"/>
+      <c r="Y43" s="145"/>
+      <c r="Z43" s="145"/>
+      <c r="AA43" s="145"/>
+      <c r="AB43" s="145"/>
+      <c r="AC43" s="145"/>
+      <c r="AD43" s="145"/>
+      <c r="AE43" s="145"/>
+      <c r="AF43" s="145"/>
       <c r="AG43" s="10"/>
       <c r="AH43" s="10"/>
       <c r="AI43" s="10"/>
@@ -49662,16 +49645,16 @@
       <c r="B51" s="9"/>
       <c r="C51" s="11"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="131" t="s">
+      <c r="E51" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="132"/>
-      <c r="L51" s="132"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="147"/>
       <c r="M51" s="49"/>
       <c r="N51" s="49"/>
       <c r="O51" s="49"/>
@@ -49793,20 +49776,20 @@
       <c r="B54" s="9"/>
       <c r="C54" s="11"/>
       <c r="D54" s="28"/>
-      <c r="E54" s="133" t="s">
+      <c r="E54" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="134"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
-      <c r="N54" s="134"/>
-      <c r="O54" s="134"/>
-      <c r="P54" s="134"/>
+      <c r="F54" s="149"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="149"/>
+      <c r="I54" s="149"/>
+      <c r="J54" s="149"/>
+      <c r="K54" s="149"/>
+      <c r="L54" s="149"/>
+      <c r="M54" s="149"/>
+      <c r="N54" s="149"/>
+      <c r="O54" s="149"/>
+      <c r="P54" s="149"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
@@ -49836,18 +49819,18 @@
       <c r="B55" s="9"/>
       <c r="C55" s="11"/>
       <c r="D55" s="28"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
-      <c r="N55" s="134"/>
-      <c r="O55" s="134"/>
-      <c r="P55" s="134"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="149"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="149"/>
+      <c r="J55" s="149"/>
+      <c r="K55" s="149"/>
+      <c r="L55" s="149"/>
+      <c r="M55" s="149"/>
+      <c r="N55" s="149"/>
+      <c r="O55" s="149"/>
+      <c r="P55" s="149"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
@@ -50092,20 +50075,20 @@
       <c r="B61" s="9"/>
       <c r="C61" s="11"/>
       <c r="D61" s="28"/>
-      <c r="E61" s="131" t="s">
+      <c r="E61" s="146" t="s">
         <v>146</v>
       </c>
-      <c r="F61" s="132"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="132"/>
-      <c r="K61" s="132"/>
-      <c r="L61" s="132"/>
-      <c r="M61" s="132"/>
-      <c r="N61" s="132"/>
-      <c r="O61" s="132"/>
-      <c r="P61" s="132"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
+      <c r="J61" s="147"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
+      <c r="N61" s="147"/>
+      <c r="O61" s="147"/>
+      <c r="P61" s="147"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
@@ -50135,18 +50118,18 @@
       <c r="B62" s="9"/>
       <c r="C62" s="11"/>
       <c r="D62" s="28"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="132"/>
-      <c r="M62" s="132"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="132"/>
-      <c r="P62" s="132"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
+      <c r="J62" s="147"/>
+      <c r="K62" s="147"/>
+      <c r="L62" s="147"/>
+      <c r="M62" s="147"/>
+      <c r="N62" s="147"/>
+      <c r="O62" s="147"/>
+      <c r="P62" s="147"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
@@ -50467,17 +50450,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E30:AG30"/>
+    <mergeCell ref="E61:P62"/>
+    <mergeCell ref="E54:P55"/>
+    <mergeCell ref="E51:L51"/>
+    <mergeCell ref="E33:AF43"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="D15:S15"/>
     <mergeCell ref="D16:S16"/>
     <mergeCell ref="D23:S23"/>
     <mergeCell ref="E26:T26"/>
     <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="E30:AG30"/>
-    <mergeCell ref="E61:P62"/>
-    <mergeCell ref="E54:P55"/>
-    <mergeCell ref="E51:L51"/>
-    <mergeCell ref="E33:AF43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -50546,10 +50529,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
@@ -50595,10 +50578,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -51099,24 +51082,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -51144,22 +51127,22 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -51441,24 +51424,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="143"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -51569,24 +51552,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="136" t="s">
+      <c r="E26" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -51700,25 +51683,25 @@
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="129" t="s">
+      <c r="E29" s="144" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
@@ -51743,23 +51726,23 @@
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="28"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="145"/>
+      <c r="T30" s="145"/>
+      <c r="U30" s="145"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
@@ -52085,32 +52068,32 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="131" t="s">
+      <c r="E38" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="132"/>
-      <c r="Q38" s="132"/>
-      <c r="R38" s="132"/>
-      <c r="S38" s="132"/>
-      <c r="T38" s="132"/>
-      <c r="U38" s="132"/>
-      <c r="V38" s="132"/>
-      <c r="W38" s="132"/>
-      <c r="X38" s="132"/>
-      <c r="Y38" s="132"/>
-      <c r="Z38" s="132"/>
-      <c r="AA38" s="132"/>
-      <c r="AB38" s="132"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="147"/>
+      <c r="R38" s="147"/>
+      <c r="S38" s="147"/>
+      <c r="T38" s="147"/>
+      <c r="U38" s="147"/>
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+      <c r="X38" s="147"/>
+      <c r="Y38" s="147"/>
+      <c r="Z38" s="147"/>
+      <c r="AA38" s="147"/>
+      <c r="AB38" s="147"/>
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
       <c r="AE38" s="10"/>
@@ -52128,30 +52111,30 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="132"/>
-      <c r="Q39" s="132"/>
-      <c r="R39" s="132"/>
-      <c r="S39" s="132"/>
-      <c r="T39" s="132"/>
-      <c r="U39" s="132"/>
-      <c r="V39" s="132"/>
-      <c r="W39" s="132"/>
-      <c r="X39" s="132"/>
-      <c r="Y39" s="132"/>
-      <c r="Z39" s="132"/>
-      <c r="AA39" s="132"/>
-      <c r="AB39" s="132"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="147"/>
+      <c r="Q39" s="147"/>
+      <c r="R39" s="147"/>
+      <c r="S39" s="147"/>
+      <c r="T39" s="147"/>
+      <c r="U39" s="147"/>
+      <c r="V39" s="147"/>
+      <c r="W39" s="147"/>
+      <c r="X39" s="147"/>
+      <c r="Y39" s="147"/>
+      <c r="Z39" s="147"/>
+      <c r="AA39" s="147"/>
+      <c r="AB39" s="147"/>
       <c r="AC39" s="10"/>
       <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
@@ -52169,30 +52152,30 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="28"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="132"/>
-      <c r="Q40" s="132"/>
-      <c r="R40" s="132"/>
-      <c r="S40" s="132"/>
-      <c r="T40" s="132"/>
-      <c r="U40" s="132"/>
-      <c r="V40" s="132"/>
-      <c r="W40" s="132"/>
-      <c r="X40" s="132"/>
-      <c r="Y40" s="132"/>
-      <c r="Z40" s="132"/>
-      <c r="AA40" s="132"/>
-      <c r="AB40" s="132"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="147"/>
+      <c r="P40" s="147"/>
+      <c r="Q40" s="147"/>
+      <c r="R40" s="147"/>
+      <c r="S40" s="147"/>
+      <c r="T40" s="147"/>
+      <c r="U40" s="147"/>
+      <c r="V40" s="147"/>
+      <c r="W40" s="147"/>
+      <c r="X40" s="147"/>
+      <c r="Y40" s="147"/>
+      <c r="Z40" s="147"/>
+      <c r="AA40" s="147"/>
+      <c r="AB40" s="147"/>
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
@@ -52511,32 +52494,32 @@
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="131" t="s">
+      <c r="E48" s="146" t="s">
         <v>174</v>
       </c>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="132"/>
-      <c r="P48" s="132"/>
-      <c r="Q48" s="132"/>
-      <c r="R48" s="132"/>
-      <c r="S48" s="132"/>
-      <c r="T48" s="132"/>
-      <c r="U48" s="132"/>
-      <c r="V48" s="132"/>
-      <c r="W48" s="132"/>
-      <c r="X48" s="132"/>
-      <c r="Y48" s="132"/>
-      <c r="Z48" s="132"/>
-      <c r="AA48" s="132"/>
-      <c r="AB48" s="132"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="147"/>
+      <c r="S48" s="147"/>
+      <c r="T48" s="147"/>
+      <c r="U48" s="147"/>
+      <c r="V48" s="147"/>
+      <c r="W48" s="147"/>
+      <c r="X48" s="147"/>
+      <c r="Y48" s="147"/>
+      <c r="Z48" s="147"/>
+      <c r="AA48" s="147"/>
+      <c r="AB48" s="147"/>
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
@@ -52554,30 +52537,30 @@
       <c r="B49" s="9"/>
       <c r="C49" s="11"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="131"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="132"/>
-      <c r="K49" s="132"/>
-      <c r="L49" s="132"/>
-      <c r="M49" s="132"/>
-      <c r="N49" s="132"/>
-      <c r="O49" s="132"/>
-      <c r="P49" s="132"/>
-      <c r="Q49" s="132"/>
-      <c r="R49" s="132"/>
-      <c r="S49" s="132"/>
-      <c r="T49" s="132"/>
-      <c r="U49" s="132"/>
-      <c r="V49" s="132"/>
-      <c r="W49" s="132"/>
-      <c r="X49" s="132"/>
-      <c r="Y49" s="132"/>
-      <c r="Z49" s="132"/>
-      <c r="AA49" s="132"/>
-      <c r="AB49" s="132"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="147"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="147"/>
+      <c r="M49" s="147"/>
+      <c r="N49" s="147"/>
+      <c r="O49" s="147"/>
+      <c r="P49" s="147"/>
+      <c r="Q49" s="147"/>
+      <c r="R49" s="147"/>
+      <c r="S49" s="147"/>
+      <c r="T49" s="147"/>
+      <c r="U49" s="147"/>
+      <c r="V49" s="147"/>
+      <c r="W49" s="147"/>
+      <c r="X49" s="147"/>
+      <c r="Y49" s="147"/>
+      <c r="Z49" s="147"/>
+      <c r="AA49" s="147"/>
+      <c r="AB49" s="147"/>
       <c r="AC49" s="10"/>
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
@@ -53062,32 +53045,32 @@
       <c r="B61" s="9"/>
       <c r="C61" s="11"/>
       <c r="D61" s="28"/>
-      <c r="E61" s="131" t="s">
+      <c r="E61" s="146" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="132"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="132"/>
-      <c r="K61" s="132"/>
-      <c r="L61" s="132"/>
-      <c r="M61" s="132"/>
-      <c r="N61" s="132"/>
-      <c r="O61" s="132"/>
-      <c r="P61" s="132"/>
-      <c r="Q61" s="132"/>
-      <c r="R61" s="132"/>
-      <c r="S61" s="132"/>
-      <c r="T61" s="132"/>
-      <c r="U61" s="132"/>
-      <c r="V61" s="132"/>
-      <c r="W61" s="132"/>
-      <c r="X61" s="132"/>
-      <c r="Y61" s="132"/>
-      <c r="Z61" s="132"/>
-      <c r="AA61" s="132"/>
-      <c r="AB61" s="132"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
+      <c r="J61" s="147"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
+      <c r="N61" s="147"/>
+      <c r="O61" s="147"/>
+      <c r="P61" s="147"/>
+      <c r="Q61" s="147"/>
+      <c r="R61" s="147"/>
+      <c r="S61" s="147"/>
+      <c r="T61" s="147"/>
+      <c r="U61" s="147"/>
+      <c r="V61" s="147"/>
+      <c r="W61" s="147"/>
+      <c r="X61" s="147"/>
+      <c r="Y61" s="147"/>
+      <c r="Z61" s="147"/>
+      <c r="AA61" s="147"/>
+      <c r="AB61" s="147"/>
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
       <c r="AE61" s="10"/>
@@ -53105,30 +53088,30 @@
       <c r="B62" s="9"/>
       <c r="C62" s="11"/>
       <c r="D62" s="28"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="132"/>
-      <c r="M62" s="132"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="132"/>
-      <c r="P62" s="132"/>
-      <c r="Q62" s="132"/>
-      <c r="R62" s="132"/>
-      <c r="S62" s="132"/>
-      <c r="T62" s="132"/>
-      <c r="U62" s="132"/>
-      <c r="V62" s="132"/>
-      <c r="W62" s="132"/>
-      <c r="X62" s="132"/>
-      <c r="Y62" s="132"/>
-      <c r="Z62" s="132"/>
-      <c r="AA62" s="132"/>
-      <c r="AB62" s="132"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
+      <c r="J62" s="147"/>
+      <c r="K62" s="147"/>
+      <c r="L62" s="147"/>
+      <c r="M62" s="147"/>
+      <c r="N62" s="147"/>
+      <c r="O62" s="147"/>
+      <c r="P62" s="147"/>
+      <c r="Q62" s="147"/>
+      <c r="R62" s="147"/>
+      <c r="S62" s="147"/>
+      <c r="T62" s="147"/>
+      <c r="U62" s="147"/>
+      <c r="V62" s="147"/>
+      <c r="W62" s="147"/>
+      <c r="X62" s="147"/>
+      <c r="Y62" s="147"/>
+      <c r="Z62" s="147"/>
+      <c r="AA62" s="147"/>
+      <c r="AB62" s="147"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
       <c r="AE62" s="10"/>
@@ -53146,30 +53129,30 @@
       <c r="B63" s="9"/>
       <c r="C63" s="11"/>
       <c r="D63" s="28"/>
-      <c r="E63" s="131"/>
-      <c r="F63" s="132"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="132"/>
-      <c r="K63" s="132"/>
-      <c r="L63" s="132"/>
-      <c r="M63" s="132"/>
-      <c r="N63" s="132"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="132"/>
-      <c r="Q63" s="132"/>
-      <c r="R63" s="132"/>
-      <c r="S63" s="132"/>
-      <c r="T63" s="132"/>
-      <c r="U63" s="132"/>
-      <c r="V63" s="132"/>
-      <c r="W63" s="132"/>
-      <c r="X63" s="132"/>
-      <c r="Y63" s="132"/>
-      <c r="Z63" s="132"/>
-      <c r="AA63" s="132"/>
-      <c r="AB63" s="132"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="147"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="147"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="147"/>
+      <c r="N63" s="147"/>
+      <c r="O63" s="147"/>
+      <c r="P63" s="147"/>
+      <c r="Q63" s="147"/>
+      <c r="R63" s="147"/>
+      <c r="S63" s="147"/>
+      <c r="T63" s="147"/>
+      <c r="U63" s="147"/>
+      <c r="V63" s="147"/>
+      <c r="W63" s="147"/>
+      <c r="X63" s="147"/>
+      <c r="Y63" s="147"/>
+      <c r="Z63" s="147"/>
+      <c r="AA63" s="147"/>
+      <c r="AB63" s="147"/>
       <c r="AC63" s="10"/>
       <c r="AD63" s="10"/>
       <c r="AE63" s="10"/>
@@ -53187,30 +53170,30 @@
       <c r="B64" s="9"/>
       <c r="C64" s="11"/>
       <c r="D64" s="28"/>
-      <c r="E64" s="131"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="132"/>
-      <c r="O64" s="132"/>
-      <c r="P64" s="132"/>
-      <c r="Q64" s="132"/>
-      <c r="R64" s="132"/>
-      <c r="S64" s="132"/>
-      <c r="T64" s="132"/>
-      <c r="U64" s="132"/>
-      <c r="V64" s="132"/>
-      <c r="W64" s="132"/>
-      <c r="X64" s="132"/>
-      <c r="Y64" s="132"/>
-      <c r="Z64" s="132"/>
-      <c r="AA64" s="132"/>
-      <c r="AB64" s="132"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
+      <c r="J64" s="147"/>
+      <c r="K64" s="147"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="147"/>
+      <c r="N64" s="147"/>
+      <c r="O64" s="147"/>
+      <c r="P64" s="147"/>
+      <c r="Q64" s="147"/>
+      <c r="R64" s="147"/>
+      <c r="S64" s="147"/>
+      <c r="T64" s="147"/>
+      <c r="U64" s="147"/>
+      <c r="V64" s="147"/>
+      <c r="W64" s="147"/>
+      <c r="X64" s="147"/>
+      <c r="Y64" s="147"/>
+      <c r="Z64" s="147"/>
+      <c r="AA64" s="147"/>
+      <c r="AB64" s="147"/>
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
       <c r="AE64" s="10"/>
@@ -53228,30 +53211,30 @@
       <c r="B65" s="9"/>
       <c r="C65" s="11"/>
       <c r="D65" s="28"/>
-      <c r="E65" s="131"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="132"/>
-      <c r="L65" s="132"/>
-      <c r="M65" s="132"/>
-      <c r="N65" s="132"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="132"/>
-      <c r="Q65" s="132"/>
-      <c r="R65" s="132"/>
-      <c r="S65" s="132"/>
-      <c r="T65" s="132"/>
-      <c r="U65" s="132"/>
-      <c r="V65" s="132"/>
-      <c r="W65" s="132"/>
-      <c r="X65" s="132"/>
-      <c r="Y65" s="132"/>
-      <c r="Z65" s="132"/>
-      <c r="AA65" s="132"/>
-      <c r="AB65" s="132"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="147"/>
+      <c r="G65" s="147"/>
+      <c r="H65" s="147"/>
+      <c r="I65" s="147"/>
+      <c r="J65" s="147"/>
+      <c r="K65" s="147"/>
+      <c r="L65" s="147"/>
+      <c r="M65" s="147"/>
+      <c r="N65" s="147"/>
+      <c r="O65" s="147"/>
+      <c r="P65" s="147"/>
+      <c r="Q65" s="147"/>
+      <c r="R65" s="147"/>
+      <c r="S65" s="147"/>
+      <c r="T65" s="147"/>
+      <c r="U65" s="147"/>
+      <c r="V65" s="147"/>
+      <c r="W65" s="147"/>
+      <c r="X65" s="147"/>
+      <c r="Y65" s="147"/>
+      <c r="Z65" s="147"/>
+      <c r="AA65" s="147"/>
+      <c r="AB65" s="147"/>
       <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
@@ -53269,30 +53252,30 @@
       <c r="B66" s="9"/>
       <c r="C66" s="11"/>
       <c r="D66" s="28"/>
-      <c r="E66" s="131"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="132"/>
-      <c r="P66" s="132"/>
-      <c r="Q66" s="132"/>
-      <c r="R66" s="132"/>
-      <c r="S66" s="132"/>
-      <c r="T66" s="132"/>
-      <c r="U66" s="132"/>
-      <c r="V66" s="132"/>
-      <c r="W66" s="132"/>
-      <c r="X66" s="132"/>
-      <c r="Y66" s="132"/>
-      <c r="Z66" s="132"/>
-      <c r="AA66" s="132"/>
-      <c r="AB66" s="132"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="147"/>
+      <c r="G66" s="147"/>
+      <c r="H66" s="147"/>
+      <c r="I66" s="147"/>
+      <c r="J66" s="147"/>
+      <c r="K66" s="147"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="147"/>
+      <c r="N66" s="147"/>
+      <c r="O66" s="147"/>
+      <c r="P66" s="147"/>
+      <c r="Q66" s="147"/>
+      <c r="R66" s="147"/>
+      <c r="S66" s="147"/>
+      <c r="T66" s="147"/>
+      <c r="U66" s="147"/>
+      <c r="V66" s="147"/>
+      <c r="W66" s="147"/>
+      <c r="X66" s="147"/>
+      <c r="Y66" s="147"/>
+      <c r="Z66" s="147"/>
+      <c r="AA66" s="147"/>
+      <c r="AB66" s="147"/>
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
       <c r="AE66" s="10"/>
@@ -53310,30 +53293,30 @@
       <c r="B67" s="9"/>
       <c r="C67" s="11"/>
       <c r="D67" s="28"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="132"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="132"/>
-      <c r="L67" s="132"/>
-      <c r="M67" s="132"/>
-      <c r="N67" s="132"/>
-      <c r="O67" s="132"/>
-      <c r="P67" s="132"/>
-      <c r="Q67" s="132"/>
-      <c r="R67" s="132"/>
-      <c r="S67" s="132"/>
-      <c r="T67" s="132"/>
-      <c r="U67" s="132"/>
-      <c r="V67" s="132"/>
-      <c r="W67" s="132"/>
-      <c r="X67" s="132"/>
-      <c r="Y67" s="132"/>
-      <c r="Z67" s="132"/>
-      <c r="AA67" s="132"/>
-      <c r="AB67" s="132"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="147"/>
+      <c r="G67" s="147"/>
+      <c r="H67" s="147"/>
+      <c r="I67" s="147"/>
+      <c r="J67" s="147"/>
+      <c r="K67" s="147"/>
+      <c r="L67" s="147"/>
+      <c r="M67" s="147"/>
+      <c r="N67" s="147"/>
+      <c r="O67" s="147"/>
+      <c r="P67" s="147"/>
+      <c r="Q67" s="147"/>
+      <c r="R67" s="147"/>
+      <c r="S67" s="147"/>
+      <c r="T67" s="147"/>
+      <c r="U67" s="147"/>
+      <c r="V67" s="147"/>
+      <c r="W67" s="147"/>
+      <c r="X67" s="147"/>
+      <c r="Y67" s="147"/>
+      <c r="Z67" s="147"/>
+      <c r="AA67" s="147"/>
+      <c r="AB67" s="147"/>
       <c r="AC67" s="10"/>
       <c r="AD67" s="10"/>
       <c r="AE67" s="10"/>
@@ -53351,30 +53334,30 @@
       <c r="B68" s="9"/>
       <c r="C68" s="11"/>
       <c r="D68" s="28"/>
-      <c r="E68" s="131"/>
-      <c r="F68" s="132"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="132"/>
-      <c r="M68" s="132"/>
-      <c r="N68" s="132"/>
-      <c r="O68" s="132"/>
-      <c r="P68" s="132"/>
-      <c r="Q68" s="132"/>
-      <c r="R68" s="132"/>
-      <c r="S68" s="132"/>
-      <c r="T68" s="132"/>
-      <c r="U68" s="132"/>
-      <c r="V68" s="132"/>
-      <c r="W68" s="132"/>
-      <c r="X68" s="132"/>
-      <c r="Y68" s="132"/>
-      <c r="Z68" s="132"/>
-      <c r="AA68" s="132"/>
-      <c r="AB68" s="132"/>
+      <c r="E68" s="146"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="147"/>
+      <c r="I68" s="147"/>
+      <c r="J68" s="147"/>
+      <c r="K68" s="147"/>
+      <c r="L68" s="147"/>
+      <c r="M68" s="147"/>
+      <c r="N68" s="147"/>
+      <c r="O68" s="147"/>
+      <c r="P68" s="147"/>
+      <c r="Q68" s="147"/>
+      <c r="R68" s="147"/>
+      <c r="S68" s="147"/>
+      <c r="T68" s="147"/>
+      <c r="U68" s="147"/>
+      <c r="V68" s="147"/>
+      <c r="W68" s="147"/>
+      <c r="X68" s="147"/>
+      <c r="Y68" s="147"/>
+      <c r="Z68" s="147"/>
+      <c r="AA68" s="147"/>
+      <c r="AB68" s="147"/>
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
@@ -53392,30 +53375,30 @@
       <c r="B69" s="9"/>
       <c r="C69" s="11"/>
       <c r="D69" s="28"/>
-      <c r="E69" s="131"/>
-      <c r="F69" s="132"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="132"/>
-      <c r="M69" s="132"/>
-      <c r="N69" s="132"/>
-      <c r="O69" s="132"/>
-      <c r="P69" s="132"/>
-      <c r="Q69" s="132"/>
-      <c r="R69" s="132"/>
-      <c r="S69" s="132"/>
-      <c r="T69" s="132"/>
-      <c r="U69" s="132"/>
-      <c r="V69" s="132"/>
-      <c r="W69" s="132"/>
-      <c r="X69" s="132"/>
-      <c r="Y69" s="132"/>
-      <c r="Z69" s="132"/>
-      <c r="AA69" s="132"/>
-      <c r="AB69" s="132"/>
+      <c r="E69" s="146"/>
+      <c r="F69" s="147"/>
+      <c r="G69" s="147"/>
+      <c r="H69" s="147"/>
+      <c r="I69" s="147"/>
+      <c r="J69" s="147"/>
+      <c r="K69" s="147"/>
+      <c r="L69" s="147"/>
+      <c r="M69" s="147"/>
+      <c r="N69" s="147"/>
+      <c r="O69" s="147"/>
+      <c r="P69" s="147"/>
+      <c r="Q69" s="147"/>
+      <c r="R69" s="147"/>
+      <c r="S69" s="147"/>
+      <c r="T69" s="147"/>
+      <c r="U69" s="147"/>
+      <c r="V69" s="147"/>
+      <c r="W69" s="147"/>
+      <c r="X69" s="147"/>
+      <c r="Y69" s="147"/>
+      <c r="Z69" s="147"/>
+      <c r="AA69" s="147"/>
+      <c r="AB69" s="147"/>
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
       <c r="AE69" s="10"/>
@@ -53433,30 +53416,30 @@
       <c r="B70" s="9"/>
       <c r="C70" s="11"/>
       <c r="D70" s="28"/>
-      <c r="E70" s="131"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="132"/>
-      <c r="M70" s="132"/>
-      <c r="N70" s="132"/>
-      <c r="O70" s="132"/>
-      <c r="P70" s="132"/>
-      <c r="Q70" s="132"/>
-      <c r="R70" s="132"/>
-      <c r="S70" s="132"/>
-      <c r="T70" s="132"/>
-      <c r="U70" s="132"/>
-      <c r="V70" s="132"/>
-      <c r="W70" s="132"/>
-      <c r="X70" s="132"/>
-      <c r="Y70" s="132"/>
-      <c r="Z70" s="132"/>
-      <c r="AA70" s="132"/>
-      <c r="AB70" s="132"/>
+      <c r="E70" s="146"/>
+      <c r="F70" s="147"/>
+      <c r="G70" s="147"/>
+      <c r="H70" s="147"/>
+      <c r="I70" s="147"/>
+      <c r="J70" s="147"/>
+      <c r="K70" s="147"/>
+      <c r="L70" s="147"/>
+      <c r="M70" s="147"/>
+      <c r="N70" s="147"/>
+      <c r="O70" s="147"/>
+      <c r="P70" s="147"/>
+      <c r="Q70" s="147"/>
+      <c r="R70" s="147"/>
+      <c r="S70" s="147"/>
+      <c r="T70" s="147"/>
+      <c r="U70" s="147"/>
+      <c r="V70" s="147"/>
+      <c r="W70" s="147"/>
+      <c r="X70" s="147"/>
+      <c r="Y70" s="147"/>
+      <c r="Z70" s="147"/>
+      <c r="AA70" s="147"/>
+      <c r="AB70" s="147"/>
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
       <c r="AE70" s="10"/>
@@ -53771,32 +53754,32 @@
       <c r="B78" s="9"/>
       <c r="C78" s="11"/>
       <c r="D78" s="28"/>
-      <c r="E78" s="131" t="s">
+      <c r="E78" s="146" t="s">
         <v>177</v>
       </c>
-      <c r="F78" s="132"/>
-      <c r="G78" s="132"/>
-      <c r="H78" s="132"/>
-      <c r="I78" s="132"/>
-      <c r="J78" s="132"/>
-      <c r="K78" s="132"/>
-      <c r="L78" s="132"/>
-      <c r="M78" s="132"/>
-      <c r="N78" s="132"/>
-      <c r="O78" s="132"/>
-      <c r="P78" s="132"/>
-      <c r="Q78" s="132"/>
-      <c r="R78" s="132"/>
-      <c r="S78" s="132"/>
-      <c r="T78" s="132"/>
-      <c r="U78" s="132"/>
-      <c r="V78" s="132"/>
-      <c r="W78" s="132"/>
-      <c r="X78" s="132"/>
-      <c r="Y78" s="132"/>
-      <c r="Z78" s="132"/>
-      <c r="AA78" s="132"/>
-      <c r="AB78" s="132"/>
+      <c r="F78" s="147"/>
+      <c r="G78" s="147"/>
+      <c r="H78" s="147"/>
+      <c r="I78" s="147"/>
+      <c r="J78" s="147"/>
+      <c r="K78" s="147"/>
+      <c r="L78" s="147"/>
+      <c r="M78" s="147"/>
+      <c r="N78" s="147"/>
+      <c r="O78" s="147"/>
+      <c r="P78" s="147"/>
+      <c r="Q78" s="147"/>
+      <c r="R78" s="147"/>
+      <c r="S78" s="147"/>
+      <c r="T78" s="147"/>
+      <c r="U78" s="147"/>
+      <c r="V78" s="147"/>
+      <c r="W78" s="147"/>
+      <c r="X78" s="147"/>
+      <c r="Y78" s="147"/>
+      <c r="Z78" s="147"/>
+      <c r="AA78" s="147"/>
+      <c r="AB78" s="147"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10"/>
       <c r="AE78" s="10"/>
@@ -53814,30 +53797,30 @@
       <c r="B79" s="9"/>
       <c r="C79" s="11"/>
       <c r="D79" s="28"/>
-      <c r="E79" s="131"/>
-      <c r="F79" s="132"/>
-      <c r="G79" s="132"/>
-      <c r="H79" s="132"/>
-      <c r="I79" s="132"/>
-      <c r="J79" s="132"/>
-      <c r="K79" s="132"/>
-      <c r="L79" s="132"/>
-      <c r="M79" s="132"/>
-      <c r="N79" s="132"/>
-      <c r="O79" s="132"/>
-      <c r="P79" s="132"/>
-      <c r="Q79" s="132"/>
-      <c r="R79" s="132"/>
-      <c r="S79" s="132"/>
-      <c r="T79" s="132"/>
-      <c r="U79" s="132"/>
-      <c r="V79" s="132"/>
-      <c r="W79" s="132"/>
-      <c r="X79" s="132"/>
-      <c r="Y79" s="132"/>
-      <c r="Z79" s="132"/>
-      <c r="AA79" s="132"/>
-      <c r="AB79" s="132"/>
+      <c r="E79" s="146"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="147"/>
+      <c r="I79" s="147"/>
+      <c r="J79" s="147"/>
+      <c r="K79" s="147"/>
+      <c r="L79" s="147"/>
+      <c r="M79" s="147"/>
+      <c r="N79" s="147"/>
+      <c r="O79" s="147"/>
+      <c r="P79" s="147"/>
+      <c r="Q79" s="147"/>
+      <c r="R79" s="147"/>
+      <c r="S79" s="147"/>
+      <c r="T79" s="147"/>
+      <c r="U79" s="147"/>
+      <c r="V79" s="147"/>
+      <c r="W79" s="147"/>
+      <c r="X79" s="147"/>
+      <c r="Y79" s="147"/>
+      <c r="Z79" s="147"/>
+      <c r="AA79" s="147"/>
+      <c r="AB79" s="147"/>
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
       <c r="AE79" s="10"/>
@@ -53855,30 +53838,30 @@
       <c r="B80" s="9"/>
       <c r="C80" s="11"/>
       <c r="D80" s="28"/>
-      <c r="E80" s="131"/>
-      <c r="F80" s="132"/>
-      <c r="G80" s="132"/>
-      <c r="H80" s="132"/>
-      <c r="I80" s="132"/>
-      <c r="J80" s="132"/>
-      <c r="K80" s="132"/>
-      <c r="L80" s="132"/>
-      <c r="M80" s="132"/>
-      <c r="N80" s="132"/>
-      <c r="O80" s="132"/>
-      <c r="P80" s="132"/>
-      <c r="Q80" s="132"/>
-      <c r="R80" s="132"/>
-      <c r="S80" s="132"/>
-      <c r="T80" s="132"/>
-      <c r="U80" s="132"/>
-      <c r="V80" s="132"/>
-      <c r="W80" s="132"/>
-      <c r="X80" s="132"/>
-      <c r="Y80" s="132"/>
-      <c r="Z80" s="132"/>
-      <c r="AA80" s="132"/>
-      <c r="AB80" s="132"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="147"/>
+      <c r="G80" s="147"/>
+      <c r="H80" s="147"/>
+      <c r="I80" s="147"/>
+      <c r="J80" s="147"/>
+      <c r="K80" s="147"/>
+      <c r="L80" s="147"/>
+      <c r="M80" s="147"/>
+      <c r="N80" s="147"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="147"/>
+      <c r="Q80" s="147"/>
+      <c r="R80" s="147"/>
+      <c r="S80" s="147"/>
+      <c r="T80" s="147"/>
+      <c r="U80" s="147"/>
+      <c r="V80" s="147"/>
+      <c r="W80" s="147"/>
+      <c r="X80" s="147"/>
+      <c r="Y80" s="147"/>
+      <c r="Z80" s="147"/>
+      <c r="AA80" s="147"/>
+      <c r="AB80" s="147"/>
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
       <c r="AE80" s="10"/>
@@ -53896,30 +53879,30 @@
       <c r="B81" s="9"/>
       <c r="C81" s="11"/>
       <c r="D81" s="28"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="132"/>
-      <c r="G81" s="132"/>
-      <c r="H81" s="132"/>
-      <c r="I81" s="132"/>
-      <c r="J81" s="132"/>
-      <c r="K81" s="132"/>
-      <c r="L81" s="132"/>
-      <c r="M81" s="132"/>
-      <c r="N81" s="132"/>
-      <c r="O81" s="132"/>
-      <c r="P81" s="132"/>
-      <c r="Q81" s="132"/>
-      <c r="R81" s="132"/>
-      <c r="S81" s="132"/>
-      <c r="T81" s="132"/>
-      <c r="U81" s="132"/>
-      <c r="V81" s="132"/>
-      <c r="W81" s="132"/>
-      <c r="X81" s="132"/>
-      <c r="Y81" s="132"/>
-      <c r="Z81" s="132"/>
-      <c r="AA81" s="132"/>
-      <c r="AB81" s="132"/>
+      <c r="E81" s="146"/>
+      <c r="F81" s="147"/>
+      <c r="G81" s="147"/>
+      <c r="H81" s="147"/>
+      <c r="I81" s="147"/>
+      <c r="J81" s="147"/>
+      <c r="K81" s="147"/>
+      <c r="L81" s="147"/>
+      <c r="M81" s="147"/>
+      <c r="N81" s="147"/>
+      <c r="O81" s="147"/>
+      <c r="P81" s="147"/>
+      <c r="Q81" s="147"/>
+      <c r="R81" s="147"/>
+      <c r="S81" s="147"/>
+      <c r="T81" s="147"/>
+      <c r="U81" s="147"/>
+      <c r="V81" s="147"/>
+      <c r="W81" s="147"/>
+      <c r="X81" s="147"/>
+      <c r="Y81" s="147"/>
+      <c r="Z81" s="147"/>
+      <c r="AA81" s="147"/>
+      <c r="AB81" s="147"/>
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
       <c r="AE81" s="10"/>
@@ -53937,30 +53920,30 @@
       <c r="B82" s="9"/>
       <c r="C82" s="11"/>
       <c r="D82" s="28"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="132"/>
-      <c r="G82" s="132"/>
-      <c r="H82" s="132"/>
-      <c r="I82" s="132"/>
-      <c r="J82" s="132"/>
-      <c r="K82" s="132"/>
-      <c r="L82" s="132"/>
-      <c r="M82" s="132"/>
-      <c r="N82" s="132"/>
-      <c r="O82" s="132"/>
-      <c r="P82" s="132"/>
-      <c r="Q82" s="132"/>
-      <c r="R82" s="132"/>
-      <c r="S82" s="132"/>
-      <c r="T82" s="132"/>
-      <c r="U82" s="132"/>
-      <c r="V82" s="132"/>
-      <c r="W82" s="132"/>
-      <c r="X82" s="132"/>
-      <c r="Y82" s="132"/>
-      <c r="Z82" s="132"/>
-      <c r="AA82" s="132"/>
-      <c r="AB82" s="132"/>
+      <c r="E82" s="146"/>
+      <c r="F82" s="147"/>
+      <c r="G82" s="147"/>
+      <c r="H82" s="147"/>
+      <c r="I82" s="147"/>
+      <c r="J82" s="147"/>
+      <c r="K82" s="147"/>
+      <c r="L82" s="147"/>
+      <c r="M82" s="147"/>
+      <c r="N82" s="147"/>
+      <c r="O82" s="147"/>
+      <c r="P82" s="147"/>
+      <c r="Q82" s="147"/>
+      <c r="R82" s="147"/>
+      <c r="S82" s="147"/>
+      <c r="T82" s="147"/>
+      <c r="U82" s="147"/>
+      <c r="V82" s="147"/>
+      <c r="W82" s="147"/>
+      <c r="X82" s="147"/>
+      <c r="Y82" s="147"/>
+      <c r="Z82" s="147"/>
+      <c r="AA82" s="147"/>
+      <c r="AB82" s="147"/>
       <c r="AC82" s="10"/>
       <c r="AD82" s="10"/>
       <c r="AE82" s="10"/>
@@ -53978,30 +53961,30 @@
       <c r="B83" s="9"/>
       <c r="C83" s="11"/>
       <c r="D83" s="28"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="132"/>
-      <c r="G83" s="132"/>
-      <c r="H83" s="132"/>
-      <c r="I83" s="132"/>
-      <c r="J83" s="132"/>
-      <c r="K83" s="132"/>
-      <c r="L83" s="132"/>
-      <c r="M83" s="132"/>
-      <c r="N83" s="132"/>
-      <c r="O83" s="132"/>
-      <c r="P83" s="132"/>
-      <c r="Q83" s="132"/>
-      <c r="R83" s="132"/>
-      <c r="S83" s="132"/>
-      <c r="T83" s="132"/>
-      <c r="U83" s="132"/>
-      <c r="V83" s="132"/>
-      <c r="W83" s="132"/>
-      <c r="X83" s="132"/>
-      <c r="Y83" s="132"/>
-      <c r="Z83" s="132"/>
-      <c r="AA83" s="132"/>
-      <c r="AB83" s="132"/>
+      <c r="E83" s="146"/>
+      <c r="F83" s="147"/>
+      <c r="G83" s="147"/>
+      <c r="H83" s="147"/>
+      <c r="I83" s="147"/>
+      <c r="J83" s="147"/>
+      <c r="K83" s="147"/>
+      <c r="L83" s="147"/>
+      <c r="M83" s="147"/>
+      <c r="N83" s="147"/>
+      <c r="O83" s="147"/>
+      <c r="P83" s="147"/>
+      <c r="Q83" s="147"/>
+      <c r="R83" s="147"/>
+      <c r="S83" s="147"/>
+      <c r="T83" s="147"/>
+      <c r="U83" s="147"/>
+      <c r="V83" s="147"/>
+      <c r="W83" s="147"/>
+      <c r="X83" s="147"/>
+      <c r="Y83" s="147"/>
+      <c r="Z83" s="147"/>
+      <c r="AA83" s="147"/>
+      <c r="AB83" s="147"/>
       <c r="AC83" s="10"/>
       <c r="AD83" s="10"/>
       <c r="AE83" s="10"/>
@@ -54019,30 +54002,30 @@
       <c r="B84" s="9"/>
       <c r="C84" s="11"/>
       <c r="D84" s="28"/>
-      <c r="E84" s="131"/>
-      <c r="F84" s="132"/>
-      <c r="G84" s="132"/>
-      <c r="H84" s="132"/>
-      <c r="I84" s="132"/>
-      <c r="J84" s="132"/>
-      <c r="K84" s="132"/>
-      <c r="L84" s="132"/>
-      <c r="M84" s="132"/>
-      <c r="N84" s="132"/>
-      <c r="O84" s="132"/>
-      <c r="P84" s="132"/>
-      <c r="Q84" s="132"/>
-      <c r="R84" s="132"/>
-      <c r="S84" s="132"/>
-      <c r="T84" s="132"/>
-      <c r="U84" s="132"/>
-      <c r="V84" s="132"/>
-      <c r="W84" s="132"/>
-      <c r="X84" s="132"/>
-      <c r="Y84" s="132"/>
-      <c r="Z84" s="132"/>
-      <c r="AA84" s="132"/>
-      <c r="AB84" s="132"/>
+      <c r="E84" s="146"/>
+      <c r="F84" s="147"/>
+      <c r="G84" s="147"/>
+      <c r="H84" s="147"/>
+      <c r="I84" s="147"/>
+      <c r="J84" s="147"/>
+      <c r="K84" s="147"/>
+      <c r="L84" s="147"/>
+      <c r="M84" s="147"/>
+      <c r="N84" s="147"/>
+      <c r="O84" s="147"/>
+      <c r="P84" s="147"/>
+      <c r="Q84" s="147"/>
+      <c r="R84" s="147"/>
+      <c r="S84" s="147"/>
+      <c r="T84" s="147"/>
+      <c r="U84" s="147"/>
+      <c r="V84" s="147"/>
+      <c r="W84" s="147"/>
+      <c r="X84" s="147"/>
+      <c r="Y84" s="147"/>
+      <c r="Z84" s="147"/>
+      <c r="AA84" s="147"/>
+      <c r="AB84" s="147"/>
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
       <c r="AE84" s="10"/>
@@ -54060,30 +54043,30 @@
       <c r="B85" s="9"/>
       <c r="C85" s="11"/>
       <c r="D85" s="28"/>
-      <c r="E85" s="131"/>
-      <c r="F85" s="132"/>
-      <c r="G85" s="132"/>
-      <c r="H85" s="132"/>
-      <c r="I85" s="132"/>
-      <c r="J85" s="132"/>
-      <c r="K85" s="132"/>
-      <c r="L85" s="132"/>
-      <c r="M85" s="132"/>
-      <c r="N85" s="132"/>
-      <c r="O85" s="132"/>
-      <c r="P85" s="132"/>
-      <c r="Q85" s="132"/>
-      <c r="R85" s="132"/>
-      <c r="S85" s="132"/>
-      <c r="T85" s="132"/>
-      <c r="U85" s="132"/>
-      <c r="V85" s="132"/>
-      <c r="W85" s="132"/>
-      <c r="X85" s="132"/>
-      <c r="Y85" s="132"/>
-      <c r="Z85" s="132"/>
-      <c r="AA85" s="132"/>
-      <c r="AB85" s="132"/>
+      <c r="E85" s="146"/>
+      <c r="F85" s="147"/>
+      <c r="G85" s="147"/>
+      <c r="H85" s="147"/>
+      <c r="I85" s="147"/>
+      <c r="J85" s="147"/>
+      <c r="K85" s="147"/>
+      <c r="L85" s="147"/>
+      <c r="M85" s="147"/>
+      <c r="N85" s="147"/>
+      <c r="O85" s="147"/>
+      <c r="P85" s="147"/>
+      <c r="Q85" s="147"/>
+      <c r="R85" s="147"/>
+      <c r="S85" s="147"/>
+      <c r="T85" s="147"/>
+      <c r="U85" s="147"/>
+      <c r="V85" s="147"/>
+      <c r="W85" s="147"/>
+      <c r="X85" s="147"/>
+      <c r="Y85" s="147"/>
+      <c r="Z85" s="147"/>
+      <c r="AA85" s="147"/>
+      <c r="AB85" s="147"/>
       <c r="AC85" s="10"/>
       <c r="AD85" s="10"/>
       <c r="AE85" s="10"/>
@@ -54101,30 +54084,30 @@
       <c r="B86" s="9"/>
       <c r="C86" s="11"/>
       <c r="D86" s="28"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="132"/>
-      <c r="G86" s="132"/>
-      <c r="H86" s="132"/>
-      <c r="I86" s="132"/>
-      <c r="J86" s="132"/>
-      <c r="K86" s="132"/>
-      <c r="L86" s="132"/>
-      <c r="M86" s="132"/>
-      <c r="N86" s="132"/>
-      <c r="O86" s="132"/>
-      <c r="P86" s="132"/>
-      <c r="Q86" s="132"/>
-      <c r="R86" s="132"/>
-      <c r="S86" s="132"/>
-      <c r="T86" s="132"/>
-      <c r="U86" s="132"/>
-      <c r="V86" s="132"/>
-      <c r="W86" s="132"/>
-      <c r="X86" s="132"/>
-      <c r="Y86" s="132"/>
-      <c r="Z86" s="132"/>
-      <c r="AA86" s="132"/>
-      <c r="AB86" s="132"/>
+      <c r="E86" s="146"/>
+      <c r="F86" s="147"/>
+      <c r="G86" s="147"/>
+      <c r="H86" s="147"/>
+      <c r="I86" s="147"/>
+      <c r="J86" s="147"/>
+      <c r="K86" s="147"/>
+      <c r="L86" s="147"/>
+      <c r="M86" s="147"/>
+      <c r="N86" s="147"/>
+      <c r="O86" s="147"/>
+      <c r="P86" s="147"/>
+      <c r="Q86" s="147"/>
+      <c r="R86" s="147"/>
+      <c r="S86" s="147"/>
+      <c r="T86" s="147"/>
+      <c r="U86" s="147"/>
+      <c r="V86" s="147"/>
+      <c r="W86" s="147"/>
+      <c r="X86" s="147"/>
+      <c r="Y86" s="147"/>
+      <c r="Z86" s="147"/>
+      <c r="AA86" s="147"/>
+      <c r="AB86" s="147"/>
       <c r="AC86" s="10"/>
       <c r="AD86" s="10"/>
       <c r="AE86" s="10"/>
@@ -54142,30 +54125,30 @@
       <c r="B87" s="9"/>
       <c r="C87" s="11"/>
       <c r="D87" s="28"/>
-      <c r="E87" s="131"/>
-      <c r="F87" s="132"/>
-      <c r="G87" s="132"/>
-      <c r="H87" s="132"/>
-      <c r="I87" s="132"/>
-      <c r="J87" s="132"/>
-      <c r="K87" s="132"/>
-      <c r="L87" s="132"/>
-      <c r="M87" s="132"/>
-      <c r="N87" s="132"/>
-      <c r="O87" s="132"/>
-      <c r="P87" s="132"/>
-      <c r="Q87" s="132"/>
-      <c r="R87" s="132"/>
-      <c r="S87" s="132"/>
-      <c r="T87" s="132"/>
-      <c r="U87" s="132"/>
-      <c r="V87" s="132"/>
-      <c r="W87" s="132"/>
-      <c r="X87" s="132"/>
-      <c r="Y87" s="132"/>
-      <c r="Z87" s="132"/>
-      <c r="AA87" s="132"/>
-      <c r="AB87" s="132"/>
+      <c r="E87" s="146"/>
+      <c r="F87" s="147"/>
+      <c r="G87" s="147"/>
+      <c r="H87" s="147"/>
+      <c r="I87" s="147"/>
+      <c r="J87" s="147"/>
+      <c r="K87" s="147"/>
+      <c r="L87" s="147"/>
+      <c r="M87" s="147"/>
+      <c r="N87" s="147"/>
+      <c r="O87" s="147"/>
+      <c r="P87" s="147"/>
+      <c r="Q87" s="147"/>
+      <c r="R87" s="147"/>
+      <c r="S87" s="147"/>
+      <c r="T87" s="147"/>
+      <c r="U87" s="147"/>
+      <c r="V87" s="147"/>
+      <c r="W87" s="147"/>
+      <c r="X87" s="147"/>
+      <c r="Y87" s="147"/>
+      <c r="Z87" s="147"/>
+      <c r="AA87" s="147"/>
+      <c r="AB87" s="147"/>
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
       <c r="AE87" s="10"/>
@@ -54389,10 +54372,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
@@ -54438,10 +54421,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -54928,24 +54911,24 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -54970,27 +54953,27 @@
     </row>
     <row r="16" spans="2:40">
       <c r="B16" s="9"/>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -55015,7 +54998,7 @@
     </row>
     <row r="17" spans="2:40">
       <c r="B17" s="9"/>
-      <c r="C17" s="143"/>
+      <c r="C17" s="156"/>
       <c r="D17" s="55" t="s">
         <v>195</v>
       </c>
@@ -55274,24 +55257,24 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="143"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -55402,24 +55385,24 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="136" t="s">
+      <c r="E26" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -55750,28 +55733,28 @@
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="131" t="s">
+      <c r="E34" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="144"/>
-      <c r="Q34" s="144"/>
-      <c r="R34" s="144"/>
-      <c r="S34" s="144"/>
-      <c r="T34" s="144"/>
-      <c r="U34" s="144"/>
-      <c r="V34" s="144"/>
-      <c r="W34" s="144"/>
-      <c r="X34" s="144"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="157"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="157"/>
+      <c r="T34" s="157"/>
+      <c r="U34" s="157"/>
+      <c r="V34" s="157"/>
+      <c r="W34" s="157"/>
+      <c r="X34" s="157"/>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
@@ -55793,26 +55776,26 @@
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="144"/>
-      <c r="P35" s="144"/>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="144"/>
-      <c r="S35" s="144"/>
-      <c r="T35" s="144"/>
-      <c r="U35" s="144"/>
-      <c r="V35" s="144"/>
-      <c r="W35" s="144"/>
-      <c r="X35" s="144"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="157"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="157"/>
+      <c r="O35" s="157"/>
+      <c r="P35" s="157"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="157"/>
+      <c r="T35" s="157"/>
+      <c r="U35" s="157"/>
+      <c r="V35" s="157"/>
+      <c r="W35" s="157"/>
+      <c r="X35" s="157"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
@@ -55834,26 +55817,26 @@
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="144"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="144"/>
-      <c r="R36" s="144"/>
-      <c r="S36" s="144"/>
-      <c r="T36" s="144"/>
-      <c r="U36" s="144"/>
-      <c r="V36" s="144"/>
-      <c r="W36" s="144"/>
-      <c r="X36" s="144"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
+      <c r="P36" s="157"/>
+      <c r="Q36" s="157"/>
+      <c r="R36" s="157"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="157"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="157"/>
+      <c r="W36" s="157"/>
+      <c r="X36" s="157"/>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
@@ -55875,26 +55858,26 @@
       <c r="B37" s="9"/>
       <c r="C37" s="11"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
-      <c r="O37" s="144"/>
-      <c r="P37" s="144"/>
-      <c r="Q37" s="144"/>
-      <c r="R37" s="144"/>
-      <c r="S37" s="144"/>
-      <c r="T37" s="144"/>
-      <c r="U37" s="144"/>
-      <c r="V37" s="144"/>
-      <c r="W37" s="144"/>
-      <c r="X37" s="144"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="157"/>
+      <c r="R37" s="157"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="157"/>
+      <c r="U37" s="157"/>
+      <c r="V37" s="157"/>
+      <c r="W37" s="157"/>
+      <c r="X37" s="157"/>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
@@ -55916,26 +55899,26 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="28"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
-      <c r="Q38" s="144"/>
-      <c r="R38" s="144"/>
-      <c r="S38" s="144"/>
-      <c r="T38" s="144"/>
-      <c r="U38" s="144"/>
-      <c r="V38" s="144"/>
-      <c r="W38" s="144"/>
-      <c r="X38" s="144"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
+      <c r="R38" s="157"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="157"/>
+      <c r="U38" s="157"/>
+      <c r="V38" s="157"/>
+      <c r="W38" s="157"/>
+      <c r="X38" s="157"/>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
@@ -55957,26 +55940,26 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="144"/>
-      <c r="P39" s="144"/>
-      <c r="Q39" s="144"/>
-      <c r="R39" s="144"/>
-      <c r="S39" s="144"/>
-      <c r="T39" s="144"/>
-      <c r="U39" s="144"/>
-      <c r="V39" s="144"/>
-      <c r="W39" s="144"/>
-      <c r="X39" s="144"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="157"/>
+      <c r="K39" s="157"/>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="157"/>
+      <c r="Q39" s="157"/>
+      <c r="R39" s="157"/>
+      <c r="S39" s="157"/>
+      <c r="T39" s="157"/>
+      <c r="U39" s="157"/>
+      <c r="V39" s="157"/>
+      <c r="W39" s="157"/>
+      <c r="X39" s="157"/>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
@@ -56211,29 +56194,29 @@
       <c r="B45" s="9"/>
       <c r="C45" s="11"/>
       <c r="D45" s="28"/>
-      <c r="E45" s="131" t="s">
+      <c r="E45" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144"/>
-      <c r="P45" s="144"/>
-      <c r="Q45" s="144"/>
-      <c r="R45" s="144"/>
-      <c r="S45" s="144"/>
-      <c r="T45" s="144"/>
-      <c r="U45" s="144"/>
-      <c r="V45" s="144"/>
-      <c r="W45" s="144"/>
-      <c r="X45" s="144"/>
-      <c r="Y45" s="144"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="157"/>
+      <c r="L45" s="157"/>
+      <c r="M45" s="157"/>
+      <c r="N45" s="157"/>
+      <c r="O45" s="157"/>
+      <c r="P45" s="157"/>
+      <c r="Q45" s="157"/>
+      <c r="R45" s="157"/>
+      <c r="S45" s="157"/>
+      <c r="T45" s="157"/>
+      <c r="U45" s="157"/>
+      <c r="V45" s="157"/>
+      <c r="W45" s="157"/>
+      <c r="X45" s="157"/>
+      <c r="Y45" s="157"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
@@ -56254,27 +56237,27 @@
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
-      <c r="O46" s="144"/>
-      <c r="P46" s="144"/>
-      <c r="Q46" s="144"/>
-      <c r="R46" s="144"/>
-      <c r="S46" s="144"/>
-      <c r="T46" s="144"/>
-      <c r="U46" s="144"/>
-      <c r="V46" s="144"/>
-      <c r="W46" s="144"/>
-      <c r="X46" s="144"/>
-      <c r="Y46" s="144"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="157"/>
+      <c r="L46" s="157"/>
+      <c r="M46" s="157"/>
+      <c r="N46" s="157"/>
+      <c r="O46" s="157"/>
+      <c r="P46" s="157"/>
+      <c r="Q46" s="157"/>
+      <c r="R46" s="157"/>
+      <c r="S46" s="157"/>
+      <c r="T46" s="157"/>
+      <c r="U46" s="157"/>
+      <c r="V46" s="157"/>
+      <c r="W46" s="157"/>
+      <c r="X46" s="157"/>
+      <c r="Y46" s="157"/>
       <c r="Z46" s="10"/>
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
@@ -56675,31 +56658,31 @@
       <c r="B56" s="9"/>
       <c r="C56" s="11"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="138" t="s">
+      <c r="E56" s="151" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="139"/>
-      <c r="G56" s="139"/>
-      <c r="H56" s="139"/>
-      <c r="I56" s="139"/>
-      <c r="J56" s="139"/>
-      <c r="K56" s="139"/>
-      <c r="L56" s="139"/>
-      <c r="M56" s="139"/>
-      <c r="N56" s="139"/>
-      <c r="O56" s="139"/>
-      <c r="P56" s="139"/>
-      <c r="Q56" s="139"/>
-      <c r="R56" s="139"/>
-      <c r="S56" s="139"/>
-      <c r="T56" s="139"/>
-      <c r="U56" s="139"/>
-      <c r="V56" s="139"/>
-      <c r="W56" s="139"/>
-      <c r="X56" s="139"/>
-      <c r="Y56" s="139"/>
-      <c r="Z56" s="139"/>
-      <c r="AA56" s="139"/>
+      <c r="F56" s="152"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
+      <c r="M56" s="152"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="152"/>
+      <c r="P56" s="152"/>
+      <c r="Q56" s="152"/>
+      <c r="R56" s="152"/>
+      <c r="S56" s="152"/>
+      <c r="T56" s="152"/>
+      <c r="U56" s="152"/>
+      <c r="V56" s="152"/>
+      <c r="W56" s="152"/>
+      <c r="X56" s="152"/>
+      <c r="Y56" s="152"/>
+      <c r="Z56" s="152"/>
+      <c r="AA56" s="152"/>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
@@ -56718,29 +56701,29 @@
       <c r="B57" s="9"/>
       <c r="C57" s="11"/>
       <c r="D57" s="28"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="139"/>
-      <c r="G57" s="139"/>
-      <c r="H57" s="139"/>
-      <c r="I57" s="139"/>
-      <c r="J57" s="139"/>
-      <c r="K57" s="139"/>
-      <c r="L57" s="139"/>
-      <c r="M57" s="139"/>
-      <c r="N57" s="139"/>
-      <c r="O57" s="139"/>
-      <c r="P57" s="139"/>
-      <c r="Q57" s="139"/>
-      <c r="R57" s="139"/>
-      <c r="S57" s="139"/>
-      <c r="T57" s="139"/>
-      <c r="U57" s="139"/>
-      <c r="V57" s="139"/>
-      <c r="W57" s="139"/>
-      <c r="X57" s="139"/>
-      <c r="Y57" s="139"/>
-      <c r="Z57" s="139"/>
-      <c r="AA57" s="139"/>
+      <c r="E57" s="151"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="152"/>
+      <c r="L57" s="152"/>
+      <c r="M57" s="152"/>
+      <c r="N57" s="152"/>
+      <c r="O57" s="152"/>
+      <c r="P57" s="152"/>
+      <c r="Q57" s="152"/>
+      <c r="R57" s="152"/>
+      <c r="S57" s="152"/>
+      <c r="T57" s="152"/>
+      <c r="U57" s="152"/>
+      <c r="V57" s="152"/>
+      <c r="W57" s="152"/>
+      <c r="X57" s="152"/>
+      <c r="Y57" s="152"/>
+      <c r="Z57" s="152"/>
+      <c r="AA57" s="152"/>
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
@@ -56759,29 +56742,29 @@
       <c r="B58" s="9"/>
       <c r="C58" s="11"/>
       <c r="D58" s="28"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="139"/>
-      <c r="K58" s="139"/>
-      <c r="L58" s="139"/>
-      <c r="M58" s="139"/>
-      <c r="N58" s="139"/>
-      <c r="O58" s="139"/>
-      <c r="P58" s="139"/>
-      <c r="Q58" s="139"/>
-      <c r="R58" s="139"/>
-      <c r="S58" s="139"/>
-      <c r="T58" s="139"/>
-      <c r="U58" s="139"/>
-      <c r="V58" s="139"/>
-      <c r="W58" s="139"/>
-      <c r="X58" s="139"/>
-      <c r="Y58" s="139"/>
-      <c r="Z58" s="139"/>
-      <c r="AA58" s="139"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="152"/>
+      <c r="L58" s="152"/>
+      <c r="M58" s="152"/>
+      <c r="N58" s="152"/>
+      <c r="O58" s="152"/>
+      <c r="P58" s="152"/>
+      <c r="Q58" s="152"/>
+      <c r="R58" s="152"/>
+      <c r="S58" s="152"/>
+      <c r="T58" s="152"/>
+      <c r="U58" s="152"/>
+      <c r="V58" s="152"/>
+      <c r="W58" s="152"/>
+      <c r="X58" s="152"/>
+      <c r="Y58" s="152"/>
+      <c r="Z58" s="152"/>
+      <c r="AA58" s="152"/>
       <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
@@ -56800,29 +56783,29 @@
       <c r="B59" s="9"/>
       <c r="C59" s="11"/>
       <c r="D59" s="28"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="139"/>
-      <c r="G59" s="139"/>
-      <c r="H59" s="139"/>
-      <c r="I59" s="139"/>
-      <c r="J59" s="139"/>
-      <c r="K59" s="139"/>
-      <c r="L59" s="139"/>
-      <c r="M59" s="139"/>
-      <c r="N59" s="139"/>
-      <c r="O59" s="139"/>
-      <c r="P59" s="139"/>
-      <c r="Q59" s="139"/>
-      <c r="R59" s="139"/>
-      <c r="S59" s="139"/>
-      <c r="T59" s="139"/>
-      <c r="U59" s="139"/>
-      <c r="V59" s="139"/>
-      <c r="W59" s="139"/>
-      <c r="X59" s="139"/>
-      <c r="Y59" s="139"/>
-      <c r="Z59" s="139"/>
-      <c r="AA59" s="139"/>
+      <c r="E59" s="151"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="152"/>
+      <c r="K59" s="152"/>
+      <c r="L59" s="152"/>
+      <c r="M59" s="152"/>
+      <c r="N59" s="152"/>
+      <c r="O59" s="152"/>
+      <c r="P59" s="152"/>
+      <c r="Q59" s="152"/>
+      <c r="R59" s="152"/>
+      <c r="S59" s="152"/>
+      <c r="T59" s="152"/>
+      <c r="U59" s="152"/>
+      <c r="V59" s="152"/>
+      <c r="W59" s="152"/>
+      <c r="X59" s="152"/>
+      <c r="Y59" s="152"/>
+      <c r="Z59" s="152"/>
+      <c r="AA59" s="152"/>
       <c r="AB59" s="10"/>
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
@@ -56841,29 +56824,29 @@
       <c r="B60" s="9"/>
       <c r="C60" s="11"/>
       <c r="D60" s="28"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="139"/>
-      <c r="I60" s="139"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="139"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="139"/>
-      <c r="N60" s="139"/>
-      <c r="O60" s="139"/>
-      <c r="P60" s="139"/>
-      <c r="Q60" s="139"/>
-      <c r="R60" s="139"/>
-      <c r="S60" s="139"/>
-      <c r="T60" s="139"/>
-      <c r="U60" s="139"/>
-      <c r="V60" s="139"/>
-      <c r="W60" s="139"/>
-      <c r="X60" s="139"/>
-      <c r="Y60" s="139"/>
-      <c r="Z60" s="139"/>
-      <c r="AA60" s="139"/>
+      <c r="E60" s="151"/>
+      <c r="F60" s="152"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="152"/>
+      <c r="K60" s="152"/>
+      <c r="L60" s="152"/>
+      <c r="M60" s="152"/>
+      <c r="N60" s="152"/>
+      <c r="O60" s="152"/>
+      <c r="P60" s="152"/>
+      <c r="Q60" s="152"/>
+      <c r="R60" s="152"/>
+      <c r="S60" s="152"/>
+      <c r="T60" s="152"/>
+      <c r="U60" s="152"/>
+      <c r="V60" s="152"/>
+      <c r="W60" s="152"/>
+      <c r="X60" s="152"/>
+      <c r="Y60" s="152"/>
+      <c r="Z60" s="152"/>
+      <c r="AA60" s="152"/>
       <c r="AB60" s="10"/>
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
@@ -57051,31 +57034,31 @@
       <c r="B65" s="9"/>
       <c r="C65" s="11"/>
       <c r="D65" s="28"/>
-      <c r="E65" s="138" t="s">
+      <c r="E65" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="F65" s="139"/>
-      <c r="G65" s="139"/>
-      <c r="H65" s="139"/>
-      <c r="I65" s="139"/>
-      <c r="J65" s="139"/>
-      <c r="K65" s="139"/>
-      <c r="L65" s="139"/>
-      <c r="M65" s="139"/>
-      <c r="N65" s="139"/>
-      <c r="O65" s="139"/>
-      <c r="P65" s="139"/>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="139"/>
-      <c r="S65" s="139"/>
-      <c r="T65" s="139"/>
-      <c r="U65" s="139"/>
-      <c r="V65" s="139"/>
-      <c r="W65" s="139"/>
-      <c r="X65" s="139"/>
-      <c r="Y65" s="139"/>
-      <c r="Z65" s="139"/>
-      <c r="AA65" s="139"/>
+      <c r="F65" s="152"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="152"/>
+      <c r="K65" s="152"/>
+      <c r="L65" s="152"/>
+      <c r="M65" s="152"/>
+      <c r="N65" s="152"/>
+      <c r="O65" s="152"/>
+      <c r="P65" s="152"/>
+      <c r="Q65" s="152"/>
+      <c r="R65" s="152"/>
+      <c r="S65" s="152"/>
+      <c r="T65" s="152"/>
+      <c r="U65" s="152"/>
+      <c r="V65" s="152"/>
+      <c r="W65" s="152"/>
+      <c r="X65" s="152"/>
+      <c r="Y65" s="152"/>
+      <c r="Z65" s="152"/>
+      <c r="AA65" s="152"/>
       <c r="AB65" s="10"/>
       <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
@@ -57093,29 +57076,29 @@
     <row r="66" spans="2:40" ht="63.6" customHeight="1">
       <c r="B66" s="9"/>
       <c r="C66" s="11"/>
-      <c r="E66" s="138"/>
-      <c r="F66" s="139"/>
-      <c r="G66" s="139"/>
-      <c r="H66" s="139"/>
-      <c r="I66" s="139"/>
-      <c r="J66" s="139"/>
-      <c r="K66" s="139"/>
-      <c r="L66" s="139"/>
-      <c r="M66" s="139"/>
-      <c r="N66" s="139"/>
-      <c r="O66" s="139"/>
-      <c r="P66" s="139"/>
-      <c r="Q66" s="139"/>
-      <c r="R66" s="139"/>
-      <c r="S66" s="139"/>
-      <c r="T66" s="139"/>
-      <c r="U66" s="139"/>
-      <c r="V66" s="139"/>
-      <c r="W66" s="139"/>
-      <c r="X66" s="139"/>
-      <c r="Y66" s="139"/>
-      <c r="Z66" s="139"/>
-      <c r="AA66" s="139"/>
+      <c r="E66" s="151"/>
+      <c r="F66" s="152"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="152"/>
+      <c r="K66" s="152"/>
+      <c r="L66" s="152"/>
+      <c r="M66" s="152"/>
+      <c r="N66" s="152"/>
+      <c r="O66" s="152"/>
+      <c r="P66" s="152"/>
+      <c r="Q66" s="152"/>
+      <c r="R66" s="152"/>
+      <c r="S66" s="152"/>
+      <c r="T66" s="152"/>
+      <c r="U66" s="152"/>
+      <c r="V66" s="152"/>
+      <c r="W66" s="152"/>
+      <c r="X66" s="152"/>
+      <c r="Y66" s="152"/>
+      <c r="Z66" s="152"/>
+      <c r="AA66" s="152"/>
       <c r="AB66" s="10"/>
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
@@ -57134,29 +57117,29 @@
       <c r="B67" s="9"/>
       <c r="C67" s="11"/>
       <c r="D67" s="28"/>
-      <c r="E67" s="138"/>
-      <c r="F67" s="139"/>
-      <c r="G67" s="139"/>
-      <c r="H67" s="139"/>
-      <c r="I67" s="139"/>
-      <c r="J67" s="139"/>
-      <c r="K67" s="139"/>
-      <c r="L67" s="139"/>
-      <c r="M67" s="139"/>
-      <c r="N67" s="139"/>
-      <c r="O67" s="139"/>
-      <c r="P67" s="139"/>
-      <c r="Q67" s="139"/>
-      <c r="R67" s="139"/>
-      <c r="S67" s="139"/>
-      <c r="T67" s="139"/>
-      <c r="U67" s="139"/>
-      <c r="V67" s="139"/>
-      <c r="W67" s="139"/>
-      <c r="X67" s="139"/>
-      <c r="Y67" s="139"/>
-      <c r="Z67" s="139"/>
-      <c r="AA67" s="139"/>
+      <c r="E67" s="151"/>
+      <c r="F67" s="152"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="152"/>
+      <c r="I67" s="152"/>
+      <c r="J67" s="152"/>
+      <c r="K67" s="152"/>
+      <c r="L67" s="152"/>
+      <c r="M67" s="152"/>
+      <c r="N67" s="152"/>
+      <c r="O67" s="152"/>
+      <c r="P67" s="152"/>
+      <c r="Q67" s="152"/>
+      <c r="R67" s="152"/>
+      <c r="S67" s="152"/>
+      <c r="T67" s="152"/>
+      <c r="U67" s="152"/>
+      <c r="V67" s="152"/>
+      <c r="W67" s="152"/>
+      <c r="X67" s="152"/>
+      <c r="Y67" s="152"/>
+      <c r="Z67" s="152"/>
+      <c r="AA67" s="152"/>
       <c r="AB67" s="10"/>
       <c r="AC67" s="10"/>
       <c r="AD67" s="10"/>
@@ -57175,29 +57158,29 @@
       <c r="B68" s="9"/>
       <c r="C68" s="11"/>
       <c r="D68" s="28"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="139"/>
-      <c r="G68" s="139"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="139"/>
-      <c r="J68" s="139"/>
-      <c r="K68" s="139"/>
-      <c r="L68" s="139"/>
-      <c r="M68" s="139"/>
-      <c r="N68" s="139"/>
-      <c r="O68" s="139"/>
-      <c r="P68" s="139"/>
-      <c r="Q68" s="139"/>
-      <c r="R68" s="139"/>
-      <c r="S68" s="139"/>
-      <c r="T68" s="139"/>
-      <c r="U68" s="139"/>
-      <c r="V68" s="139"/>
-      <c r="W68" s="139"/>
-      <c r="X68" s="139"/>
-      <c r="Y68" s="139"/>
-      <c r="Z68" s="139"/>
-      <c r="AA68" s="139"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="152"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="152"/>
+      <c r="I68" s="152"/>
+      <c r="J68" s="152"/>
+      <c r="K68" s="152"/>
+      <c r="L68" s="152"/>
+      <c r="M68" s="152"/>
+      <c r="N68" s="152"/>
+      <c r="O68" s="152"/>
+      <c r="P68" s="152"/>
+      <c r="Q68" s="152"/>
+      <c r="R68" s="152"/>
+      <c r="S68" s="152"/>
+      <c r="T68" s="152"/>
+      <c r="U68" s="152"/>
+      <c r="V68" s="152"/>
+      <c r="W68" s="152"/>
+      <c r="X68" s="152"/>
+      <c r="Y68" s="152"/>
+      <c r="Z68" s="152"/>
+      <c r="AA68" s="152"/>
       <c r="AB68" s="10"/>
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
@@ -57216,29 +57199,29 @@
       <c r="B69" s="9"/>
       <c r="C69" s="11"/>
       <c r="D69" s="28"/>
-      <c r="E69" s="138"/>
-      <c r="F69" s="139"/>
-      <c r="G69" s="139"/>
-      <c r="H69" s="139"/>
-      <c r="I69" s="139"/>
-      <c r="J69" s="139"/>
-      <c r="K69" s="139"/>
-      <c r="L69" s="139"/>
-      <c r="M69" s="139"/>
-      <c r="N69" s="139"/>
-      <c r="O69" s="139"/>
-      <c r="P69" s="139"/>
-      <c r="Q69" s="139"/>
-      <c r="R69" s="139"/>
-      <c r="S69" s="139"/>
-      <c r="T69" s="139"/>
-      <c r="U69" s="139"/>
-      <c r="V69" s="139"/>
-      <c r="W69" s="139"/>
-      <c r="X69" s="139"/>
-      <c r="Y69" s="139"/>
-      <c r="Z69" s="139"/>
-      <c r="AA69" s="139"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="152"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
+      <c r="I69" s="152"/>
+      <c r="J69" s="152"/>
+      <c r="K69" s="152"/>
+      <c r="L69" s="152"/>
+      <c r="M69" s="152"/>
+      <c r="N69" s="152"/>
+      <c r="O69" s="152"/>
+      <c r="P69" s="152"/>
+      <c r="Q69" s="152"/>
+      <c r="R69" s="152"/>
+      <c r="S69" s="152"/>
+      <c r="T69" s="152"/>
+      <c r="U69" s="152"/>
+      <c r="V69" s="152"/>
+      <c r="W69" s="152"/>
+      <c r="X69" s="152"/>
+      <c r="Y69" s="152"/>
+      <c r="Z69" s="152"/>
+      <c r="AA69" s="152"/>
       <c r="AB69" s="10"/>
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
@@ -57300,31 +57283,31 @@
       <c r="B71" s="9"/>
       <c r="C71" s="11"/>
       <c r="D71" s="28"/>
-      <c r="E71" s="140" t="s">
+      <c r="E71" s="153" t="s">
         <v>224</v>
       </c>
-      <c r="F71" s="141"/>
-      <c r="G71" s="141"/>
-      <c r="H71" s="141"/>
-      <c r="I71" s="141"/>
-      <c r="J71" s="141"/>
-      <c r="K71" s="141"/>
-      <c r="L71" s="141"/>
-      <c r="M71" s="141"/>
-      <c r="N71" s="141"/>
-      <c r="O71" s="141"/>
-      <c r="P71" s="141"/>
-      <c r="Q71" s="141"/>
-      <c r="R71" s="141"/>
-      <c r="S71" s="141"/>
-      <c r="T71" s="141"/>
-      <c r="U71" s="141"/>
-      <c r="V71" s="141"/>
-      <c r="W71" s="141"/>
-      <c r="X71" s="141"/>
-      <c r="Y71" s="141"/>
-      <c r="Z71" s="141"/>
-      <c r="AA71" s="141"/>
+      <c r="F71" s="154"/>
+      <c r="G71" s="154"/>
+      <c r="H71" s="154"/>
+      <c r="I71" s="154"/>
+      <c r="J71" s="154"/>
+      <c r="K71" s="154"/>
+      <c r="L71" s="154"/>
+      <c r="M71" s="154"/>
+      <c r="N71" s="154"/>
+      <c r="O71" s="154"/>
+      <c r="P71" s="154"/>
+      <c r="Q71" s="154"/>
+      <c r="R71" s="154"/>
+      <c r="S71" s="154"/>
+      <c r="T71" s="154"/>
+      <c r="U71" s="154"/>
+      <c r="V71" s="154"/>
+      <c r="W71" s="154"/>
+      <c r="X71" s="154"/>
+      <c r="Y71" s="154"/>
+      <c r="Z71" s="154"/>
+      <c r="AA71" s="154"/>
       <c r="AB71" s="10"/>
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
@@ -57343,29 +57326,29 @@
       <c r="B72" s="9"/>
       <c r="C72" s="11"/>
       <c r="D72" s="28"/>
-      <c r="E72" s="140"/>
-      <c r="F72" s="141"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="141"/>
-      <c r="I72" s="141"/>
-      <c r="J72" s="141"/>
-      <c r="K72" s="141"/>
-      <c r="L72" s="141"/>
-      <c r="M72" s="141"/>
-      <c r="N72" s="141"/>
-      <c r="O72" s="141"/>
-      <c r="P72" s="141"/>
-      <c r="Q72" s="141"/>
-      <c r="R72" s="141"/>
-      <c r="S72" s="141"/>
-      <c r="T72" s="141"/>
-      <c r="U72" s="141"/>
-      <c r="V72" s="141"/>
-      <c r="W72" s="141"/>
-      <c r="X72" s="141"/>
-      <c r="Y72" s="141"/>
-      <c r="Z72" s="141"/>
-      <c r="AA72" s="141"/>
+      <c r="E72" s="153"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="154"/>
+      <c r="I72" s="154"/>
+      <c r="J72" s="154"/>
+      <c r="K72" s="154"/>
+      <c r="L72" s="154"/>
+      <c r="M72" s="154"/>
+      <c r="N72" s="154"/>
+      <c r="O72" s="154"/>
+      <c r="P72" s="154"/>
+      <c r="Q72" s="154"/>
+      <c r="R72" s="154"/>
+      <c r="S72" s="154"/>
+      <c r="T72" s="154"/>
+      <c r="U72" s="154"/>
+      <c r="V72" s="154"/>
+      <c r="W72" s="154"/>
+      <c r="X72" s="154"/>
+      <c r="Y72" s="154"/>
+      <c r="Z72" s="154"/>
+      <c r="AA72" s="154"/>
       <c r="AB72" s="10"/>
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
@@ -57384,29 +57367,29 @@
       <c r="B73" s="9"/>
       <c r="C73" s="11"/>
       <c r="D73" s="28"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141"/>
-      <c r="J73" s="141"/>
-      <c r="K73" s="141"/>
-      <c r="L73" s="141"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="141"/>
-      <c r="O73" s="141"/>
-      <c r="P73" s="141"/>
-      <c r="Q73" s="141"/>
-      <c r="R73" s="141"/>
-      <c r="S73" s="141"/>
-      <c r="T73" s="141"/>
-      <c r="U73" s="141"/>
-      <c r="V73" s="141"/>
-      <c r="W73" s="141"/>
-      <c r="X73" s="141"/>
-      <c r="Y73" s="141"/>
-      <c r="Z73" s="141"/>
-      <c r="AA73" s="141"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="154"/>
+      <c r="G73" s="154"/>
+      <c r="H73" s="154"/>
+      <c r="I73" s="154"/>
+      <c r="J73" s="154"/>
+      <c r="K73" s="154"/>
+      <c r="L73" s="154"/>
+      <c r="M73" s="154"/>
+      <c r="N73" s="154"/>
+      <c r="O73" s="154"/>
+      <c r="P73" s="154"/>
+      <c r="Q73" s="154"/>
+      <c r="R73" s="154"/>
+      <c r="S73" s="154"/>
+      <c r="T73" s="154"/>
+      <c r="U73" s="154"/>
+      <c r="V73" s="154"/>
+      <c r="W73" s="154"/>
+      <c r="X73" s="154"/>
+      <c r="Y73" s="154"/>
+      <c r="Z73" s="154"/>
+      <c r="AA73" s="154"/>
       <c r="AB73" s="10"/>
       <c r="AC73" s="10"/>
       <c r="AD73" s="10"/>
@@ -57425,29 +57408,29 @@
       <c r="B74" s="9"/>
       <c r="C74" s="11"/>
       <c r="D74" s="28"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="141"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141"/>
-      <c r="J74" s="141"/>
-      <c r="K74" s="141"/>
-      <c r="L74" s="141"/>
-      <c r="M74" s="141"/>
-      <c r="N74" s="141"/>
-      <c r="O74" s="141"/>
-      <c r="P74" s="141"/>
-      <c r="Q74" s="141"/>
-      <c r="R74" s="141"/>
-      <c r="S74" s="141"/>
-      <c r="T74" s="141"/>
-      <c r="U74" s="141"/>
-      <c r="V74" s="141"/>
-      <c r="W74" s="141"/>
-      <c r="X74" s="141"/>
-      <c r="Y74" s="141"/>
-      <c r="Z74" s="141"/>
-      <c r="AA74" s="141"/>
+      <c r="E74" s="153"/>
+      <c r="F74" s="154"/>
+      <c r="G74" s="154"/>
+      <c r="H74" s="154"/>
+      <c r="I74" s="154"/>
+      <c r="J74" s="154"/>
+      <c r="K74" s="154"/>
+      <c r="L74" s="154"/>
+      <c r="M74" s="154"/>
+      <c r="N74" s="154"/>
+      <c r="O74" s="154"/>
+      <c r="P74" s="154"/>
+      <c r="Q74" s="154"/>
+      <c r="R74" s="154"/>
+      <c r="S74" s="154"/>
+      <c r="T74" s="154"/>
+      <c r="U74" s="154"/>
+      <c r="V74" s="154"/>
+      <c r="W74" s="154"/>
+      <c r="X74" s="154"/>
+      <c r="Y74" s="154"/>
+      <c r="Z74" s="154"/>
+      <c r="AA74" s="154"/>
       <c r="AB74" s="10"/>
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
@@ -57679,30 +57662,30 @@
       <c r="B80" s="9"/>
       <c r="C80" s="11"/>
       <c r="D80" s="28"/>
-      <c r="E80" s="131" t="s">
+      <c r="E80" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="F80" s="132"/>
-      <c r="G80" s="132"/>
-      <c r="H80" s="132"/>
-      <c r="I80" s="132"/>
-      <c r="J80" s="132"/>
-      <c r="K80" s="132"/>
-      <c r="L80" s="132"/>
-      <c r="M80" s="132"/>
-      <c r="N80" s="132"/>
-      <c r="O80" s="132"/>
-      <c r="P80" s="132"/>
-      <c r="Q80" s="132"/>
-      <c r="R80" s="132"/>
-      <c r="S80" s="132"/>
-      <c r="T80" s="132"/>
-      <c r="U80" s="132"/>
-      <c r="V80" s="132"/>
-      <c r="W80" s="132"/>
-      <c r="X80" s="132"/>
-      <c r="Y80" s="132"/>
-      <c r="Z80" s="132"/>
+      <c r="F80" s="147"/>
+      <c r="G80" s="147"/>
+      <c r="H80" s="147"/>
+      <c r="I80" s="147"/>
+      <c r="J80" s="147"/>
+      <c r="K80" s="147"/>
+      <c r="L80" s="147"/>
+      <c r="M80" s="147"/>
+      <c r="N80" s="147"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="147"/>
+      <c r="Q80" s="147"/>
+      <c r="R80" s="147"/>
+      <c r="S80" s="147"/>
+      <c r="T80" s="147"/>
+      <c r="U80" s="147"/>
+      <c r="V80" s="147"/>
+      <c r="W80" s="147"/>
+      <c r="X80" s="147"/>
+      <c r="Y80" s="147"/>
+      <c r="Z80" s="147"/>
       <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
       <c r="AC80" s="10"/>
@@ -57722,28 +57705,28 @@
       <c r="B81" s="9"/>
       <c r="C81" s="11"/>
       <c r="D81" s="28"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="132"/>
-      <c r="G81" s="132"/>
-      <c r="H81" s="132"/>
-      <c r="I81" s="132"/>
-      <c r="J81" s="132"/>
-      <c r="K81" s="132"/>
-      <c r="L81" s="132"/>
-      <c r="M81" s="132"/>
-      <c r="N81" s="132"/>
-      <c r="O81" s="132"/>
-      <c r="P81" s="132"/>
-      <c r="Q81" s="132"/>
-      <c r="R81" s="132"/>
-      <c r="S81" s="132"/>
-      <c r="T81" s="132"/>
-      <c r="U81" s="132"/>
-      <c r="V81" s="132"/>
-      <c r="W81" s="132"/>
-      <c r="X81" s="132"/>
-      <c r="Y81" s="132"/>
-      <c r="Z81" s="132"/>
+      <c r="E81" s="146"/>
+      <c r="F81" s="147"/>
+      <c r="G81" s="147"/>
+      <c r="H81" s="147"/>
+      <c r="I81" s="147"/>
+      <c r="J81" s="147"/>
+      <c r="K81" s="147"/>
+      <c r="L81" s="147"/>
+      <c r="M81" s="147"/>
+      <c r="N81" s="147"/>
+      <c r="O81" s="147"/>
+      <c r="P81" s="147"/>
+      <c r="Q81" s="147"/>
+      <c r="R81" s="147"/>
+      <c r="S81" s="147"/>
+      <c r="T81" s="147"/>
+      <c r="U81" s="147"/>
+      <c r="V81" s="147"/>
+      <c r="W81" s="147"/>
+      <c r="X81" s="147"/>
+      <c r="Y81" s="147"/>
+      <c r="Z81" s="147"/>
       <c r="AA81" s="10"/>
       <c r="AB81" s="10"/>
       <c r="AC81" s="10"/>
@@ -57763,28 +57746,28 @@
       <c r="B82" s="9"/>
       <c r="C82" s="11"/>
       <c r="D82" s="28"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="132"/>
-      <c r="G82" s="132"/>
-      <c r="H82" s="132"/>
-      <c r="I82" s="132"/>
-      <c r="J82" s="132"/>
-      <c r="K82" s="132"/>
-      <c r="L82" s="132"/>
-      <c r="M82" s="132"/>
-      <c r="N82" s="132"/>
-      <c r="O82" s="132"/>
-      <c r="P82" s="132"/>
-      <c r="Q82" s="132"/>
-      <c r="R82" s="132"/>
-      <c r="S82" s="132"/>
-      <c r="T82" s="132"/>
-      <c r="U82" s="132"/>
-      <c r="V82" s="132"/>
-      <c r="W82" s="132"/>
-      <c r="X82" s="132"/>
-      <c r="Y82" s="132"/>
-      <c r="Z82" s="132"/>
+      <c r="E82" s="146"/>
+      <c r="F82" s="147"/>
+      <c r="G82" s="147"/>
+      <c r="H82" s="147"/>
+      <c r="I82" s="147"/>
+      <c r="J82" s="147"/>
+      <c r="K82" s="147"/>
+      <c r="L82" s="147"/>
+      <c r="M82" s="147"/>
+      <c r="N82" s="147"/>
+      <c r="O82" s="147"/>
+      <c r="P82" s="147"/>
+      <c r="Q82" s="147"/>
+      <c r="R82" s="147"/>
+      <c r="S82" s="147"/>
+      <c r="T82" s="147"/>
+      <c r="U82" s="147"/>
+      <c r="V82" s="147"/>
+      <c r="W82" s="147"/>
+      <c r="X82" s="147"/>
+      <c r="Y82" s="147"/>
+      <c r="Z82" s="147"/>
       <c r="AA82" s="10"/>
       <c r="AB82" s="10"/>
       <c r="AC82" s="10"/>
@@ -58275,29 +58258,29 @@
       <c r="B94" s="9"/>
       <c r="C94" s="11"/>
       <c r="D94" s="28"/>
-      <c r="E94" s="131" t="s">
+      <c r="E94" s="146" t="s">
         <v>214</v>
       </c>
-      <c r="F94" s="132"/>
-      <c r="G94" s="132"/>
-      <c r="H94" s="132"/>
-      <c r="I94" s="132"/>
-      <c r="J94" s="132"/>
-      <c r="K94" s="132"/>
-      <c r="L94" s="132"/>
-      <c r="M94" s="132"/>
-      <c r="N94" s="132"/>
-      <c r="O94" s="132"/>
-      <c r="P94" s="132"/>
-      <c r="Q94" s="132"/>
-      <c r="R94" s="132"/>
-      <c r="S94" s="132"/>
-      <c r="T94" s="132"/>
-      <c r="U94" s="132"/>
-      <c r="V94" s="132"/>
-      <c r="W94" s="132"/>
-      <c r="X94" s="132"/>
-      <c r="Y94" s="132"/>
+      <c r="F94" s="147"/>
+      <c r="G94" s="147"/>
+      <c r="H94" s="147"/>
+      <c r="I94" s="147"/>
+      <c r="J94" s="147"/>
+      <c r="K94" s="147"/>
+      <c r="L94" s="147"/>
+      <c r="M94" s="147"/>
+      <c r="N94" s="147"/>
+      <c r="O94" s="147"/>
+      <c r="P94" s="147"/>
+      <c r="Q94" s="147"/>
+      <c r="R94" s="147"/>
+      <c r="S94" s="147"/>
+      <c r="T94" s="147"/>
+      <c r="U94" s="147"/>
+      <c r="V94" s="147"/>
+      <c r="W94" s="147"/>
+      <c r="X94" s="147"/>
+      <c r="Y94" s="147"/>
       <c r="Z94" s="10"/>
       <c r="AA94" s="10"/>
       <c r="AB94" s="10"/>
@@ -58318,27 +58301,27 @@
       <c r="B95" s="9"/>
       <c r="C95" s="11"/>
       <c r="D95" s="28"/>
-      <c r="E95" s="131"/>
-      <c r="F95" s="132"/>
-      <c r="G95" s="132"/>
-      <c r="H95" s="132"/>
-      <c r="I95" s="132"/>
-      <c r="J95" s="132"/>
-      <c r="K95" s="132"/>
-      <c r="L95" s="132"/>
-      <c r="M95" s="132"/>
-      <c r="N95" s="132"/>
-      <c r="O95" s="132"/>
-      <c r="P95" s="132"/>
-      <c r="Q95" s="132"/>
-      <c r="R95" s="132"/>
-      <c r="S95" s="132"/>
-      <c r="T95" s="132"/>
-      <c r="U95" s="132"/>
-      <c r="V95" s="132"/>
-      <c r="W95" s="132"/>
-      <c r="X95" s="132"/>
-      <c r="Y95" s="132"/>
+      <c r="E95" s="146"/>
+      <c r="F95" s="147"/>
+      <c r="G95" s="147"/>
+      <c r="H95" s="147"/>
+      <c r="I95" s="147"/>
+      <c r="J95" s="147"/>
+      <c r="K95" s="147"/>
+      <c r="L95" s="147"/>
+      <c r="M95" s="147"/>
+      <c r="N95" s="147"/>
+      <c r="O95" s="147"/>
+      <c r="P95" s="147"/>
+      <c r="Q95" s="147"/>
+      <c r="R95" s="147"/>
+      <c r="S95" s="147"/>
+      <c r="T95" s="147"/>
+      <c r="U95" s="147"/>
+      <c r="V95" s="147"/>
+      <c r="W95" s="147"/>
+      <c r="X95" s="147"/>
+      <c r="Y95" s="147"/>
       <c r="Z95" s="10"/>
       <c r="AA95" s="10"/>
       <c r="AB95" s="10"/>
@@ -58359,27 +58342,27 @@
       <c r="B96" s="9"/>
       <c r="C96" s="11"/>
       <c r="D96" s="28"/>
-      <c r="E96" s="131"/>
-      <c r="F96" s="132"/>
-      <c r="G96" s="132"/>
-      <c r="H96" s="132"/>
-      <c r="I96" s="132"/>
-      <c r="J96" s="132"/>
-      <c r="K96" s="132"/>
-      <c r="L96" s="132"/>
-      <c r="M96" s="132"/>
-      <c r="N96" s="132"/>
-      <c r="O96" s="132"/>
-      <c r="P96" s="132"/>
-      <c r="Q96" s="132"/>
-      <c r="R96" s="132"/>
-      <c r="S96" s="132"/>
-      <c r="T96" s="132"/>
-      <c r="U96" s="132"/>
-      <c r="V96" s="132"/>
-      <c r="W96" s="132"/>
-      <c r="X96" s="132"/>
-      <c r="Y96" s="132"/>
+      <c r="E96" s="146"/>
+      <c r="F96" s="147"/>
+      <c r="G96" s="147"/>
+      <c r="H96" s="147"/>
+      <c r="I96" s="147"/>
+      <c r="J96" s="147"/>
+      <c r="K96" s="147"/>
+      <c r="L96" s="147"/>
+      <c r="M96" s="147"/>
+      <c r="N96" s="147"/>
+      <c r="O96" s="147"/>
+      <c r="P96" s="147"/>
+      <c r="Q96" s="147"/>
+      <c r="R96" s="147"/>
+      <c r="S96" s="147"/>
+      <c r="T96" s="147"/>
+      <c r="U96" s="147"/>
+      <c r="V96" s="147"/>
+      <c r="W96" s="147"/>
+      <c r="X96" s="147"/>
+      <c r="Y96" s="147"/>
       <c r="Z96" s="10"/>
       <c r="AA96" s="10"/>
       <c r="AB96" s="10"/>
@@ -58400,27 +58383,27 @@
       <c r="B97" s="9"/>
       <c r="C97" s="11"/>
       <c r="D97" s="28"/>
-      <c r="E97" s="131"/>
-      <c r="F97" s="132"/>
-      <c r="G97" s="132"/>
-      <c r="H97" s="132"/>
-      <c r="I97" s="132"/>
-      <c r="J97" s="132"/>
-      <c r="K97" s="132"/>
-      <c r="L97" s="132"/>
-      <c r="M97" s="132"/>
-      <c r="N97" s="132"/>
-      <c r="O97" s="132"/>
-      <c r="P97" s="132"/>
-      <c r="Q97" s="132"/>
-      <c r="R97" s="132"/>
-      <c r="S97" s="132"/>
-      <c r="T97" s="132"/>
-      <c r="U97" s="132"/>
-      <c r="V97" s="132"/>
-      <c r="W97" s="132"/>
-      <c r="X97" s="132"/>
-      <c r="Y97" s="132"/>
+      <c r="E97" s="146"/>
+      <c r="F97" s="147"/>
+      <c r="G97" s="147"/>
+      <c r="H97" s="147"/>
+      <c r="I97" s="147"/>
+      <c r="J97" s="147"/>
+      <c r="K97" s="147"/>
+      <c r="L97" s="147"/>
+      <c r="M97" s="147"/>
+      <c r="N97" s="147"/>
+      <c r="O97" s="147"/>
+      <c r="P97" s="147"/>
+      <c r="Q97" s="147"/>
+      <c r="R97" s="147"/>
+      <c r="S97" s="147"/>
+      <c r="T97" s="147"/>
+      <c r="U97" s="147"/>
+      <c r="V97" s="147"/>
+      <c r="W97" s="147"/>
+      <c r="X97" s="147"/>
+      <c r="Y97" s="147"/>
       <c r="Z97" s="10"/>
       <c r="AA97" s="10"/>
       <c r="AB97" s="10"/>
@@ -58441,27 +58424,27 @@
       <c r="B98" s="9"/>
       <c r="C98" s="11"/>
       <c r="D98" s="28"/>
-      <c r="E98" s="131"/>
-      <c r="F98" s="132"/>
-      <c r="G98" s="132"/>
-      <c r="H98" s="132"/>
-      <c r="I98" s="132"/>
-      <c r="J98" s="132"/>
-      <c r="K98" s="132"/>
-      <c r="L98" s="132"/>
-      <c r="M98" s="132"/>
-      <c r="N98" s="132"/>
-      <c r="O98" s="132"/>
-      <c r="P98" s="132"/>
-      <c r="Q98" s="132"/>
-      <c r="R98" s="132"/>
-      <c r="S98" s="132"/>
-      <c r="T98" s="132"/>
-      <c r="U98" s="132"/>
-      <c r="V98" s="132"/>
-      <c r="W98" s="132"/>
-      <c r="X98" s="132"/>
-      <c r="Y98" s="132"/>
+      <c r="E98" s="146"/>
+      <c r="F98" s="147"/>
+      <c r="G98" s="147"/>
+      <c r="H98" s="147"/>
+      <c r="I98" s="147"/>
+      <c r="J98" s="147"/>
+      <c r="K98" s="147"/>
+      <c r="L98" s="147"/>
+      <c r="M98" s="147"/>
+      <c r="N98" s="147"/>
+      <c r="O98" s="147"/>
+      <c r="P98" s="147"/>
+      <c r="Q98" s="147"/>
+      <c r="R98" s="147"/>
+      <c r="S98" s="147"/>
+      <c r="T98" s="147"/>
+      <c r="U98" s="147"/>
+      <c r="V98" s="147"/>
+      <c r="W98" s="147"/>
+      <c r="X98" s="147"/>
+      <c r="Y98" s="147"/>
       <c r="Z98" s="10"/>
       <c r="AA98" s="10"/>
       <c r="AB98" s="10"/>
@@ -58482,27 +58465,27 @@
       <c r="B99" s="9"/>
       <c r="C99" s="11"/>
       <c r="D99" s="28"/>
-      <c r="E99" s="131"/>
-      <c r="F99" s="132"/>
-      <c r="G99" s="132"/>
-      <c r="H99" s="132"/>
-      <c r="I99" s="132"/>
-      <c r="J99" s="132"/>
-      <c r="K99" s="132"/>
-      <c r="L99" s="132"/>
-      <c r="M99" s="132"/>
-      <c r="N99" s="132"/>
-      <c r="O99" s="132"/>
-      <c r="P99" s="132"/>
-      <c r="Q99" s="132"/>
-      <c r="R99" s="132"/>
-      <c r="S99" s="132"/>
-      <c r="T99" s="132"/>
-      <c r="U99" s="132"/>
-      <c r="V99" s="132"/>
-      <c r="W99" s="132"/>
-      <c r="X99" s="132"/>
-      <c r="Y99" s="132"/>
+      <c r="E99" s="146"/>
+      <c r="F99" s="147"/>
+      <c r="G99" s="147"/>
+      <c r="H99" s="147"/>
+      <c r="I99" s="147"/>
+      <c r="J99" s="147"/>
+      <c r="K99" s="147"/>
+      <c r="L99" s="147"/>
+      <c r="M99" s="147"/>
+      <c r="N99" s="147"/>
+      <c r="O99" s="147"/>
+      <c r="P99" s="147"/>
+      <c r="Q99" s="147"/>
+      <c r="R99" s="147"/>
+      <c r="S99" s="147"/>
+      <c r="T99" s="147"/>
+      <c r="U99" s="147"/>
+      <c r="V99" s="147"/>
+      <c r="W99" s="147"/>
+      <c r="X99" s="147"/>
+      <c r="Y99" s="147"/>
       <c r="Z99" s="10"/>
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
@@ -58523,27 +58506,27 @@
       <c r="B100" s="9"/>
       <c r="C100" s="11"/>
       <c r="D100" s="28"/>
-      <c r="E100" s="131"/>
-      <c r="F100" s="132"/>
-      <c r="G100" s="132"/>
-      <c r="H100" s="132"/>
-      <c r="I100" s="132"/>
-      <c r="J100" s="132"/>
-      <c r="K100" s="132"/>
-      <c r="L100" s="132"/>
-      <c r="M100" s="132"/>
-      <c r="N100" s="132"/>
-      <c r="O100" s="132"/>
-      <c r="P100" s="132"/>
-      <c r="Q100" s="132"/>
-      <c r="R100" s="132"/>
-      <c r="S100" s="132"/>
-      <c r="T100" s="132"/>
-      <c r="U100" s="132"/>
-      <c r="V100" s="132"/>
-      <c r="W100" s="132"/>
-      <c r="X100" s="132"/>
-      <c r="Y100" s="132"/>
+      <c r="E100" s="146"/>
+      <c r="F100" s="147"/>
+      <c r="G100" s="147"/>
+      <c r="H100" s="147"/>
+      <c r="I100" s="147"/>
+      <c r="J100" s="147"/>
+      <c r="K100" s="147"/>
+      <c r="L100" s="147"/>
+      <c r="M100" s="147"/>
+      <c r="N100" s="147"/>
+      <c r="O100" s="147"/>
+      <c r="P100" s="147"/>
+      <c r="Q100" s="147"/>
+      <c r="R100" s="147"/>
+      <c r="S100" s="147"/>
+      <c r="T100" s="147"/>
+      <c r="U100" s="147"/>
+      <c r="V100" s="147"/>
+      <c r="W100" s="147"/>
+      <c r="X100" s="147"/>
+      <c r="Y100" s="147"/>
       <c r="Z100" s="10"/>
       <c r="AA100" s="10"/>
       <c r="AB100" s="10"/>
@@ -58945,31 +58928,31 @@
       <c r="B110" s="9"/>
       <c r="C110" s="11"/>
       <c r="D110" s="28"/>
-      <c r="E110" s="138" t="s">
+      <c r="E110" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="F110" s="139"/>
-      <c r="G110" s="139"/>
-      <c r="H110" s="139"/>
-      <c r="I110" s="139"/>
-      <c r="J110" s="139"/>
-      <c r="K110" s="139"/>
-      <c r="L110" s="139"/>
-      <c r="M110" s="139"/>
-      <c r="N110" s="139"/>
-      <c r="O110" s="139"/>
-      <c r="P110" s="139"/>
-      <c r="Q110" s="139"/>
-      <c r="R110" s="139"/>
-      <c r="S110" s="139"/>
-      <c r="T110" s="139"/>
-      <c r="U110" s="139"/>
-      <c r="V110" s="139"/>
-      <c r="W110" s="139"/>
-      <c r="X110" s="139"/>
-      <c r="Y110" s="139"/>
-      <c r="Z110" s="139"/>
-      <c r="AA110" s="139"/>
+      <c r="F110" s="152"/>
+      <c r="G110" s="152"/>
+      <c r="H110" s="152"/>
+      <c r="I110" s="152"/>
+      <c r="J110" s="152"/>
+      <c r="K110" s="152"/>
+      <c r="L110" s="152"/>
+      <c r="M110" s="152"/>
+      <c r="N110" s="152"/>
+      <c r="O110" s="152"/>
+      <c r="P110" s="152"/>
+      <c r="Q110" s="152"/>
+      <c r="R110" s="152"/>
+      <c r="S110" s="152"/>
+      <c r="T110" s="152"/>
+      <c r="U110" s="152"/>
+      <c r="V110" s="152"/>
+      <c r="W110" s="152"/>
+      <c r="X110" s="152"/>
+      <c r="Y110" s="152"/>
+      <c r="Z110" s="152"/>
+      <c r="AA110" s="152"/>
       <c r="AB110" s="10"/>
       <c r="AC110" s="10"/>
       <c r="AD110" s="10"/>
@@ -58988,29 +58971,29 @@
       <c r="B111" s="9"/>
       <c r="C111" s="11"/>
       <c r="D111" s="28"/>
-      <c r="E111" s="138"/>
-      <c r="F111" s="139"/>
-      <c r="G111" s="139"/>
-      <c r="H111" s="139"/>
-      <c r="I111" s="139"/>
-      <c r="J111" s="139"/>
-      <c r="K111" s="139"/>
-      <c r="L111" s="139"/>
-      <c r="M111" s="139"/>
-      <c r="N111" s="139"/>
-      <c r="O111" s="139"/>
-      <c r="P111" s="139"/>
-      <c r="Q111" s="139"/>
-      <c r="R111" s="139"/>
-      <c r="S111" s="139"/>
-      <c r="T111" s="139"/>
-      <c r="U111" s="139"/>
-      <c r="V111" s="139"/>
-      <c r="W111" s="139"/>
-      <c r="X111" s="139"/>
-      <c r="Y111" s="139"/>
-      <c r="Z111" s="139"/>
-      <c r="AA111" s="139"/>
+      <c r="E111" s="151"/>
+      <c r="F111" s="152"/>
+      <c r="G111" s="152"/>
+      <c r="H111" s="152"/>
+      <c r="I111" s="152"/>
+      <c r="J111" s="152"/>
+      <c r="K111" s="152"/>
+      <c r="L111" s="152"/>
+      <c r="M111" s="152"/>
+      <c r="N111" s="152"/>
+      <c r="O111" s="152"/>
+      <c r="P111" s="152"/>
+      <c r="Q111" s="152"/>
+      <c r="R111" s="152"/>
+      <c r="S111" s="152"/>
+      <c r="T111" s="152"/>
+      <c r="U111" s="152"/>
+      <c r="V111" s="152"/>
+      <c r="W111" s="152"/>
+      <c r="X111" s="152"/>
+      <c r="Y111" s="152"/>
+      <c r="Z111" s="152"/>
+      <c r="AA111" s="152"/>
       <c r="AB111" s="10"/>
       <c r="AC111" s="10"/>
       <c r="AD111" s="10"/>
@@ -59029,29 +59012,29 @@
       <c r="B112" s="9"/>
       <c r="C112" s="11"/>
       <c r="D112" s="28"/>
-      <c r="E112" s="138"/>
-      <c r="F112" s="139"/>
-      <c r="G112" s="139"/>
-      <c r="H112" s="139"/>
-      <c r="I112" s="139"/>
-      <c r="J112" s="139"/>
-      <c r="K112" s="139"/>
-      <c r="L112" s="139"/>
-      <c r="M112" s="139"/>
-      <c r="N112" s="139"/>
-      <c r="O112" s="139"/>
-      <c r="P112" s="139"/>
-      <c r="Q112" s="139"/>
-      <c r="R112" s="139"/>
-      <c r="S112" s="139"/>
-      <c r="T112" s="139"/>
-      <c r="U112" s="139"/>
-      <c r="V112" s="139"/>
-      <c r="W112" s="139"/>
-      <c r="X112" s="139"/>
-      <c r="Y112" s="139"/>
-      <c r="Z112" s="139"/>
-      <c r="AA112" s="139"/>
+      <c r="E112" s="151"/>
+      <c r="F112" s="152"/>
+      <c r="G112" s="152"/>
+      <c r="H112" s="152"/>
+      <c r="I112" s="152"/>
+      <c r="J112" s="152"/>
+      <c r="K112" s="152"/>
+      <c r="L112" s="152"/>
+      <c r="M112" s="152"/>
+      <c r="N112" s="152"/>
+      <c r="O112" s="152"/>
+      <c r="P112" s="152"/>
+      <c r="Q112" s="152"/>
+      <c r="R112" s="152"/>
+      <c r="S112" s="152"/>
+      <c r="T112" s="152"/>
+      <c r="U112" s="152"/>
+      <c r="V112" s="152"/>
+      <c r="W112" s="152"/>
+      <c r="X112" s="152"/>
+      <c r="Y112" s="152"/>
+      <c r="Z112" s="152"/>
+      <c r="AA112" s="152"/>
       <c r="AB112" s="10"/>
       <c r="AC112" s="10"/>
       <c r="AD112" s="10"/>
@@ -59070,29 +59053,29 @@
       <c r="B113" s="9"/>
       <c r="C113" s="11"/>
       <c r="D113" s="28"/>
-      <c r="E113" s="138"/>
-      <c r="F113" s="139"/>
-      <c r="G113" s="139"/>
-      <c r="H113" s="139"/>
-      <c r="I113" s="139"/>
-      <c r="J113" s="139"/>
-      <c r="K113" s="139"/>
-      <c r="L113" s="139"/>
-      <c r="M113" s="139"/>
-      <c r="N113" s="139"/>
-      <c r="O113" s="139"/>
-      <c r="P113" s="139"/>
-      <c r="Q113" s="139"/>
-      <c r="R113" s="139"/>
-      <c r="S113" s="139"/>
-      <c r="T113" s="139"/>
-      <c r="U113" s="139"/>
-      <c r="V113" s="139"/>
-      <c r="W113" s="139"/>
-      <c r="X113" s="139"/>
-      <c r="Y113" s="139"/>
-      <c r="Z113" s="139"/>
-      <c r="AA113" s="139"/>
+      <c r="E113" s="151"/>
+      <c r="F113" s="152"/>
+      <c r="G113" s="152"/>
+      <c r="H113" s="152"/>
+      <c r="I113" s="152"/>
+      <c r="J113" s="152"/>
+      <c r="K113" s="152"/>
+      <c r="L113" s="152"/>
+      <c r="M113" s="152"/>
+      <c r="N113" s="152"/>
+      <c r="O113" s="152"/>
+      <c r="P113" s="152"/>
+      <c r="Q113" s="152"/>
+      <c r="R113" s="152"/>
+      <c r="S113" s="152"/>
+      <c r="T113" s="152"/>
+      <c r="U113" s="152"/>
+      <c r="V113" s="152"/>
+      <c r="W113" s="152"/>
+      <c r="X113" s="152"/>
+      <c r="Y113" s="152"/>
+      <c r="Z113" s="152"/>
+      <c r="AA113" s="152"/>
       <c r="AB113" s="10"/>
       <c r="AC113" s="10"/>
       <c r="AD113" s="10"/>
@@ -59111,29 +59094,29 @@
       <c r="B114" s="9"/>
       <c r="C114" s="11"/>
       <c r="D114" s="28"/>
-      <c r="E114" s="138"/>
-      <c r="F114" s="139"/>
-      <c r="G114" s="139"/>
-      <c r="H114" s="139"/>
-      <c r="I114" s="139"/>
-      <c r="J114" s="139"/>
-      <c r="K114" s="139"/>
-      <c r="L114" s="139"/>
-      <c r="M114" s="139"/>
-      <c r="N114" s="139"/>
-      <c r="O114" s="139"/>
-      <c r="P114" s="139"/>
-      <c r="Q114" s="139"/>
-      <c r="R114" s="139"/>
-      <c r="S114" s="139"/>
-      <c r="T114" s="139"/>
-      <c r="U114" s="139"/>
-      <c r="V114" s="139"/>
-      <c r="W114" s="139"/>
-      <c r="X114" s="139"/>
-      <c r="Y114" s="139"/>
-      <c r="Z114" s="139"/>
-      <c r="AA114" s="139"/>
+      <c r="E114" s="151"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="152"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="152"/>
+      <c r="J114" s="152"/>
+      <c r="K114" s="152"/>
+      <c r="L114" s="152"/>
+      <c r="M114" s="152"/>
+      <c r="N114" s="152"/>
+      <c r="O114" s="152"/>
+      <c r="P114" s="152"/>
+      <c r="Q114" s="152"/>
+      <c r="R114" s="152"/>
+      <c r="S114" s="152"/>
+      <c r="T114" s="152"/>
+      <c r="U114" s="152"/>
+      <c r="V114" s="152"/>
+      <c r="W114" s="152"/>
+      <c r="X114" s="152"/>
+      <c r="Y114" s="152"/>
+      <c r="Z114" s="152"/>
+      <c r="AA114" s="152"/>
       <c r="AB114" s="10"/>
       <c r="AC114" s="10"/>
       <c r="AD114" s="10"/>
@@ -59407,12 +59390,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="D15:S15"/>
-    <mergeCell ref="D16:S16"/>
-    <mergeCell ref="D23:S23"/>
-    <mergeCell ref="E26:T26"/>
-    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="E94:Y100"/>
     <mergeCell ref="E110:AA114"/>
     <mergeCell ref="E71:AA74"/>
@@ -59422,6 +59399,12 @@
     <mergeCell ref="E65:AA69"/>
     <mergeCell ref="E45:Y46"/>
     <mergeCell ref="E56:AA60"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="D15:S15"/>
+    <mergeCell ref="D16:S16"/>
+    <mergeCell ref="D23:S23"/>
+    <mergeCell ref="E26:T26"/>
+    <mergeCell ref="AM3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -59492,10 +59475,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
@@ -60039,22 +60022,22 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -60082,22 +60065,22 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -60375,22 +60358,22 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -60501,22 +60484,22 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -61575,10 +61558,10 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="117" t="s">
+      <c r="AM2" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="118"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="9"/>
@@ -61624,10 +61607,10 @@
       <c r="AJ3" s="10"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AM3" s="139" t="s">
         <v>614</v>
       </c>
-      <c r="AN3" s="171"/>
+      <c r="AN3" s="139"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="9"/>
@@ -62120,22 +62103,22 @@
       <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="121"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="133"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -62163,22 +62146,22 @@
       <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="136"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
@@ -62456,22 +62439,22 @@
       <c r="C23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="138"/>
+      <c r="S23" s="138"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -62582,22 +62565,22 @@
       <c r="D26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="126"/>
-      <c r="T26" s="126"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
